--- a/sriramModel-nelson-atypical-patientID_1-sims-acth-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-atypical-patientID_1-sims-acth-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.53367891203214</v>
+        <v>33.54994483592559</v>
       </c>
       <c r="C2">
-        <v>33.51996315090264</v>
+        <v>33.54661223542136</v>
       </c>
       <c r="D2">
-        <v>33.50837941924509</v>
+        <v>33.53182184011818</v>
       </c>
       <c r="E2">
-        <v>33.55358550268323</v>
+        <v>33.63920788659291</v>
       </c>
       <c r="F2">
-        <v>33.48731786077831</v>
+        <v>33.51994542428231</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33.46852763094784</v>
+        <v>33.50209612129115</v>
       </c>
       <c r="C3">
-        <v>33.4423770990774</v>
+        <v>33.49372620354935</v>
       </c>
       <c r="D3">
-        <v>33.42195170065344</v>
+        <v>33.46505770765377</v>
       </c>
       <c r="E3">
-        <v>33.50761120508756</v>
+        <v>33.69971264642489</v>
       </c>
       <c r="F3">
-        <v>33.37784959998772</v>
+        <v>33.44360060254727</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33.40449273029591</v>
+        <v>33.45622026423285</v>
       </c>
       <c r="C4">
-        <v>33.36712172358907</v>
+        <v>33.44129579192833</v>
       </c>
       <c r="D4">
-        <v>33.34032092545453</v>
+        <v>33.39964733790845</v>
       </c>
       <c r="E4">
-        <v>33.462023496223</v>
+        <v>33.77757291725415</v>
       </c>
       <c r="F4">
-        <v>33.27158827697311</v>
+        <v>33.37065730383159</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>33.34152133562173</v>
+        <v>33.4120827762787</v>
       </c>
       <c r="C5">
-        <v>33.2940792085728</v>
+        <v>33.38927509383355</v>
       </c>
       <c r="D5">
-        <v>33.26310622074501</v>
+        <v>33.33552842929373</v>
       </c>
       <c r="E5">
-        <v>33.41677023432236</v>
+        <v>33.86512528454506</v>
       </c>
       <c r="F5">
-        <v>33.16852710394361</v>
+        <v>33.30082609883901</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>33.27956114399832</v>
+        <v>33.36945002691703</v>
       </c>
       <c r="C6">
-        <v>33.22313407493498</v>
+        <v>33.33762000520423</v>
       </c>
       <c r="D6">
-        <v>33.18994202824677</v>
+        <v>33.27264011483074</v>
       </c>
       <c r="E6">
-        <v>33.37180072740631</v>
+        <v>33.95046345411547</v>
       </c>
       <c r="F6">
-        <v>33.06865942994872</v>
+        <v>33.23383506154399</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>33.21856044335942</v>
+        <v>33.32809110865877</v>
       </c>
       <c r="C7">
-        <v>33.15417320838034</v>
+        <v>33.28628761356681</v>
       </c>
       <c r="D7">
-        <v>33.1204783763225</v>
+        <v>33.21092251132412</v>
       </c>
       <c r="E7">
-        <v>33.32706571388913</v>
+        <v>34.01974046410948</v>
       </c>
       <c r="F7">
-        <v>32.97197872581928</v>
+        <v>33.16942848490579</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.15846813149615</v>
+        <v>33.28777947064155</v>
       </c>
       <c r="C8">
-        <v>33.08708588560165</v>
+        <v>33.23523607598027</v>
       </c>
       <c r="D8">
-        <v>33.05438110464024</v>
+        <v>33.15031651798314</v>
       </c>
       <c r="E8">
-        <v>33.28251734414263</v>
+        <v>34.06216850610202</v>
       </c>
       <c r="F8">
-        <v>32.87847856967752</v>
+        <v>33.10736604868944</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.09923373401134</v>
+        <v>33.24829419785353</v>
       </c>
       <c r="C9">
-        <v>33.0217637970874</v>
+        <v>33.18442473635491</v>
       </c>
       <c r="D9">
-        <v>32.99133201189579</v>
+        <v>33.09076384585784</v>
       </c>
       <c r="E9">
-        <v>33.2381091624463</v>
+        <v>34.07389605592102</v>
       </c>
       <c r="F9">
-        <v>32.78815263252145</v>
+        <v>33.0474221373139</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.04080742188381</v>
+        <v>33.20942094874358</v>
       </c>
       <c r="C10">
-        <v>32.95810106720501</v>
+        <v>33.13381406996562</v>
       </c>
       <c r="D10">
-        <v>32.93102891152555</v>
+        <v>33.03220695439716</v>
       </c>
       <c r="E10">
-        <v>33.19379608942459</v>
+        <v>34.05754112795575</v>
       </c>
       <c r="F10">
-        <v>32.70099466331912</v>
+        <v>32.98938514040996</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.98314002843401</v>
+        <v>33.17095259566058</v>
       </c>
       <c r="C11">
-        <v>32.89599427171867</v>
+        <v>33.08336568525544</v>
       </c>
       <c r="D11">
-        <v>32.87318559050006</v>
+        <v>32.97458907078091</v>
       </c>
       <c r="E11">
-        <v>33.14953440474701</v>
+        <v>34.01889636322403</v>
       </c>
       <c r="F11">
-        <v>32.61699847295435</v>
+        <v>32.9330566050746</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.92618306576</v>
+        <v>33.13268958323235</v>
       </c>
       <c r="C12">
-        <v>32.83534245232173</v>
+        <v>33.0330422781822</v>
       </c>
       <c r="D12">
-        <v>32.81753167304112</v>
+        <v>32.91785417296904</v>
       </c>
       <c r="E12">
-        <v>33.10528173014232</v>
+        <v>33.96400520959594</v>
       </c>
       <c r="F12">
-        <v>32.53615791622873</v>
+        <v>32.87825048287233</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.86988874044913</v>
+        <v>33.09444007897768</v>
       </c>
       <c r="C13">
-        <v>32.77604712843388</v>
+        <v>32.98280760839419</v>
       </c>
       <c r="D13">
-        <v>32.7638123955271</v>
+        <v>32.86194699443823</v>
       </c>
       <c r="E13">
-        <v>33.0609970127115</v>
+        <v>33.89780661028327</v>
       </c>
       <c r="F13">
-        <v>32.45846687094816</v>
+        <v>32.82479247110804</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.81420996870337</v>
+        <v>33.05602003767475</v>
       </c>
       <c r="C14">
-        <v>32.71801230626151</v>
+        <v>32.93262651441291</v>
       </c>
       <c r="D14">
-        <v>32.71178830149734</v>
+        <v>32.80681302928494</v>
       </c>
       <c r="E14">
-        <v>33.01664050841746</v>
+        <v>33.82390118305776</v>
       </c>
       <c r="F14">
-        <v>32.38391921288336</v>
+        <v>32.77251939389527</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.75910039082876</v>
+        <v>33.01725331855396</v>
       </c>
       <c r="C15">
-        <v>32.66114448510248</v>
+        <v>32.88246487506169</v>
       </c>
       <c r="D15">
-        <v>32.66123486705263</v>
+        <v>32.75239852680545</v>
       </c>
       <c r="E15">
-        <v>32.9721737657401</v>
+        <v>33.74477210588334</v>
       </c>
       <c r="F15">
-        <v>32.31250878509414</v>
+        <v>32.7212785978107</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.70451438510278</v>
+        <v>32.97797203424046</v>
       </c>
       <c r="C16">
-        <v>32.60535266095743</v>
+        <v>32.83228960737271</v>
       </c>
       <c r="D16">
-        <v>32.61194206755557</v>
+        <v>32.6986504999346</v>
       </c>
       <c r="E16">
-        <v>32.92755960946162</v>
+        <v>33.66209088963971</v>
       </c>
       <c r="F16">
-        <v>32.24422935972412</v>
+        <v>32.67092726196194</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.65040708096561</v>
+        <v>32.9380172327736</v>
       </c>
       <c r="C17">
-        <v>32.55054832747848</v>
+        <v>32.78206865594421</v>
       </c>
       <c r="D17">
-        <v>32.56371389611647</v>
+        <v>32.64551672810293</v>
       </c>
       <c r="E17">
-        <v>32.88276212454309</v>
+        <v>33.57697390126053</v>
       </c>
       <c r="F17">
-        <v>32.17907458988557</v>
+        <v>32.62133174443818</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.59673437159361</v>
+        <v>32.89723997885776</v>
       </c>
       <c r="C18">
-        <v>32.49664547429396</v>
+        <v>32.73177098706744</v>
       </c>
       <c r="D18">
-        <v>32.51636784436223</v>
+        <v>32.59294575779061</v>
       </c>
       <c r="E18">
-        <v>32.83774664005782</v>
+        <v>33.49016807743268</v>
       </c>
       <c r="F18">
-        <v>32.1170379486562</v>
+        <v>32.57236813422428</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.54345292578743</v>
+        <v>32.8555027861029</v>
       </c>
       <c r="C19">
-        <v>32.44356058276379</v>
+        <v>32.68136655807214</v>
       </c>
       <c r="D19">
-        <v>32.46973435478351</v>
+        <v>32.54088690695416</v>
       </c>
       <c r="E19">
-        <v>32.79247971315389</v>
+        <v>33.40217665267926</v>
       </c>
       <c r="F19">
-        <v>32.05811265146122</v>
+        <v>32.52392031291495</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.49052019922504</v>
+        <v>32.81268128885255</v>
       </c>
       <c r="C20">
-        <v>32.3912126192125</v>
+        <v>32.63082628260062</v>
       </c>
       <c r="D20">
-        <v>32.42365625330712</v>
+        <v>32.48929026642637</v>
       </c>
       <c r="E20">
-        <v>32.74692911302477</v>
+        <v>33.31334204516173</v>
       </c>
       <c r="F20">
-        <v>32.00229155718669</v>
+        <v>32.47588009219678</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.43789444502216</v>
+        <v>32.76866568822718</v>
       </c>
       <c r="C21">
-        <v>32.33952302570015</v>
+        <v>32.58012209759218</v>
       </c>
       <c r="D21">
-        <v>32.3779881697515</v>
+        <v>32.43810670774403</v>
       </c>
       <c r="E21">
-        <v>32.70106380485938</v>
+        <v>33.22389989694319</v>
       </c>
       <c r="F21">
-        <v>31.94956704225095</v>
+        <v>32.42814647347876</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.38553472365164</v>
+        <v>32.7233621425631</v>
       </c>
       <c r="C22">
-        <v>32.28841570839253</v>
+        <v>32.5292268845961</v>
       </c>
       <c r="D22">
-        <v>32.33259595286398</v>
+        <v>32.38728788031326</v>
       </c>
       <c r="E22">
-        <v>32.65485393375236</v>
+        <v>33.1340143460192</v>
       </c>
       <c r="F22">
-        <v>31.89993084048332</v>
+        <v>32.38062539060913</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.33340091216205</v>
+        <v>32.67669345196845</v>
       </c>
       <c r="C23">
-        <v>32.23781702359921</v>
+        <v>32.47811439682641</v>
       </c>
       <c r="D23">
-        <v>32.28735608573432</v>
+        <v>32.3367862330302</v>
       </c>
       <c r="E23">
-        <v>32.60827080855801</v>
+        <v>33.04380110603773</v>
       </c>
       <c r="F23">
-        <v>31.85337383998595</v>
+        <v>32.3332295727034</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.28145371274987</v>
+        <v>32.62859907221823</v>
       </c>
       <c r="C24">
-        <v>32.18765576154321</v>
+        <v>32.42675949283044</v>
       </c>
       <c r="D24">
-        <v>32.24215510650237</v>
+        <v>32.28655499966209</v>
       </c>
       <c r="E24">
-        <v>32.56128688567071</v>
+        <v>32.95334282671058</v>
       </c>
       <c r="F24">
-        <v>31.80988582618462</v>
+        <v>32.28587798211276</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.22965466062729</v>
+        <v>32.57903459988056</v>
       </c>
       <c r="C25">
-        <v>32.13786312794117</v>
+        <v>32.37513785811633</v>
       </c>
       <c r="D25">
-        <v>32.1968890384819</v>
+        <v>32.23654822891345</v>
       </c>
       <c r="E25">
-        <v>32.51387575271885</v>
+        <v>32.8626992637334</v>
       </c>
       <c r="F25">
-        <v>31.76945515787937</v>
+        <v>32.23849549575509</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>32.17796613124059</v>
+        <v>32.5279706987193</v>
       </c>
       <c r="C26">
-        <v>32.08837272346931</v>
+        <v>32.32322604812555</v>
       </c>
       <c r="D26">
-        <v>32.15146283308066</v>
+        <v>32.18672077069306</v>
       </c>
       <c r="E26">
-        <v>32.46601211216018</v>
+        <v>32.77191402520668</v>
       </c>
       <c r="F26">
-        <v>31.73206836029876</v>
+        <v>32.19101244566401</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>32.12635134678274</v>
+        <v>32.47539168409919</v>
       </c>
       <c r="C27">
-        <v>32.03912052119404</v>
+        <v>32.2710015472395</v>
       </c>
       <c r="D27">
-        <v>32.1057898282503</v>
+        <v>32.13702830120985</v>
       </c>
       <c r="E27">
-        <v>32.41767176476888</v>
+        <v>32.68101937411009</v>
       </c>
       <c r="F27">
-        <v>31.69770961594661</v>
+        <v>32.14336430736604</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>32.07477438205631</v>
+        <v>32.42129390455734</v>
       </c>
       <c r="C28">
-        <v>31.99004484204951</v>
+        <v>32.21844267175565</v>
       </c>
       <c r="D28">
-        <v>32.05979122460587</v>
+        <v>32.08742731694703</v>
       </c>
       <c r="E28">
-        <v>32.36883159300685</v>
+        <v>32.59003942186797</v>
       </c>
       <c r="F28">
-        <v>31.66636013022647</v>
+        <v>32.09549161180801</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>32.02320016963227</v>
+        <v>32.36568407094142</v>
       </c>
       <c r="C29">
-        <v>31.94108632844712</v>
+        <v>32.16552861517043</v>
       </c>
       <c r="D29">
-        <v>32.01339558083991</v>
+        <v>32.03787514897562</v>
       </c>
       <c r="E29">
-        <v>32.31946954427291</v>
+        <v>32.49899235840661</v>
       </c>
       <c r="F29">
-        <v>31.63799734463102</v>
+        <v>32.0473390841691</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>31.97159450436125</v>
+        <v>32.30857768738989</v>
       </c>
       <c r="C30">
-        <v>31.89218791610279</v>
+        <v>32.11223943349087</v>
       </c>
       <c r="D30">
-        <v>31.96653832961932</v>
+        <v>31.98832996816588</v>
       </c>
       <c r="E30">
-        <v>32.26956461402506</v>
+        <v>32.40789204835798</v>
       </c>
       <c r="F30">
-        <v>31.61259396573308</v>
+        <v>31.99885581963503</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>31.91992404718531</v>
+        <v>32.24999751663501</v>
       </c>
       <c r="C31">
-        <v>31.84329480417237</v>
+        <v>32.05855601218217</v>
       </c>
       <c r="D31">
-        <v>31.91916131474591</v>
+        <v>31.93875079790866</v>
       </c>
       <c r="E31">
-        <v>32.21909682877266</v>
+        <v>32.31674919003891</v>
       </c>
       <c r="F31">
-        <v>31.59011677315943</v>
+        <v>31.94999507694263</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>31.86815632830696</v>
+        <v>32.18997211647814</v>
       </c>
       <c r="C32">
-        <v>31.79435442378242</v>
+        <v>32.00446008763038</v>
       </c>
       <c r="D32">
-        <v>31.87121235005379</v>
+        <v>31.88909751646187</v>
       </c>
       <c r="E32">
-        <v>32.1680472289377</v>
+        <v>32.22557209683315</v>
       </c>
       <c r="F32">
-        <v>31.57052516501843</v>
+        <v>31.90071382475357</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>31.81625974966619</v>
+        <v>32.12853471508412</v>
       </c>
       <c r="C33">
-        <v>31.74531640504793</v>
+        <v>31.94993419757713</v>
       </c>
       <c r="D33">
-        <v>31.82264480022049</v>
+        <v>31.83933088035599</v>
       </c>
       <c r="E33">
-        <v>32.11639785158433</v>
+        <v>32.13436726341538</v>
       </c>
       <c r="F33">
-        <v>31.55376939432897</v>
+        <v>31.85097275039275</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>31.76420358678243</v>
+        <v>32.06572210023551</v>
       </c>
       <c r="C34">
-        <v>31.69613254267085</v>
+        <v>31.89496168008007</v>
       </c>
       <c r="D34">
-        <v>31.7734171834383</v>
+        <v>31.78941251138408</v>
       </c>
       <c r="E34">
-        <v>32.06413171301789</v>
+        <v>32.04313980237933</v>
       </c>
       <c r="F34">
-        <v>31.53978844745715</v>
+        <v>31.8007358350326</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>31.71195798991463</v>
+        <v>32.00157373905977</v>
       </c>
       <c r="C35">
-        <v>31.64675676020993</v>
+        <v>31.83952666143442</v>
       </c>
       <c r="D35">
-        <v>31.72349279571051</v>
+        <v>31.73930491509077</v>
       </c>
       <c r="E35">
-        <v>32.01123279125494</v>
+        <v>31.95189379165085</v>
       </c>
       <c r="F35">
-        <v>31.52850751333381</v>
+        <v>31.74997028871024</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>31.65949398459682</v>
+        <v>31.93613097368027</v>
       </c>
       <c r="C36">
-        <v>31.59714507311509</v>
+        <v>31.78361402718892</v>
       </c>
       <c r="D36">
-        <v>31.67283935635799</v>
+        <v>31.68897151233033</v>
       </c>
       <c r="E36">
-        <v>31.9576860083691</v>
+        <v>31.86063250260016</v>
       </c>
       <c r="F36">
-        <v>31.51983499509986</v>
+        <v>31.69864617632595</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>31.60678347150482</v>
+        <v>31.86943638987844</v>
       </c>
       <c r="C37">
-        <v>31.54725555061912</v>
+        <v>31.72720942374332</v>
       </c>
       <c r="D37">
-        <v>31.62142867421961</v>
+        <v>31.63837661347804</v>
       </c>
       <c r="E37">
-        <v>31.90347721271576</v>
+        <v>31.76935857220735</v>
       </c>
       <c r="F37">
-        <v>31.51365902365599</v>
+        <v>31.646736319437</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>31.55379922571144</v>
+        <v>31.80153325938246</v>
       </c>
       <c r="C38">
-        <v>31.49704827657918</v>
+        <v>31.6702992338027</v>
       </c>
       <c r="D38">
-        <v>31.56923633391388</v>
+        <v>31.58748543402642</v>
       </c>
       <c r="E38">
-        <v>31.84859316104206</v>
+        <v>31.67807413744178</v>
       </c>
       <c r="F38">
-        <v>31.50984344882189</v>
+        <v>31.59421613082461</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>31.50051489528897</v>
+        <v>31.73246510070492</v>
       </c>
       <c r="C39">
-        <v>31.44648530936034</v>
+        <v>31.6128705692914</v>
       </c>
       <c r="D39">
-        <v>31.51624140145839</v>
+        <v>31.53626412780991</v>
       </c>
       <c r="E39">
-        <v>31.79302150048693</v>
+        <v>31.58678094454009</v>
       </c>
       <c r="F39">
-        <v>31.50822331165034</v>
+        <v>31.54106339076314</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>31.44690499931552</v>
+        <v>31.66227529968816</v>
       </c>
       <c r="C40">
-        <v>31.39553064085294</v>
+        <v>31.5549112592253</v>
       </c>
       <c r="D40">
-        <v>31.46242614849957</v>
+        <v>31.48467979329605</v>
       </c>
       <c r="E40">
-        <v>31.73675075048007</v>
+        <v>31.49548042882042</v>
       </c>
       <c r="F40">
-        <v>31.50859984494511</v>
+        <v>31.48725820992841</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>31.39294492524757</v>
+        <v>31.59100682228927</v>
       </c>
       <c r="C41">
-        <v>31.34415015471189</v>
+        <v>31.49640983159444</v>
       </c>
       <c r="D41">
-        <v>31.40777579438446</v>
+        <v>31.4327004449639</v>
       </c>
       <c r="E41">
-        <v>31.67977028454658</v>
+        <v>31.4041737867841</v>
       </c>
       <c r="F41">
-        <v>31.51073511222643</v>
+        <v>31.43278280352338</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>31.33861092571452</v>
+        <v>31.51870199568825</v>
       </c>
       <c r="C42">
-        <v>31.29231158391028</v>
+        <v>31.43735550560092</v>
       </c>
       <c r="D42">
-        <v>31.35227826506657</v>
+        <v>31.38029505887811</v>
       </c>
       <c r="E42">
-        <v>31.6220703120264</v>
+        <v>31.31286201994848</v>
       </c>
       <c r="F42">
-        <v>31.51434648200526</v>
+        <v>31.37762140181522</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>31.28388011470071</v>
+        <v>31.44540229816315</v>
       </c>
       <c r="C43">
-        <v>31.23998446768593</v>
+        <v>31.37773817238553</v>
       </c>
       <c r="D43">
-        <v>31.29592396839966</v>
+        <v>31.32743358592422</v>
       </c>
       <c r="E43">
-        <v>31.56364185971686</v>
+        <v>31.22154595335698</v>
       </c>
       <c r="F43">
-        <v>31.51910124602336</v>
+        <v>31.32176010363398</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>31.22873046317007</v>
+        <v>31.37114819703527</v>
       </c>
       <c r="C44">
-        <v>31.18714010798356</v>
+        <v>31.31754838303328</v>
       </c>
       <c r="D44">
-        <v>31.23870558467975</v>
+        <v>31.27408693253041</v>
       </c>
       <c r="E44">
-        <v>31.50447675344938</v>
+        <v>31.13022627898171</v>
       </c>
       <c r="F44">
-        <v>31.52461182506425</v>
+        <v>31.26518673619118</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>31.17314079410224</v>
+        <v>31.29597905512152</v>
       </c>
       <c r="C45">
-        <v>31.13375152549772</v>
+        <v>31.25677733135207</v>
       </c>
       <c r="D45">
-        <v>31.18061787160739</v>
+        <v>31.22022699050675</v>
       </c>
       <c r="E45">
-        <v>31.44456759960983</v>
+        <v>31.03890357900657</v>
       </c>
       <c r="F45">
-        <v>31.53043215512614</v>
+        <v>31.2078907676447</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>31.11709077699398</v>
+        <v>31.21993306331981</v>
       </c>
       <c r="C46">
-        <v>31.07979341531849</v>
+        <v>31.1954168416681</v>
       </c>
       <c r="D46">
-        <v>31.12165748307089</v>
+        <v>31.16582662999786</v>
       </c>
       <c r="E46">
-        <v>31.38390776661362</v>
+        <v>30.94757834773056</v>
       </c>
       <c r="F46">
-        <v>31.53605599332449</v>
+        <v>31.14986315472313</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>31.06056092179852</v>
+        <v>31.14304718866287</v>
       </c>
       <c r="C47">
-        <v>31.02524210229591</v>
+        <v>31.13345936060655</v>
       </c>
       <c r="D47">
-        <v>31.0618228007797</v>
+        <v>31.11085972621091</v>
       </c>
       <c r="E47">
-        <v>31.32249136634641</v>
+        <v>30.85625100841706</v>
       </c>
       <c r="F47">
-        <v>31.5409179920142</v>
+        <v>31.09109629743495</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>31.00353257235509</v>
+        <v>31.06535713945647</v>
       </c>
       <c r="C48">
-        <v>30.97007549627388</v>
+        <v>31.07089793974795</v>
       </c>
       <c r="D48">
-        <v>31.00111377807092</v>
+        <v>31.05530115997088</v>
       </c>
       <c r="E48">
-        <v>31.2603132355823</v>
+        <v>30.76492192319796</v>
       </c>
       <c r="F48">
-        <v>31.54439842731551</v>
+        <v>31.03158388709659</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>30.9459878992849</v>
+        <v>30.98689733559741</v>
       </c>
       <c r="C49">
-        <v>30.9142730472016</v>
+        <v>31.00772619855766</v>
       </c>
       <c r="D49">
-        <v>30.93953179510263</v>
+        <v>30.99912680855009</v>
       </c>
       <c r="E49">
-        <v>31.19736891739134</v>
+        <v>30.67359140280529</v>
       </c>
       <c r="F49">
-        <v>31.54583237349162</v>
+        <v>30.97132087269107</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>30.88790989240437</v>
+        <v>30.9077009250036</v>
       </c>
       <c r="C50">
-        <v>30.85781570018493</v>
+        <v>30.94393835753614</v>
       </c>
       <c r="D50">
-        <v>30.87707952476476</v>
+        <v>30.94231356336999</v>
       </c>
       <c r="E50">
-        <v>31.13365464254817</v>
+        <v>30.58225971491936</v>
       </c>
       <c r="F50">
-        <v>31.544523847861</v>
+        <v>30.91030333966338</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>30.8292823526351</v>
+        <v>30.82779972266223</v>
       </c>
       <c r="C51">
-        <v>30.80068585056713</v>
+        <v>30.87952919355704</v>
       </c>
       <c r="D51">
-        <v>30.81376080859683</v>
+        <v>30.88483935990973</v>
       </c>
       <c r="E51">
-        <v>31.06916731095429</v>
+        <v>30.49092708928517</v>
       </c>
       <c r="F51">
-        <v>31.53976498154382</v>
+        <v>30.84852844600178</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>30.77008988346007</v>
+        <v>30.74722434892761</v>
       </c>
       <c r="C52">
-        <v>30.74286729912233</v>
+        <v>30.81449402781693</v>
       </c>
       <c r="D52">
-        <v>30.7495805420693</v>
+        <v>30.82668315157389</v>
       </c>
       <c r="E52">
-        <v>31.00390447308638</v>
+        <v>30.39959372542406</v>
       </c>
       <c r="F52">
-        <v>31.53085961684303</v>
+        <v>30.78599435509651</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>30.71031788190872</v>
+        <v>30.66600409188708</v>
       </c>
       <c r="C53">
-        <v>30.68434520741165</v>
+        <v>30.74882869935772</v>
       </c>
       <c r="D53">
-        <v>30.68454456861437</v>
+        <v>30.7678248946735</v>
       </c>
       <c r="E53">
-        <v>30.93786431148318</v>
+        <v>30.30825979723346</v>
       </c>
       <c r="F53">
-        <v>31.51714997009657</v>
+        <v>30.72270013540074</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>30.64995252911873</v>
+        <v>30.58416711747029</v>
       </c>
       <c r="C54">
-        <v>30.62510605335455</v>
+        <v>30.68252959094873</v>
       </c>
       <c r="D54">
-        <v>30.6186595818249</v>
+        <v>30.7082456291602</v>
       </c>
       <c r="E54">
-        <v>30.87104562228336</v>
+        <v>30.21692545711247</v>
       </c>
       <c r="F54">
-        <v>31.49804427098167</v>
+        <v>30.65864573450535</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>30.5889807804604</v>
+        <v>30.5017403613423</v>
       </c>
       <c r="C55">
-        <v>30.56513758709379</v>
+        <v>30.6155935840445</v>
       </c>
       <c r="D55">
-        <v>30.55193303526024</v>
+        <v>30.64792743068207</v>
       </c>
       <c r="E55">
-        <v>30.80344779682914</v>
+        <v>30.12559084010964</v>
       </c>
       <c r="F55">
-        <v>31.47304277707135</v>
+        <v>30.59383187375362</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>30.52739035526959</v>
+        <v>30.41874965610599</v>
       </c>
       <c r="C56">
-        <v>30.50442878720068</v>
+        <v>30.54801804670272</v>
       </c>
       <c r="D56">
-        <v>30.48437305932864</v>
+        <v>30.58685336209125</v>
       </c>
       <c r="E56">
-        <v>30.73507080334377</v>
+        <v>30.03425606370388</v>
       </c>
       <c r="F56">
-        <v>31.4417594365977</v>
+        <v>30.52826003184733</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>30.46516972617837</v>
+        <v>30.33521971486164</v>
       </c>
       <c r="C57">
-        <v>30.44296981727994</v>
+        <v>30.47980082465413</v>
       </c>
       <c r="D57">
-        <v>30.41598838476911</v>
+        <v>30.52500759706507</v>
       </c>
       <c r="E57">
-        <v>30.66591516869296</v>
+        <v>29.94292123338994</v>
       </c>
       <c r="F57">
-        <v>31.40393682862972</v>
+        <v>30.46193235293759</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>30.40230810808712</v>
+        <v>30.25117418800073</v>
       </c>
       <c r="C58">
-        <v>30.38075198299983</v>
+        <v>30.41094023326341</v>
       </c>
       <c r="D58">
-        <v>30.3467882722584</v>
+        <v>30.4623753506783</v>
       </c>
       <c r="E58">
-        <v>30.59598196025508</v>
+        <v>29.85158644008162</v>
       </c>
       <c r="F58">
-        <v>31.35945281993148</v>
+        <v>30.39485162630795</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>30.33879544677058</v>
+        <v>30.16663569757946</v>
       </c>
       <c r="C59">
-        <v>30.3177676896375</v>
+        <v>30.34143503555931</v>
       </c>
       <c r="D59">
-        <v>30.27678244771079</v>
+        <v>30.39894284670653</v>
       </c>
       <c r="E59">
-        <v>30.52527276791041</v>
+        <v>29.76025176562933</v>
       </c>
       <c r="F59">
-        <v>31.30831848239245</v>
+        <v>30.32702121738819</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>30.27462240715915</v>
+        <v>30.08162587206835</v>
       </c>
       <c r="C60">
-        <v>30.25401040014959</v>
+        <v>30.27128443937121</v>
       </c>
       <c r="D60">
-        <v>30.20598104285155</v>
+        <v>30.33469736748529</v>
       </c>
       <c r="E60">
-        <v>30.45378968614528</v>
+        <v>29.6689172812073</v>
       </c>
       <c r="F60">
-        <v>31.25066796904571</v>
+        <v>30.25844503125082</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>30.20978036129122</v>
+        <v>29.99616539695807</v>
       </c>
       <c r="C61">
-        <v>30.18947459383303</v>
+        <v>30.20048806904583</v>
       </c>
       <c r="D61">
-        <v>30.13439454070111</v>
+        <v>30.26962728228541</v>
       </c>
       <c r="E61">
-        <v>30.38153529629413</v>
+        <v>29.57758305071426</v>
       </c>
       <c r="F61">
-        <v>31.1867419995775</v>
+        <v>30.18912747430157</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>30.14426137597525</v>
+        <v>29.91027404506591</v>
       </c>
       <c r="C62">
-        <v>30.1241557255686</v>
+        <v>30.12904595970453</v>
       </c>
       <c r="D62">
-        <v>30.06203372559535</v>
+        <v>30.20372197556912</v>
       </c>
       <c r="E62">
-        <v>30.30851264893648</v>
+        <v>29.4862491310956</v>
       </c>
       <c r="F62">
-        <v>31.11686718129491</v>
+        <v>30.11907339734191</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>30.07805820016037</v>
+        <v>29.82397072772135</v>
       </c>
       <c r="C63">
-        <v>30.05805018575449</v>
+        <v>30.05695854607215</v>
       </c>
       <c r="D63">
-        <v>29.98890963741488</v>
+        <v>30.1369718209718</v>
       </c>
       <c r="E63">
-        <v>30.23472524645221</v>
+        <v>29.39491557150884</v>
       </c>
       <c r="F63">
-        <v>31.041433530447</v>
+        <v>30.04828808251606</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>30.01116425205181</v>
+        <v>29.73727352278208</v>
       </c>
       <c r="C64">
-        <v>29.99115526090359</v>
+        <v>29.98422666310128</v>
       </c>
       <c r="D64">
-        <v>29.91503352970475</v>
+        <v>30.06936831788261</v>
       </c>
       <c r="E64">
-        <v>30.16017702574708</v>
+        <v>29.30358241782095</v>
       </c>
       <c r="F64">
-        <v>30.96087231833299</v>
+        <v>29.97677718532983</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>29.94357360597256</v>
+        <v>29.650199720286</v>
       </c>
       <c r="C65">
-        <v>29.92346909497323</v>
+        <v>29.91085149728897</v>
       </c>
       <c r="D65">
-        <v>29.84041683140445</v>
+        <v>30.00090397954986</v>
       </c>
       <c r="E65">
-        <v>30.08487234116407</v>
+        <v>29.21224971382586</v>
       </c>
       <c r="F65">
-        <v>30.87563587705238</v>
+        <v>29.90454673377554</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>29.87528097900518</v>
+        <v>29.56276584645552</v>
       </c>
       <c r="C66">
-        <v>29.85499065139278</v>
+        <v>29.83683459970753</v>
       </c>
       <c r="D66">
-        <v>29.76507111190794</v>
+        <v>29.93157223245402</v>
       </c>
       <c r="E66">
-        <v>30.00881594758546</v>
+        <v>29.12091749383418</v>
       </c>
       <c r="F66">
-        <v>30.78618041100563</v>
+        <v>29.8316030345457</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>29.80628171741757</v>
+        <v>29.47498771086628</v>
       </c>
       <c r="C67">
-        <v>29.78571967590244</v>
+        <v>29.76217787611051</v>
       </c>
       <c r="D67">
-        <v>29.68900804920353</v>
+        <v>29.86136764954756</v>
       </c>
       <c r="E67">
-        <v>29.93201298373924</v>
+        <v>29.02958578854139</v>
       </c>
       <c r="F67">
-        <v>30.69295229838089</v>
+        <v>29.7579527206255</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>29.73657178290412</v>
+        <v>29.38688042721865</v>
       </c>
       <c r="C68">
-        <v>29.71565666015574</v>
+        <v>29.68688357201195</v>
       </c>
       <c r="D68">
-        <v>29.61223940085863</v>
+        <v>29.79028578710895</v>
       </c>
       <c r="E68">
-        <v>29.85446895572033</v>
+        <v>28.9382546355385</v>
       </c>
       <c r="F68">
-        <v>30.59637791172323</v>
+        <v>29.6836026862537</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>29.66614773864833</v>
+        <v>29.29845845513275</v>
       </c>
       <c r="C69">
-        <v>29.64480280614406</v>
+        <v>29.61095423933459</v>
       </c>
       <c r="D69">
-        <v>29.53477697763462</v>
+        <v>29.71832311622271</v>
       </c>
       <c r="E69">
-        <v>29.77618972072933</v>
+        <v>28.84692406433</v>
       </c>
       <c r="F69">
-        <v>30.49685667054343</v>
+        <v>29.60855998679654</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>29.59500673523581</v>
+        <v>29.20973562558101</v>
       </c>
       <c r="C70">
-        <v>29.57315999140767</v>
+        <v>29.53439274386044</v>
       </c>
       <c r="D70">
-        <v>29.45663261952545</v>
+        <v>29.64547713764286</v>
       </c>
       <c r="E70">
-        <v>29.69718147104398</v>
+        <v>28.75559408959329</v>
       </c>
       <c r="F70">
-        <v>30.39475685779896</v>
+        <v>29.53283202344116</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>29.52314649642235</v>
+        <v>29.12072517201194</v>
       </c>
       <c r="C71">
-        <v>29.50073073511435</v>
+        <v>29.45720226578217</v>
       </c>
       <c r="D71">
-        <v>29.37781817403091</v>
+        <v>29.57174636703443</v>
       </c>
       <c r="E71">
-        <v>29.61745071823452</v>
+        <v>28.66426474358993</v>
       </c>
       <c r="F71">
-        <v>30.29041366101417</v>
+        <v>29.45642627603943</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>29.45056530478915</v>
+        <v>29.0314397618738</v>
       </c>
       <c r="C72">
-        <v>29.42751816497706</v>
+        <v>29.37938625896637</v>
       </c>
       <c r="D72">
-        <v>29.29834547649352</v>
+        <v>29.49713022318423</v>
       </c>
       <c r="E72">
-        <v>29.53700427762306</v>
+        <v>28.57293605170494</v>
       </c>
       <c r="F72">
-        <v>30.18412890553477</v>
+        <v>29.37935039941476</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>29.37726198730986</v>
+        <v>28.94189151636694</v>
       </c>
       <c r="C73">
-        <v>29.35352598503628</v>
+        <v>29.30094844733674</v>
       </c>
       <c r="D73">
-        <v>29.21822633233545</v>
+        <v>29.42162901207529</v>
       </c>
       <c r="E73">
-        <v>29.45584925299946</v>
+        <v>28.48160802232796</v>
       </c>
       <c r="F73">
-        <v>30.07617200129012</v>
+        <v>29.30161230339515</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>29.30323590081698</v>
+        <v>28.85209204605473</v>
       </c>
       <c r="C74">
-        <v>29.27875844428213</v>
+        <v>29.22189281985026</v>
       </c>
       <c r="D74">
-        <v>29.13747250104574</v>
+        <v>29.34524407673664</v>
       </c>
       <c r="E74">
-        <v>29.37399302160263</v>
+        <v>28.3902806789023</v>
       </c>
       <c r="F74">
-        <v>29.96678170102799</v>
+        <v>29.22321991714908</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>29.22848691738908</v>
+        <v>28.76205246464026</v>
       </c>
       <c r="C75">
-        <v>29.20322030616089</v>
+        <v>29.1422236437617</v>
       </c>
       <c r="D75">
-        <v>29.05609568177564</v>
+        <v>29.26797763307188</v>
       </c>
       <c r="E75">
-        <v>29.29144321936468</v>
+        <v>28.29895403867275</v>
       </c>
       <c r="F75">
-        <v>29.85616834984439</v>
+        <v>29.14418133324224</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>29.15301540969795</v>
+        <v>28.67178342145451</v>
       </c>
       <c r="C76">
-        <v>29.12691681896113</v>
+        <v>29.06194539349588</v>
       </c>
       <c r="D76">
-        <v>28.97410750041915</v>
+        <v>29.18983265451172</v>
       </c>
       <c r="E76">
-        <v>29.2082077264342</v>
+        <v>28.20762811373044</v>
       </c>
       <c r="F76">
-        <v>29.74451638376101</v>
+        <v>29.06450477161927</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>29.07682223633216</v>
+        <v>28.58129511760414</v>
       </c>
       <c r="C77">
-        <v>29.04985368707237</v>
+        <v>28.98106278100762</v>
       </c>
       <c r="D77">
-        <v>28.8915194980549</v>
+        <v>29.1108131382892</v>
       </c>
       <c r="E77">
-        <v>29.12429465298442</v>
+        <v>28.11630291712124</v>
       </c>
       <c r="F77">
-        <v>29.63198690083815</v>
+        <v>28.9841984865568</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>28.99990872710174</v>
+        <v>28.49059732929028</v>
       </c>
       <c r="C78">
-        <v>28.97203704310456</v>
+        <v>28.89958074505786</v>
       </c>
       <c r="D78">
-        <v>28.80834312064113</v>
+        <v>29.03092389420419</v>
       </c>
       <c r="E78">
-        <v>29.03971232530405</v>
+        <v>28.02497846112199</v>
       </c>
       <c r="F78">
-        <v>29.51872018400691</v>
+        <v>28.90327084283106</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>28.92227666833393</v>
+        <v>28.39969943037305</v>
       </c>
       <c r="C79">
-        <v>28.89347342087755</v>
+        <v>28.81750444767331</v>
       </c>
       <c r="D79">
-        <v>28.7245897098593</v>
+        <v>28.95017043815044</v>
       </c>
       <c r="E79">
-        <v>28.95446927218106</v>
+        <v>27.93365475666535</v>
       </c>
       <c r="F79">
-        <v>29.4048380969904</v>
+        <v>28.82173024850903</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>28.84392828818017</v>
+        <v>28.30861040581631</v>
       </c>
       <c r="C80">
-        <v>28.81416972929984</v>
+        <v>28.73483921969808</v>
       </c>
       <c r="D80">
-        <v>28.64027049501604</v>
+        <v>28.86855916985935</v>
       </c>
       <c r="E80">
-        <v>28.86857421158579</v>
+        <v>27.84233181394503</v>
       </c>
       <c r="F80">
-        <v>29.29044630685382</v>
+        <v>28.7395851416385</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>28.76486624195409</v>
+        <v>28.21733887758086</v>
       </c>
       <c r="C81">
-        <v>28.73413322710022</v>
+        <v>28.65159058664143</v>
       </c>
       <c r="D81">
-        <v>28.55539658591265</v>
+        <v>28.78609728032308</v>
       </c>
       <c r="E81">
-        <v>28.78203603764534</v>
+        <v>27.75100964222925</v>
       </c>
       <c r="F81">
-        <v>29.17563630989322</v>
+        <v>28.65684403581243</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>28.68509359751515</v>
+        <v>28.12589311411887</v>
       </c>
       <c r="C82">
-        <v>28.65337149841372</v>
+        <v>28.56776427358441</v>
       </c>
       <c r="D82">
-        <v>28.46997896660296</v>
+        <v>28.70279263815996</v>
       </c>
       <c r="E82">
-        <v>28.69486380792755</v>
+        <v>27.65968825026188</v>
       </c>
       <c r="F82">
-        <v>29.06048725370154</v>
+        <v>28.57351542385893</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>28.6046138207098</v>
+        <v>28.03428105333854</v>
       </c>
       <c r="C83">
-        <v>28.57189242919985</v>
+        <v>28.48336616429869</v>
       </c>
       <c r="D83">
-        <v>28.38402848996421</v>
+        <v>28.61865379590889</v>
       </c>
       <c r="E83">
-        <v>28.6070667310332</v>
+        <v>27.56836764598865</v>
       </c>
       <c r="F83">
-        <v>28.94506755898448</v>
+        <v>28.4896078262506</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>28.52343076088295</v>
+        <v>27.94251031401345</v>
       </c>
       <c r="C84">
-        <v>28.48970418453362</v>
+        <v>28.3984022867667</v>
       </c>
       <c r="D84">
-        <v>28.29755587301961</v>
+        <v>28.53369008842978</v>
       </c>
       <c r="E84">
-        <v>28.51865415449338</v>
+        <v>27.47704783757129</v>
       </c>
       <c r="F84">
-        <v>28.82943635143252</v>
+        <v>28.40512979572657</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>28.44154863647412</v>
+        <v>27.85058821176308</v>
       </c>
       <c r="C85">
-        <v>28.40681518670934</v>
+        <v>28.3128788211066</v>
       </c>
       <c r="D85">
-        <v>28.21057169293045</v>
+        <v>28.4479114670515</v>
       </c>
       <c r="E85">
-        <v>28.42963555297917</v>
+        <v>27.38572883277384</v>
       </c>
       <c r="F85">
-        <v>28.71364471781126</v>
+        <v>28.32008984009347</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>28.358972020712</v>
+        <v>27.75852177533081</v>
       </c>
       <c r="C86">
-        <v>28.32323409416943</v>
+        <v>28.22680212752836</v>
       </c>
       <c r="D86">
-        <v>28.1230863835932</v>
+        <v>28.36132841035303</v>
       </c>
       <c r="E86">
-        <v>28.34002051682774</v>
+        <v>27.2944106344559</v>
       </c>
       <c r="F86">
-        <v>28.59773680228109</v>
+        <v>28.23449648342473</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>28.27570582742001</v>
+        <v>27.66631775536232</v>
       </c>
       <c r="C87">
-        <v>28.23896978121204</v>
+        <v>28.14017865106911</v>
       </c>
       <c r="D87">
-        <v>28.03511023286807</v>
+        <v>28.27395211880904</v>
       </c>
       <c r="E87">
-        <v>28.24981874087181</v>
+        <v>27.20309325069473</v>
       </c>
       <c r="F87">
-        <v>28.48175075945192</v>
+        <v>28.14835823418137</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>28.19175529694454</v>
+        <v>27.57398264289059</v>
       </c>
       <c r="C88">
-        <v>28.15403131853379</v>
+        <v>28.05301497044473</v>
       </c>
       <c r="D88">
-        <v>27.946653380274</v>
+        <v>28.18579432732882</v>
       </c>
       <c r="E88">
-        <v>28.15904001359276</v>
+        <v>27.11177668803415</v>
       </c>
       <c r="F88">
-        <v>28.36571958029904</v>
+        <v>28.06168355394615</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>28.10712598221715</v>
+        <v>27.48152267577293</v>
       </c>
       <c r="C89">
-        <v>28.06842795453045</v>
+        <v>27.96531778380692</v>
       </c>
       <c r="D89">
-        <v>27.85772581516092</v>
+        <v>28.09686720447619</v>
       </c>
       <c r="E89">
-        <v>28.06769420658845</v>
+        <v>27.02046095334166</v>
       </c>
       <c r="F89">
-        <v>28.24967180615721</v>
+        <v>27.97448090453081</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>28.02182373496214</v>
+        <v>27.3889438547185</v>
       </c>
       <c r="C90">
-        <v>27.98216909737663</v>
+        <v>27.87709391991357</v>
       </c>
       <c r="D90">
-        <v>27.76833737532095</v>
+        <v>28.00718350576052</v>
       </c>
       <c r="E90">
-        <v>27.97579126435323</v>
+        <v>26.9291460537384</v>
       </c>
       <c r="F90">
-        <v>28.13363214480525</v>
+        <v>27.8867586895077</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>27.93585469205998</v>
+        <v>27.29625195137944</v>
       </c>
       <c r="C91">
-        <v>27.89526429782012</v>
+        <v>27.78835026628726</v>
       </c>
       <c r="D91">
-        <v>27.67849774599813</v>
+        <v>27.91675644173242</v>
       </c>
       <c r="E91">
-        <v>27.88334119437351</v>
+        <v>26.83783198360176</v>
       </c>
       <c r="F91">
-        <v>28.01762200132328</v>
+        <v>27.79852527298228</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>27.84922526207705</v>
+        <v>27.20345251926852</v>
       </c>
       <c r="C92">
-        <v>27.80772323275806</v>
+        <v>27.69909380958322</v>
       </c>
       <c r="D92">
-        <v>27.58821645923805</v>
+        <v>27.82559961205987</v>
       </c>
       <c r="E92">
-        <v>27.79035405754126</v>
+        <v>26.74651875382497</v>
       </c>
       <c r="F92">
-        <v>27.90165993504911</v>
+        <v>27.70978898994165</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>27.76194211197091</v>
+        <v>27.11055090536627</v>
       </c>
       <c r="C93">
-        <v>27.71955568950716</v>
+        <v>27.60933163709552</v>
       </c>
       <c r="D93">
-        <v>27.49750289357025</v>
+        <v>27.73372700906456</v>
       </c>
       <c r="E93">
-        <v>27.69683995886836</v>
+        <v>26.65520636980067</v>
       </c>
       <c r="F93">
-        <v>27.78576205264897</v>
+        <v>27.62055810369306</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>27.67401215398029</v>
+        <v>27.01755225601939</v>
       </c>
       <c r="C94">
-        <v>27.63077155079446</v>
+        <v>27.51907091100856</v>
       </c>
       <c r="D94">
-        <v>27.40636627397719</v>
+        <v>27.64115302516413</v>
       </c>
       <c r="E94">
-        <v>27.60280903852327</v>
+        <v>26.56389483732548</v>
       </c>
       <c r="F94">
-        <v>27.66994234609073</v>
+        <v>27.53084083220909</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>27.58544253270847</v>
+        <v>26.92446152993092</v>
       </c>
       <c r="C95">
-        <v>27.54138078039328</v>
+        <v>27.42831883753057</v>
       </c>
       <c r="D95">
-        <v>27.31481567212945</v>
+        <v>27.5478923597485</v>
       </c>
       <c r="E95">
-        <v>27.5082714631747</v>
+        <v>26.47258416256925</v>
       </c>
       <c r="F95">
-        <v>27.55421298318447</v>
+        <v>27.44064534110733</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>27.49624061240799</v>
+        <v>26.8312835026628</v>
       </c>
       <c r="C96">
-        <v>27.45139340947693</v>
+        <v>27.33708268845547</v>
       </c>
       <c r="D96">
-        <v>27.22286000685529</v>
+        <v>27.45395997984052</v>
       </c>
       <c r="E96">
-        <v>27.41323741764032</v>
+        <v>26.38127433757228</v>
       </c>
       <c r="F96">
-        <v>27.43858455734398</v>
+        <v>27.3499797186552</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>27.4064139644744</v>
+        <v>26.73802277622144</v>
       </c>
       <c r="C97">
-        <v>27.36081952359813</v>
+        <v>27.24536982528918</v>
       </c>
       <c r="D97">
-        <v>27.13050804482694</v>
+        <v>27.35937114672875</v>
       </c>
       <c r="E97">
-        <v>27.31771709684087</v>
+        <v>26.28996537257447</v>
       </c>
       <c r="F97">
-        <v>27.32306630232357</v>
+        <v>27.25885200327825</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>27.31597035515605</v>
+        <v>26.64468378672217</v>
       </c>
       <c r="C98">
-        <v>27.26966925031946</v>
+        <v>27.15318762106631</v>
       </c>
       <c r="D98">
-        <v>27.03776840143668</v>
+        <v>27.26414133710741</v>
       </c>
       <c r="E98">
-        <v>27.22172069806037</v>
+        <v>26.19865727138628</v>
       </c>
       <c r="F98">
-        <v>27.20766627689283</v>
+        <v>27.16727015894816</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>27.22491773348642</v>
+        <v>26.55127081732658</v>
       </c>
       <c r="C99">
-        <v>27.17795274742664</v>
+        <v>27.06054349080372</v>
       </c>
       <c r="D99">
-        <v>26.94464954184531</v>
+        <v>27.16828621956585</v>
       </c>
       <c r="E99">
-        <v>27.12525841349231</v>
+        <v>26.10735003790767</v>
       </c>
       <c r="F99">
-        <v>27.09239152370917</v>
+        <v>27.07524207359</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>27.13326421944517</v>
+        <v>26.45778798600973</v>
       </c>
       <c r="C100">
-        <v>27.08568019177715</v>
+        <v>26.96744488859256</v>
       </c>
       <c r="D100">
-        <v>26.85115978218434</v>
+        <v>27.07182162351663</v>
       </c>
       <c r="E100">
-        <v>27.02834042309438</v>
+        <v>26.01604367615741</v>
       </c>
       <c r="F100">
-        <v>26.97724820609196</v>
+        <v>26.98277557859389</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>27.04101809235339</v>
+        <v>26.36423928308588</v>
       </c>
       <c r="C101">
-        <v>26.99286176871401</v>
+        <v>26.87389932944169</v>
       </c>
       <c r="D101">
-        <v>26.75730729089388</v>
+        <v>26.97476351350366</v>
       </c>
       <c r="E101">
-        <v>26.93097688773068</v>
+        <v>25.92473818265423</v>
       </c>
       <c r="F101">
-        <v>26.86224172582429</v>
+        <v>26.8898784151022</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>26.94818777950812</v>
+        <v>26.27062855493158</v>
       </c>
       <c r="C102">
-        <v>26.89950766205268</v>
+        <v>26.77991430652401</v>
       </c>
       <c r="D102">
-        <v>26.66310009018191</v>
+        <v>26.8771279592044</v>
       </c>
       <c r="E102">
-        <v>26.83317794260078</v>
+        <v>25.83343356317732</v>
       </c>
       <c r="F102">
-        <v>26.74737682458846</v>
+        <v>26.79655825281607</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>26.85478184506082</v>
+        <v>26.17695950367504</v>
       </c>
       <c r="C103">
-        <v>26.80562804459247</v>
+        <v>26.685497340917</v>
       </c>
       <c r="D103">
-        <v>26.56854605758934</v>
+        <v>26.77893109069203</v>
       </c>
       <c r="E103">
-        <v>26.73495369095335</v>
+        <v>25.74212982000635</v>
       </c>
       <c r="F103">
-        <v>26.63265767154348</v>
+        <v>26.70282269031047</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>26.76080897914384</v>
+        <v>26.08323572457792</v>
       </c>
       <c r="C104">
-        <v>26.71123306917519</v>
+        <v>26.59065597860711</v>
       </c>
       <c r="D104">
-        <v>26.47365292764966</v>
+        <v>26.68018910232075</v>
       </c>
       <c r="E104">
-        <v>26.63631419808351</v>
+        <v>25.65082695527397</v>
       </c>
       <c r="F104">
-        <v>26.51808793883989</v>
+        <v>26.60867923603185</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>26.66627798724854</v>
+        <v>25.98946067476973</v>
       </c>
       <c r="C105">
-        <v>26.61633286025148</v>
+        <v>26.49539778159608</v>
       </c>
       <c r="D105">
-        <v>26.37842829362879</v>
+        <v>26.58091818418451</v>
       </c>
       <c r="E105">
-        <v>26.5372694855924</v>
+        <v>25.55952497097688</v>
       </c>
       <c r="F105">
-        <v>26.40367086685805</v>
+        <v>26.51413532438574</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>26.57119777985834</v>
+        <v>25.89563769927403</v>
       </c>
       <c r="C106">
-        <v>26.52093750594278</v>
+        <v>26.39973028394327</v>
       </c>
       <c r="D106">
-        <v>26.28287960933697</v>
+        <v>26.48113452933671</v>
       </c>
       <c r="E106">
-        <v>26.43782952593149</v>
+        <v>25.46822386848247</v>
       </c>
       <c r="F106">
-        <v>26.28940932059036</v>
+        <v>26.41919830796589</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>26.47557736233935</v>
+        <v>25.80177003764697</v>
       </c>
       <c r="C107">
-        <v>26.42505705056814</v>
+        <v>26.30366102311934</v>
       </c>
       <c r="D107">
-        <v>26.18701419099967</v>
+        <v>26.38085429367458</v>
       </c>
       <c r="E107">
-        <v>26.33800423720674</v>
+        <v>25.37692364962856</v>
       </c>
       <c r="F107">
-        <v>26.17530583841362</v>
+        <v>26.32387545084041</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>26.37942582509094</v>
+        <v>25.70786080914081</v>
       </c>
       <c r="C108">
-        <v>26.32870148763649</v>
+        <v>26.20719755608048</v>
       </c>
       <c r="D108">
-        <v>26.0908392191814</v>
+        <v>26.28009356313377</v>
       </c>
       <c r="E108">
-        <v>26.23780347824323</v>
+        <v>25.28562431590849</v>
       </c>
       <c r="F108">
-        <v>26.06136267431169</v>
+        <v>26.22817394218885</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>26.28275233395818</v>
+        <v>25.61391304185003</v>
       </c>
       <c r="C109">
-        <v>26.2318807532877</v>
+        <v>26.11034740651604</v>
       </c>
       <c r="D109">
-        <v>25.99436174075118</v>
+        <v>26.17886836371954</v>
       </c>
       <c r="E109">
-        <v>26.13723704390588</v>
+        <v>25.19432586868888</v>
       </c>
       <c r="F109">
-        <v>25.94758183446375</v>
+        <v>26.13210087986488</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>26.18556612090756</v>
+        <v>25.51992966094723</v>
       </c>
       <c r="C110">
-        <v>26.13460472015671</v>
+        <v>26.01311807360601</v>
       </c>
       <c r="D110">
-        <v>25.89758867088469</v>
+        <v>26.07719458840378</v>
       </c>
       <c r="E110">
-        <v>26.03631466067444</v>
+        <v>25.10302830922022</v>
       </c>
       <c r="F110">
-        <v>25.83396510897572</v>
+        <v>26.03566327768058</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>26.08787647496706</v>
+        <v>25.42591349435912</v>
       </c>
       <c r="C111">
-        <v>26.03688319164324</v>
+        <v>25.91551703907727</v>
       </c>
       <c r="D111">
-        <v>25.80052679509369</v>
+        <v>25.97508803056806</v>
       </c>
       <c r="E111">
-        <v>25.93504598245079</v>
+        <v>25.01173163973719</v>
       </c>
       <c r="F111">
-        <v>25.72051409942076</v>
+        <v>25.93886806999506</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>25.98969273343133</v>
+        <v>25.33186728587386</v>
       </c>
       <c r="C112">
-        <v>25.93872589657309</v>
+        <v>25.8175517941853</v>
       </c>
       <c r="D112">
-        <v>25.70318277127865</v>
+        <v>25.87256432641974</v>
       </c>
       <c r="E112">
-        <v>25.83344058662066</v>
+        <v>24.92043586112988</v>
       </c>
       <c r="F112">
-        <v>25.6072302427689</v>
+        <v>25.84172209860566</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>25.89102427333218</v>
+        <v>25.23779368603393</v>
       </c>
       <c r="C113">
-        <v>25.84014248424953</v>
+        <v>25.71922975834017</v>
       </c>
       <c r="D113">
-        <v>25.60556313179686</v>
+        <v>25.76963894572635</v>
       </c>
       <c r="E113">
-        <v>25.73150797034226</v>
+        <v>24.82914097469772</v>
       </c>
       <c r="F113">
-        <v>25.49411483219548</v>
+        <v>25.74423212286274</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>25.79188050317436</v>
+        <v>25.14369526612904</v>
       </c>
       <c r="C114">
-        <v>25.74114251986165</v>
+        <v>25.62055832923037</v>
       </c>
       <c r="D114">
-        <v>25.50767428554236</v>
+        <v>25.66632720299976</v>
       </c>
       <c r="E114">
-        <v>25.62925754706399</v>
+        <v>24.73784698174326</v>
       </c>
       <c r="F114">
-        <v>25.38116903519083</v>
+        <v>25.64640481824021</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>25.69227085493623</v>
+        <v>25.04957451889187</v>
       </c>
       <c r="C115">
-        <v>25.64173548024125</v>
+        <v>25.52154487658726</v>
       </c>
       <c r="D115">
-        <v>25.40952252003187</v>
+        <v>25.56264418559858</v>
       </c>
       <c r="E115">
-        <v>25.52669864326522</v>
+        <v>24.6465538835729</v>
       </c>
       <c r="F115">
-        <v>25.26839390933753</v>
+        <v>25.5482467698908</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>25.59220477633459</v>
+        <v>24.95543385328963</v>
       </c>
       <c r="C116">
-        <v>25.5419307499453</v>
+        <v>25.42219674689164</v>
       </c>
       <c r="D116">
-        <v>25.31111400349299</v>
+        <v>25.45860481014265</v>
       </c>
       <c r="E116">
-        <v>25.4238404954177</v>
+        <v>24.5552616809575</v>
       </c>
       <c r="F116">
-        <v>25.15579041606435</v>
+        <v>25.44976448148751</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>25.49169172335246</v>
+        <v>24.86127561268804</v>
       </c>
       <c r="C117">
-        <v>25.44173761767241</v>
+        <v>25.32252121388714</v>
       </c>
       <c r="D117">
-        <v>25.21245478695067</v>
+        <v>25.35422374416303</v>
       </c>
       <c r="E117">
-        <v>25.32069224714626</v>
+        <v>24.46397037532205</v>
       </c>
       <c r="F117">
-        <v>25.04335943264876</v>
+        <v>25.35096436926028</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>25.39074115302856</v>
+        <v>24.76710206549168</v>
       </c>
       <c r="C118">
-        <v>25.34116527297665</v>
+        <v>25.22252551356234</v>
       </c>
       <c r="D118">
-        <v>25.11355080630828</v>
+        <v>25.24951543217551</v>
       </c>
       <c r="E118">
-        <v>25.2172629466096</v>
+        <v>24.37267996789661</v>
       </c>
       <c r="F118">
-        <v>24.93110176274188</v>
+        <v>25.25185276270961</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>25.28936251650683</v>
+        <v>24.67291541023765</v>
       </c>
       <c r="C119">
-        <v>25.24022280327646</v>
+        <v>25.12221685278003</v>
       </c>
       <c r="D119">
-        <v>25.01440788442052</v>
+        <v>25.14449409068006</v>
       </c>
       <c r="E119">
-        <v>25.1135615440732</v>
+        <v>24.28139045992406</v>
       </c>
       <c r="F119">
-        <v>24.81901814549151</v>
+        <v>25.15243591018329</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>25.18756525234377</v>
+        <v>24.57871778511052</v>
       </c>
       <c r="C120">
-        <v>25.13891919113125</v>
+        <v>25.02160237973775</v>
       </c>
       <c r="D120">
-        <v>24.91503173315473</v>
+        <v>25.03917365670737</v>
       </c>
       <c r="E120">
-        <v>25.00959688967711</v>
+        <v>24.19010185268274</v>
       </c>
       <c r="F120">
-        <v>24.70710926358088</v>
+        <v>25.0527199713467</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>25.08535878007174</v>
+        <v>24.48451125935817</v>
       </c>
       <c r="C121">
-        <v>25.03726331179931</v>
+        <v>24.92068917627372</v>
       </c>
       <c r="D121">
-        <v>24.81542795543885</v>
+        <v>24.93356784534252</v>
       </c>
       <c r="E121">
-        <v>24.9053777313922</v>
+        <v>24.09881414610049</v>
       </c>
       <c r="F121">
-        <v>24.59537575027347</v>
+        <v>24.95271102277751</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>24.98275249401535</v>
+        <v>24.3902978459179</v>
       </c>
       <c r="C122">
-        <v>24.93526393104053</v>
+        <v>24.81948427146945</v>
       </c>
       <c r="D122">
-        <v>24.71560204729285</v>
+        <v>24.82769007146458</v>
       </c>
       <c r="E122">
-        <v>24.80091271316166</v>
+        <v>24.00752734170567</v>
       </c>
       <c r="F122">
-        <v>24.48381819556651</v>
+        <v>24.85241505891058</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>24.87975575735845</v>
+        <v>24.29607949914567</v>
       </c>
       <c r="C123">
-        <v>24.83292970316506</v>
+        <v>24.71799466783133</v>
       </c>
       <c r="D123">
-        <v>24.61555939984273</v>
+        <v>24.72155349622</v>
       </c>
       <c r="E123">
-        <v>24.69621037320826</v>
+        <v>23.91624144051642</v>
       </c>
       <c r="F123">
-        <v>24.37243715160625</v>
+        <v>24.75183798794384</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>24.77637789645876</v>
+        <v>24.20185811421328</v>
       </c>
       <c r="C124">
-        <v>24.73026916929939</v>
+        <v>24.61622727170645</v>
       </c>
       <c r="D124">
-        <v>24.51530530131387</v>
+        <v>24.61517100844693</v>
       </c>
       <c r="E124">
-        <v>24.59127914252596</v>
+        <v>23.82495644349617</v>
       </c>
       <c r="F124">
-        <v>24.26123313743927</v>
+        <v>24.65098563704881</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>24.67262819540706</v>
+        <v>24.10763553671327</v>
       </c>
       <c r="C125">
-        <v>24.62729075588571</v>
+        <v>24.51418893597122</v>
       </c>
       <c r="D125">
-        <v>24.41484493900397</v>
+        <v>24.50855519809555</v>
       </c>
       <c r="E125">
-        <v>24.48612734352885</v>
+        <v>23.73367235159717</v>
       </c>
       <c r="F125">
-        <v>24.15020664319126</v>
+        <v>24.54986375106196</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>24.56851589082629</v>
+        <v>24.01341355789315</v>
       </c>
       <c r="C126">
-        <v>24.52400277337991</v>
+        <v>24.41188645338331</v>
       </c>
       <c r="D126">
-        <v>24.314183401232</v>
+        <v>24.40171840112614</v>
       </c>
       <c r="E126">
-        <v>24.38076318886097</v>
+        <v>23.64238916511265</v>
       </c>
       <c r="F126">
-        <v>24.03935813374621</v>
+        <v>24.44847799164484</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>24.46405016690963</v>
+        <v>23.91919391905426</v>
       </c>
       <c r="C127">
-        <v>24.42041341515147</v>
+        <v>24.30932656895611</v>
       </c>
       <c r="D127">
-        <v>24.21332567926444</v>
+        <v>24.2946726396626</v>
       </c>
       <c r="E127">
-        <v>24.27519478035989</v>
+        <v>23.55110688503785</v>
       </c>
       <c r="F127">
-        <v>23.9286880519867</v>
+        <v>24.34683394170583</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>24.35924015069167</v>
+        <v>23.82497831615726</v>
       </c>
       <c r="C128">
-        <v>24.31653075655749</v>
+        <v>24.20651593292548</v>
       </c>
       <c r="D128">
-        <v>24.11227666921514</v>
+        <v>24.18742966951163</v>
       </c>
       <c r="E128">
-        <v>24.16943010817076</v>
+        <v>23.45982551211136</v>
       </c>
       <c r="F128">
-        <v>23.8181968216522</v>
+        <v>24.24493710195721</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>24.25409490754928</v>
+        <v>23.73076839463352</v>
       </c>
       <c r="C129">
-        <v>24.21236275420699</v>
+        <v>24.10346113368056</v>
       </c>
       <c r="D129">
-        <v>24.01104117392052</v>
+        <v>24.08000095538759</v>
       </c>
       <c r="E129">
-        <v>24.0634770499946</v>
+        <v>23.36854504700476</v>
       </c>
       <c r="F129">
-        <v>23.70788484986046</v>
+        <v>24.14279289372337</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>24.14862343692833</v>
+        <v>23.63656575946364</v>
       </c>
       <c r="C130">
-        <v>24.10791724538422</v>
+        <v>24.00016870084418</v>
       </c>
       <c r="D130">
-        <v>23.90962390478672</v>
+        <v>23.97239766795143</v>
       </c>
       <c r="E130">
-        <v>23.95734337048455</v>
+        <v>23.27726549034633</v>
       </c>
       <c r="F130">
-        <v>23.59775252933714</v>
+        <v>24.04040666066977</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>24.0428346682921</v>
+        <v>23.54237197161591</v>
       </c>
       <c r="C131">
-        <v>24.00320194763341</v>
+        <v>23.89664509317047</v>
       </c>
       <c r="D131">
-        <v>23.80802948361077</v>
+        <v>23.86463071134008</v>
       </c>
       <c r="E131">
-        <v>23.85103672076773</v>
+        <v>23.18598684293124</v>
       </c>
       <c r="F131">
-        <v>23.48780024038718</v>
+        <v>23.93778366672406</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>23.93673745728696</v>
+        <v>23.44818854879724</v>
       </c>
       <c r="C132">
-        <v>23.89822445848439</v>
+        <v>23.79289668209305</v>
       </c>
       <c r="D132">
-        <v>23.70626244437246</v>
+        <v>23.75671068492041</v>
       </c>
       <c r="E132">
-        <v>23.74456463809485</v>
+        <v>23.09470910528601</v>
       </c>
       <c r="F132">
-        <v>23.37802835264068</v>
+        <v>23.83492909962963</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>23.83034058212104</v>
+        <v>23.3540169720526</v>
       </c>
       <c r="C133">
-        <v>23.79299225532592</v>
+        <v>23.68892976892809</v>
       </c>
       <c r="D133">
-        <v>23.60432723499924</v>
+        <v>23.64864792550697</v>
       </c>
       <c r="E133">
-        <v>23.63793454561133</v>
+        <v>23.00343227797037</v>
       </c>
       <c r="F133">
-        <v>23.26843722660002</v>
+        <v>23.73184807097029</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>23.7236527401512</v>
+        <v>23.25985868191918</v>
       </c>
       <c r="C134">
-        <v>23.68751269540753</v>
+        <v>23.58475060018746</v>
       </c>
       <c r="D134">
-        <v>23.50222821910114</v>
+        <v>23.54045248072382</v>
       </c>
       <c r="E134">
-        <v>23.53115375224592</v>
+        <v>22.91215636152341</v>
       </c>
       <c r="F134">
-        <v>23.15902721501257</v>
+        <v>23.62854561467259</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>23.61668254467398</v>
+        <v>23.16571508247172</v>
       </c>
       <c r="C135">
-        <v>23.58179301596673</v>
+        <v>23.48036532769171</v>
       </c>
       <c r="D135">
-        <v>23.39996967767811</v>
+        <v>23.43213412332647</v>
       </c>
       <c r="E135">
-        <v>23.42422945270465</v>
+        <v>22.82088135645482</v>
       </c>
       <c r="F135">
-        <v>23.04979866408846</v>
+        <v>23.52502668956943</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>23.50943852191554</v>
+        <v>23.07158754350166</v>
       </c>
       <c r="C136">
-        <v>23.47584033446815</v>
+        <v>23.37578002754872</v>
       </c>
       <c r="D136">
-        <v>23.29755581079693</v>
+        <v>23.32370236358178</v>
       </c>
       <c r="E136">
-        <v>23.31716872757888</v>
+        <v>22.72960726352362</v>
       </c>
       <c r="F136">
-        <v>22.94075191458571</v>
+        <v>23.42129618208281</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>23.40192910821621</v>
+        <v>22.97747739793851</v>
       </c>
       <c r="C137">
-        <v>23.36966164895497</v>
+        <v>23.27100070134359</v>
       </c>
       <c r="D137">
-        <v>23.19499073924029</v>
+        <v>23.21516643021767</v>
       </c>
       <c r="E137">
-        <v>23.2099785435499</v>
+        <v>22.63833408317027</v>
       </c>
       <c r="F137">
-        <v>22.83188730278437</v>
+        <v>23.31735890690702</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>23.29416264740451</v>
+        <v>22.88338594815561</v>
       </c>
       <c r="C138">
-        <v>23.26326383850211</v>
+        <v>23.16603328951966</v>
       </c>
       <c r="D138">
-        <v>23.09227850612533</v>
+        <v>23.10653530357213</v>
       </c>
       <c r="E138">
-        <v>23.10266575369126</v>
+        <v>22.54706181590434</v>
       </c>
       <c r="F138">
-        <v>22.72320516134299</v>
+        <v>23.2132196011128</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>23.18614738835614</v>
+        <v>22.78931446372573</v>
       </c>
       <c r="C139">
-        <v>23.15665366376436</v>
+        <v>23.06088363213494</v>
       </c>
       <c r="D139">
-        <v>22.98942307849421</v>
+        <v>22.99781769265865</v>
       </c>
       <c r="E139">
-        <v>22.99523709786316</v>
+        <v>22.45579046224412</v>
       </c>
       <c r="F139">
-        <v>22.61470582006037</v>
+        <v>23.10888293119436</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>23.07789148273287</v>
+        <v>22.69526418248797</v>
       </c>
       <c r="C140">
-        <v>23.04983776761157</v>
+        <v>22.95555749629271</v>
       </c>
       <c r="D140">
-        <v>22.88642834887444</v>
+        <v>22.88902205745978</v>
       </c>
       <c r="E140">
-        <v>22.88769920319517</v>
+        <v>22.36452002270402</v>
       </c>
       <c r="F140">
-        <v>22.50638960656294</v>
+        <v>23.00435349486744</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>22.96940298289644</v>
+        <v>22.60123631451072</v>
       </c>
       <c r="C141">
-        <v>22.94282267584701</v>
+        <v>22.85006057608606</v>
       </c>
       <c r="D141">
-        <v>22.78329813681123</v>
+        <v>22.78015661157422</v>
       </c>
       <c r="E141">
-        <v>22.78005858464777</v>
+        <v>22.27325049772583</v>
       </c>
       <c r="F141">
-        <v>22.39825684692661</v>
+        <v>22.8996358237911</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>22.86068983999273</v>
+        <v>22.50723203953619</v>
       </c>
       <c r="C142">
-        <v>22.83561479800399</v>
+        <v>22.74439849101523</v>
       </c>
       <c r="D142">
-        <v>22.68003619036994</v>
+        <v>22.67122931815051</v>
       </c>
       <c r="E142">
-        <v>22.67232164565828</v>
+        <v>22.18198188782538</v>
       </c>
       <c r="F142">
-        <v>22.29030786622642</v>
+        <v>22.79473437283915</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>22.7517599022011</v>
+        <v>22.41325251048372</v>
       </c>
       <c r="C143">
-        <v>22.72822042821272</v>
+        <v>22.6385767677485</v>
       </c>
       <c r="D143">
-        <v>22.57664618761093</v>
+        <v>22.56224790970856</v>
       </c>
       <c r="E143">
-        <v>22.56449467885781</v>
+        <v>22.09071419349911</v>
       </c>
       <c r="F143">
-        <v>22.18254298902831</v>
+        <v>22.68965353115466</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>22.64262091314409</v>
+        <v>22.3192988541665</v>
       </c>
       <c r="C144">
-        <v>22.62064574613231</v>
+        <v>22.53260085666286</v>
       </c>
       <c r="D144">
-        <v>22.47313173803498</v>
+        <v>22.45321987894681</v>
       </c>
       <c r="E144">
-        <v>22.45658386685932</v>
+        <v>21.99944741523975</v>
       </c>
       <c r="F144">
-        <v>22.07496253983597</v>
+        <v>22.5843976215604</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>22.53328051045255</v>
+        <v>22.22537217002564</v>
       </c>
       <c r="C145">
-        <v>22.51289681794289</v>
+        <v>22.42647613969072</v>
       </c>
       <c r="D145">
-        <v>22.36949638400149</v>
+        <v>22.34415249470778</v>
       </c>
       <c r="E145">
-        <v>22.34859528311214</v>
+        <v>21.9081815535429</v>
       </c>
       <c r="F145">
-        <v>21.96756684349094</v>
+        <v>22.47897090391422</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>22.42374622448134</v>
+        <v>22.13147353446631</v>
       </c>
       <c r="C146">
-        <v>22.40497959739554</v>
+        <v>22.3202079108517</v>
       </c>
       <c r="D146">
-        <v>22.26574360211787</v>
+        <v>22.23505280417194</v>
       </c>
       <c r="E146">
-        <v>22.2405348928194</v>
+        <v>21.81691660868698</v>
       </c>
       <c r="F146">
-        <v>21.86035622553459</v>
+        <v>22.3733775671637</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>22.31402547717059</v>
+        <v>22.03760399914968</v>
       </c>
       <c r="C147">
-        <v>22.29689992691219</v>
+        <v>22.21380138123406</v>
       </c>
       <c r="D147">
-        <v>22.1618768046023</v>
+        <v>22.12592763638396</v>
       </c>
       <c r="E147">
-        <v>22.13240855391149</v>
+        <v>21.72565258118056</v>
       </c>
       <c r="F147">
-        <v>21.75333101253432</v>
+        <v>22.2676217375365</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>22.20412558104794</v>
+        <v>21.94376459215287</v>
       </c>
       <c r="C148">
-        <v>22.18866353873241</v>
+        <v>22.10726168383846</v>
       </c>
       <c r="D148">
-        <v>22.05789934061832</v>
+        <v>22.01678361306763</v>
       </c>
       <c r="E148">
-        <v>22.02422201807842</v>
+        <v>21.63438947147521</v>
       </c>
       <c r="F148">
-        <v>21.64649153237906</v>
+        <v>22.16170747762606</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>22.09405373836669</v>
+        <v>21.84995632042397</v>
       </c>
       <c r="C149">
-        <v>22.08027605610161</v>
+        <v>22.00059388516952</v>
       </c>
       <c r="D149">
-        <v>21.95381449758345</v>
+        <v>21.90762714887133</v>
       </c>
       <c r="E149">
-        <v>21.9159809318513</v>
+        <v>21.54312728000109</v>
       </c>
       <c r="F149">
-        <v>21.53983811454883</v>
+        <v>22.05563878790445</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>21.98381704037522</v>
+        <v>21.75618016690345</v>
       </c>
       <c r="C150">
-        <v>21.97174299449987</v>
+        <v>21.8938029564185</v>
       </c>
       <c r="D150">
-        <v>21.84962550244964</v>
+        <v>21.79846446114764</v>
       </c>
       <c r="E150">
-        <v>21.8076908377324</v>
+        <v>21.4518660071837</v>
       </c>
       <c r="F150">
-        <v>21.43337109035852</v>
+        <v>21.94941960585573</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>21.873422466713</v>
+        <v>21.66243709577435</v>
       </c>
       <c r="C151">
-        <v>21.86306976290435</v>
+        <v>21.78689379382955</v>
       </c>
       <c r="D151">
-        <v>21.74533552295889</v>
+        <v>21.68930157393062</v>
       </c>
       <c r="E151">
-        <v>21.69935717536998</v>
+        <v>21.36060565334697</v>
       </c>
       <c r="F151">
-        <v>21.32709079318037</v>
+        <v>21.84305380823497</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>21.76287688492842</v>
+        <v>21.56872805167761</v>
       </c>
       <c r="C152">
-        <v>21.75426166508336</v>
+        <v>21.67987121749348</v>
       </c>
       <c r="D152">
-        <v>21.64094766887607</v>
+        <v>21.58014432370925</v>
       </c>
       <c r="E152">
-        <v>21.59098528277481</v>
+        <v>21.26934621890752</v>
       </c>
       <c r="F152">
-        <v>21.22099755864737</v>
+        <v>21.73654521143628</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>21.65218705011386</v>
+        <v>21.47505396058713</v>
       </c>
       <c r="C153">
-        <v>21.64532390091701</v>
+        <v>21.57273997459595</v>
       </c>
       <c r="D153">
-        <v>21.53646499319295</v>
+        <v>21.47099836549339</v>
       </c>
       <c r="E153">
-        <v>21.48258039757363</v>
+        <v>21.17808770425284</v>
       </c>
       <c r="F153">
-        <v>21.11509172483948</v>
+        <v>21.62989757127162</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>21.54135960465356</v>
+        <v>21.38141572297159</v>
       </c>
       <c r="C154">
-        <v>21.53626156774414</v>
+        <v>21.46550472403828</v>
       </c>
       <c r="D154">
-        <v>21.43189049330474</v>
+        <v>21.36186917844947</v>
       </c>
       <c r="E154">
-        <v>21.3741476583003</v>
+        <v>21.08683010975314</v>
       </c>
       <c r="F154">
-        <v>21.00937363245484</v>
+        <v>21.52311458642003</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>21.43040107807958</v>
+        <v>21.28781422848367</v>
       </c>
       <c r="C155">
-        <v>21.42707966172982</v>
+        <v>21.35817004976298</v>
       </c>
       <c r="D155">
-        <v>21.32722711216421</v>
+        <v>21.25276207034432</v>
       </c>
       <c r="E155">
-        <v>21.26569210571794</v>
+        <v>20.99557343576942</v>
       </c>
       <c r="F155">
-        <v>20.90384362496736</v>
+        <v>21.41619989733128</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>21.31931788703164</v>
+        <v>21.19425034939242</v>
       </c>
       <c r="C156">
-        <v>21.31778307925196</v>
+        <v>21.25074046425274</v>
       </c>
       <c r="D156">
-        <v>21.2224777394142</v>
+        <v>21.14368218473629</v>
       </c>
       <c r="E156">
-        <v>21.15721868417121</v>
+        <v>20.90431768269238</v>
       </c>
       <c r="F156">
-        <v>20.79850204877198</v>
+        <v>21.30915708750859</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>21.20811633531639</v>
+        <v>21.10072494168268</v>
       </c>
       <c r="C157">
-        <v>21.20837661830282</v>
+        <v>21.14322040114756</v>
       </c>
       <c r="D157">
-        <v>21.11764521249579</v>
+        <v>21.03463450502129</v>
       </c>
       <c r="E157">
-        <v>21.04873224296566</v>
+        <v>20.81306285086621</v>
       </c>
       <c r="F157">
-        <v>20.69334925331803</v>
+        <v>21.20198968279805</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>21.09680261406188</v>
+        <v>21.00723883480175</v>
       </c>
       <c r="C158">
-        <v>21.09886497990516</v>
+        <v>21.03561421397906</v>
       </c>
       <c r="D158">
-        <v>21.0127323177319</v>
+        <v>20.92562385936189</v>
       </c>
       <c r="E158">
-        <v>20.94023753777156</v>
+        <v>20.72180894063567</v>
       </c>
       <c r="F158">
-        <v>20.58838559123603</v>
+        <v>21.09470115558263</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>20.98538280196294</v>
+        <v>20.91379285291379</v>
       </c>
       <c r="C159">
-        <v>20.98925276953864</v>
+        <v>20.92792618176149</v>
       </c>
       <c r="D159">
-        <v>20.90774179138764</v>
+        <v>20.81665492812434</v>
       </c>
       <c r="E159">
-        <v>20.831739232049</v>
+        <v>20.63055595234299</v>
       </c>
       <c r="F159">
-        <v>20.48361141845515</v>
+        <v>20.98729492316456</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>20.87386286561356</v>
+        <v>20.82038780447662</v>
       </c>
       <c r="C160">
-        <v>20.87954449857509</v>
+        <v>20.82016051704009</v>
       </c>
       <c r="D160">
-        <v>20.80267632070885</v>
+        <v>20.70773224483946</v>
       </c>
       <c r="E160">
-        <v>20.72324189849387</v>
+        <v>20.53930388632468</v>
       </c>
       <c r="F160">
-        <v>20.37902709431093</v>
+        <v>20.8797743492302</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>20.76224865992197</v>
+        <v>20.72702448320079</v>
       </c>
       <c r="C161">
-        <v>20.76974458571983</v>
+        <v>20.71232134844902</v>
       </c>
       <c r="D161">
-        <v>20.69753854493909</v>
+        <v>20.59886020610316</v>
       </c>
       <c r="E161">
-        <v>20.61475002050036</v>
+        <v>20.44805274295474</v>
       </c>
       <c r="F161">
-        <v>20.2746329816499</v>
+        <v>20.77214274340315</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>20.65054592860474</v>
+        <v>20.63370365976334</v>
       </c>
       <c r="C162">
-        <v>20.65985735845813</v>
+        <v>20.60441273324435</v>
       </c>
       <c r="D162">
-        <v>20.59233105631491</v>
+        <v>20.49004307251152</v>
       </c>
       <c r="E162">
-        <v>20.50626799364116</v>
+        <v>20.35680252256169</v>
       </c>
       <c r="F162">
-        <v>20.17042944692088</v>
+        <v>20.66440336463084</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>20.53876030475582</v>
+        <v>20.54042609973302</v>
       </c>
       <c r="C163">
-        <v>20.54988705450387</v>
+        <v>20.49643865664489</v>
       </c>
       <c r="D163">
-        <v>20.48705640103989</v>
+        <v>20.38128497443511</v>
       </c>
       <c r="E163">
-        <v>20.39780012715488</v>
+        <v>20.26555322547867</v>
       </c>
       <c r="F163">
-        <v>20.06641686026542</v>
+        <v>20.55655942019277</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>20.4268973114869</v>
+        <v>20.44719255486976</v>
       </c>
       <c r="C164">
-        <v>20.43983782324912</v>
+        <v>20.38840303602824</v>
       </c>
       <c r="D164">
-        <v>20.38171708023784</v>
+        <v>20.27258991866179</v>
       </c>
       <c r="E164">
-        <v>20.28935064544759</v>
+        <v>20.17430485204194</v>
       </c>
       <c r="F164">
-        <v>19.96259559560644</v>
+        <v>20.44861406697351</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>20.31496236263537</v>
+        <v>20.35400376375361</v>
       </c>
       <c r="C165">
-        <v>20.3297137272128</v>
+        <v>20.28030971058692</v>
       </c>
       <c r="D165">
-        <v>20.27631555088587</v>
+        <v>20.16396178825846</v>
       </c>
       <c r="E165">
-        <v>20.18092368960619</v>
+        <v>20.08305740258713</v>
       </c>
       <c r="F165">
-        <v>19.85896603072915</v>
+        <v>20.34057041046426</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>20.20296076353619</v>
+        <v>20.26086044759327</v>
       </c>
       <c r="C166">
-        <v>20.2195187434871</v>
+        <v>20.17216245048547</v>
       </c>
       <c r="D166">
-        <v>20.17085422672768</v>
+        <v>20.05540435292046</v>
       </c>
       <c r="E166">
-        <v>20.07252331890989</v>
+        <v>19.99181087743398</v>
       </c>
       <c r="F166">
-        <v>19.75552854736047</v>
+        <v>20.23243150894481</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>20.09089771185436</v>
+        <v>20.16776332045229</v>
       </c>
       <c r="C167">
-        <v>20.10925676517999</v>
+        <v>20.06396495826357</v>
       </c>
       <c r="D167">
-        <v>20.06533547916742</v>
+        <v>19.94692126566353</v>
       </c>
       <c r="E167">
-        <v>19.96415351236771</v>
+        <v>19.90056527691731</v>
       </c>
       <c r="F167">
-        <v>19.65228353124111</v>
+        <v>20.12420037222467</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>19.97877829847437</v>
+        <v>20.07471308463412</v>
       </c>
       <c r="C168">
-        <v>19.99893160285239</v>
+        <v>19.95572086745515</v>
       </c>
       <c r="D168">
-        <v>19.95976163814447</v>
+        <v>19.83851607334029</v>
       </c>
       <c r="E168">
-        <v>19.85581817024238</v>
+        <v>19.80932060137001</v>
       </c>
       <c r="F168">
-        <v>19.54923137219672</v>
+        <v>20.0158799627017</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>19.86660750844354</v>
+        <v>19.98171043111501</v>
       </c>
       <c r="C169">
-        <v>19.88854698594916</v>
+        <v>19.84743374004191</v>
       </c>
       <c r="D169">
-        <v>19.85413499298953</v>
+        <v>19.73019222228455</v>
       </c>
       <c r="E169">
-        <v>19.74752111557841</v>
+        <v>19.71807685112364</v>
       </c>
       <c r="F169">
-        <v>19.44637246420672</v>
+        <v>19.90747319387875</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>19.75439022196582</v>
+        <v>19.88875603731099</v>
       </c>
       <c r="C170">
-        <v>19.77810656422238</v>
+        <v>19.73910707123898</v>
       </c>
       <c r="D170">
-        <v>19.74845779326267</v>
+        <v>19.62195305985053</v>
       </c>
       <c r="E170">
-        <v>19.63926609573411</v>
+        <v>19.62683402651074</v>
       </c>
       <c r="F170">
-        <v>19.34370720547015</v>
+        <v>19.79898293515283</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>19.64213121544303</v>
+        <v>19.79585057308552</v>
       </c>
       <c r="C171">
-        <v>19.66761390914581</v>
+        <v>19.63074429307902</v>
       </c>
       <c r="D171">
-        <v>19.64273224957348</v>
+        <v>19.51380181753965</v>
       </c>
       <c r="E171">
-        <v>19.5310567839125</v>
+        <v>19.53559212782726</v>
       </c>
       <c r="F171">
-        <v>19.24123599847047</v>
+        <v>19.69041201068679</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>19.52983516256053</v>
+        <v>19.70299469833247</v>
       </c>
       <c r="C172">
-        <v>19.55707251531967</v>
+        <v>19.52234876827342</v>
       </c>
       <c r="D172">
-        <v>19.53696053438388</v>
+        <v>19.40574165936306</v>
       </c>
       <c r="E172">
-        <v>19.42289678069198</v>
+        <v>19.44435115540497</v>
       </c>
       <c r="F172">
-        <v>19.1389592500364</v>
+        <v>19.58176319993436</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>19.41750663541425</v>
+        <v>19.61018906333487</v>
       </c>
       <c r="C173">
-        <v>19.44648580186496</v>
+        <v>19.41392379455162</v>
       </c>
       <c r="D173">
-        <v>19.43114478279375</v>
+        <v>19.29777565602415</v>
       </c>
       <c r="E173">
-        <v>19.31478961555293</v>
+        <v>19.3531111095718</v>
       </c>
       <c r="F173">
-        <v>19.0368773714027</v>
+        <v>19.47303923632201</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>19.30515010567639</v>
+        <v>19.517434306392</v>
       </c>
       <c r="C174">
-        <v>19.33585711380631</v>
+        <v>19.3054726058617</v>
       </c>
       <c r="D174">
-        <v>19.32528709331011</v>
+        <v>19.1899067869847</v>
       </c>
       <c r="E174">
-        <v>19.20673874840065</v>
+        <v>19.26187199065086</v>
       </c>
       <c r="F174">
-        <v>18.93499077826879</v>
+        <v>19.36424281149998</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>19.19276994579701</v>
+        <v>19.42473105955471</v>
       </c>
       <c r="C175">
-        <v>19.22518972344231</v>
+        <v>19.19699837535766</v>
       </c>
       <c r="D175">
-        <v>19.21938952859982</v>
+        <v>19.08213793244891</v>
       </c>
       <c r="E175">
-        <v>19.09874757108451</v>
+        <v>19.17063379896529</v>
       </c>
       <c r="F175">
-        <v>18.83329989085628</v>
+        <v>19.25537657513213</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>19.08037043023866</v>
+        <v>19.33207994633231</v>
       </c>
       <c r="C176">
-        <v>19.11448683170302</v>
+        <v>19.08850421035596</v>
       </c>
       <c r="D176">
-        <v>19.11345411622662</v>
+        <v>18.97447192391136</v>
       </c>
       <c r="E176">
-        <v>18.99081940890645</v>
+        <v>19.07939653482294</v>
       </c>
       <c r="F176">
-        <v>18.73180513396512</v>
+        <v>19.14644313470515</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>18.9679557367416</v>
+        <v>19.23948158195578</v>
       </c>
       <c r="C177">
-        <v>19.00375156949383</v>
+        <v>18.97999315750641</v>
       </c>
       <c r="D177">
-        <v>19.00748284937246</v>
+        <v>18.86691150971855</v>
       </c>
       <c r="E177">
-        <v>18.88295752212567</v>
+        <v>18.98816019854566</v>
       </c>
       <c r="F177">
-        <v>18.63050693702852</v>
+        <v>19.03744505472083</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>18.85552994761721</v>
+        <v>19.14693657057803</v>
       </c>
       <c r="C178">
-        <v>18.89298699902539</v>
+        <v>18.87146820348567</v>
       </c>
       <c r="D178">
-        <v>18.90147768754371</v>
+        <v>18.75945934890185</v>
       </c>
       <c r="E178">
-        <v>18.7751651074541</v>
+        <v>18.89692479045393</v>
       </c>
       <c r="F178">
-        <v>18.52940573416748</v>
+        <v>18.92838485987373</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>18.74309705106707</v>
+        <v>19.05444551156937</v>
       </c>
       <c r="C179">
-        <v>18.78219611512828</v>
+        <v>18.7629322757904</v>
       </c>
       <c r="D179">
-        <v>18.79544055726264</v>
+        <v>18.65211803456463</v>
       </c>
       <c r="E179">
-        <v>18.6674452995472</v>
+        <v>18.80569031086583</v>
       </c>
       <c r="F179">
-        <v>18.42850196424409</v>
+        <v>18.81926503591126</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>18.63066094252546</v>
+        <v>18.96200899692366</v>
       </c>
       <c r="C180">
-        <v>18.67138184655267</v>
+        <v>18.65438824142653</v>
       </c>
       <c r="D180">
-        <v>18.68937335274426</v>
+        <v>18.5448901066972</v>
       </c>
       <c r="E180">
-        <v>18.559801172476</v>
+        <v>18.71445676009924</v>
       </c>
       <c r="F180">
-        <v>18.32779607091449</v>
+        <v>18.71008802886299</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>18.51822542602298</v>
+        <v>18.86962761139298</v>
       </c>
       <c r="C181">
-        <v>18.56054705725214</v>
+        <v>18.54583890987698</v>
       </c>
       <c r="D181">
-        <v>18.58327793655925</v>
+        <v>18.43777803667513</v>
       </c>
       <c r="E181">
-        <v>18.45223574119616</v>
+        <v>18.62322413847845</v>
       </c>
       <c r="F181">
-        <v>18.22728850268065</v>
+        <v>18.60085624466224</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>18.40579421556924</v>
+        <v>18.77730193018266</v>
       </c>
       <c r="C182">
-        <v>18.44969454765207</v>
+        <v>18.43728703453364</v>
       </c>
       <c r="D182">
-        <v>18.47715614028293</v>
+        <v>18.33078421288109</v>
       </c>
       <c r="E182">
-        <v>18.3447519630022</v>
+        <v>18.5319924463223</v>
       </c>
       <c r="F182">
-        <v>18.12697971294198</v>
+        <v>18.49157205135463</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>18.29337093655255</v>
+        <v>18.68503252432801</v>
       </c>
       <c r="C183">
-        <v>18.33882705590072</v>
+        <v>18.32873531194355</v>
       </c>
       <c r="D183">
-        <v>18.37100976513086</v>
+        <v>18.22391098706074</v>
       </c>
       <c r="E183">
-        <v>18.23735273897741</v>
+        <v>18.4407616839504</v>
       </c>
       <c r="F183">
-        <v>18.02687016004647</v>
+        <v>18.38223778086222</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>18.18095912715453</v>
+        <v>18.5928199585411</v>
       </c>
       <c r="C184">
-        <v>18.22794725910411</v>
+        <v>18.22018638312542</v>
       </c>
       <c r="D184">
-        <v>18.26484058258129</v>
+        <v>18.11716064982269</v>
       </c>
       <c r="E184">
-        <v>18.13004091541783</v>
+        <v>18.34953185168414</v>
       </c>
       <c r="F184">
-        <v>17.9269603073413</v>
+        <v>18.27285572774626</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>18.06856223977794</v>
+        <v>18.50066479127862</v>
       </c>
       <c r="C185">
-        <v>18.11705777454351</v>
+        <v>18.11164283494533</v>
       </c>
       <c r="D185">
-        <v>18.15865033498482</v>
+        <v>18.01053543520119</v>
       </c>
       <c r="E185">
-        <v>18.02281928525404</v>
+        <v>18.25830294984585</v>
       </c>
       <c r="F185">
-        <v>17.82725062322332</v>
+        <v>18.16342814912162</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>17.95618364248578</v>
+        <v>18.40856757326605</v>
       </c>
       <c r="C186">
-        <v>18.0061611608767</v>
+        <v>18.0031072021399</v>
       </c>
       <c r="D186">
-        <v>18.05244073616151</v>
+        <v>17.90403751420383</v>
       </c>
       <c r="E186">
-        <v>17.91569058945559</v>
+        <v>18.16707497876542</v>
       </c>
       <c r="F186">
-        <v>17.72774158118882</v>
+        <v>18.05395726607147</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>17.84382662044988</v>
+        <v>18.31652885128237</v>
       </c>
       <c r="C187">
-        <v>17.89525991932064</v>
+        <v>17.89458196512614</v>
       </c>
       <c r="D187">
-        <v>17.94621347198592</v>
+        <v>17.79766902418246</v>
       </c>
       <c r="E187">
-        <v>17.80865751842878</v>
+        <v>18.07584793876877</v>
       </c>
       <c r="F187">
-        <v>17.62843365988335</v>
+        <v>17.9444452662502</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>17.73149437740758</v>
+        <v>18.22454916676868</v>
       </c>
       <c r="C188">
-        <v>17.78435649481727</v>
+        <v>17.78606955316779</v>
       </c>
       <c r="D188">
-        <v>17.8399702009601</v>
+        <v>17.69143205096525</v>
       </c>
       <c r="E188">
-        <v>17.70172271338757</v>
+        <v>17.98462183018371</v>
       </c>
       <c r="F188">
-        <v>17.52932734315131</v>
+        <v>17.83489430215218</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>17.61919003712458</v>
+        <v>18.13262905589911</v>
       </c>
       <c r="C189">
-        <v>17.67345327718114</v>
+        <v>17.67757234467714</v>
       </c>
       <c r="D189">
-        <v>17.73371255477514</v>
+        <v>17.5853286287431</v>
       </c>
       <c r="E189">
-        <v>17.59488876771866</v>
+        <v>17.8933966533412</v>
       </c>
       <c r="F189">
-        <v>17.43042312008528</v>
+        <v>17.72530649130449</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>17.50691664486273</v>
+        <v>18.04076904854938</v>
       </c>
       <c r="C190">
-        <v>17.56255260223034</v>
+        <v>17.56909266809437</v>
       </c>
       <c r="D190">
-        <v>17.62744213886137</v>
+        <v>17.47936074670241</v>
       </c>
       <c r="E190">
-        <v>17.48815822832991</v>
+        <v>17.80217240857457</v>
       </c>
       <c r="F190">
-        <v>17.33172148507522</v>
+        <v>17.61568391694185</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>17.39467716885117</v>
+        <v>17.94896967109555</v>
       </c>
       <c r="C191">
-        <v>17.45165675289832</v>
+        <v>17.46063280277255</v>
       </c>
       <c r="D191">
-        <v>17.52116053292756</v>
+        <v>17.37353036238873</v>
       </c>
       <c r="E191">
-        <v>17.38153359698911</v>
+        <v>17.71094909621668</v>
       </c>
       <c r="F191">
-        <v>17.23322293785749</v>
+        <v>17.50602863141689</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>17.28247450175951</v>
+        <v>17.85723144548313</v>
       </c>
       <c r="C192">
-        <v>17.34076796032852</v>
+        <v>17.35219498306904</v>
       </c>
       <c r="D192">
-        <v>17.41486929148936</v>
+        <v>17.26783939154114</v>
       </c>
       <c r="E192">
-        <v>17.27501733163792</v>
+        <v>17.61972671660554</v>
       </c>
       <c r="F192">
-        <v>17.13492798356389</v>
+        <v>17.3963426539766</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>17.17031146217176</v>
+        <v>17.76555488930157</v>
       </c>
       <c r="C193">
-        <v>17.22988840495067</v>
+        <v>17.2437813918463</v>
       </c>
       <c r="D193">
-        <v>17.30856994438737</v>
+        <v>17.16228969921378</v>
       </c>
       <c r="E193">
-        <v>17.16861184769455</v>
+        <v>17.52850527008202</v>
       </c>
       <c r="F193">
-        <v>17.03683713277055</v>
+        <v>17.28662797125418</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>17.0581907960598</v>
+        <v>17.67394051482085</v>
       </c>
       <c r="C194">
-        <v>17.11902021754002</v>
+        <v>17.13539416719208</v>
       </c>
       <c r="D194">
-        <v>17.20226399729496</v>
+        <v>17.05688312583794</v>
       </c>
       <c r="E194">
-        <v>17.06231951934256</v>
+        <v>17.4372847569894</v>
       </c>
       <c r="F194">
-        <v>16.93895090154676</v>
+        <v>17.17688653725553</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>16.94611517825512</v>
+        <v>17.58238883150645</v>
       </c>
       <c r="C195">
-        <v>17.00816548025786</v>
+        <v>17.02703540173164</v>
       </c>
       <c r="D195">
-        <v>17.09595293221625</v>
+        <v>16.95162147829105</v>
       </c>
       <c r="E195">
-        <v>16.95614268080631</v>
+        <v>17.34606517767408</v>
       </c>
       <c r="F195">
-        <v>16.84126981150373</v>
+        <v>17.06712027742221</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>16.83408721391789</v>
+        <v>17.49090034521443</v>
       </c>
       <c r="C196">
-        <v>16.89732622767448</v>
+        <v>16.91870714351278</v>
       </c>
       <c r="D196">
-        <v>16.98963820797439</v>
+        <v>16.84650652898033</v>
       </c>
       <c r="E196">
-        <v>16.85008362760644</v>
+        <v>17.25484653247985</v>
       </c>
       <c r="F196">
-        <v>16.74379438984339</v>
+        <v>16.95733108604225</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>16.72210944000223</v>
+        <v>17.39947555823658</v>
       </c>
       <c r="C197">
-        <v>16.7865044477742</v>
+        <v>16.81041139689071</v>
       </c>
       <c r="D197">
-        <v>16.88332126069048</v>
+        <v>16.74154000694449</v>
       </c>
       <c r="E197">
-        <v>16.74414461779669</v>
+        <v>17.16362882175851</v>
       </c>
       <c r="F197">
-        <v>16.64652516940707</v>
+        <v>16.84752082700784</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>16.61018432671666</v>
+        <v>17.3081149683978</v>
       </c>
       <c r="C198">
-        <v>16.67570208294329</v>
+        <v>16.70215012423589</v>
       </c>
       <c r="D198">
-        <v>16.77700350425335</v>
+        <v>16.63672362728284</v>
       </c>
       <c r="E198">
-        <v>16.63832787319179</v>
+        <v>17.07241204586544</v>
       </c>
       <c r="F198">
-        <v>16.54946268872433</v>
+        <v>16.73769133322099</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>16.49831427897899</v>
+        <v>17.21681907138132</v>
       </c>
       <c r="C199">
-        <v>16.56492103093974</v>
+        <v>16.59392524501173</v>
       </c>
       <c r="D199">
-        <v>16.6706863307805</v>
+        <v>16.5320590727576</v>
       </c>
       <c r="E199">
-        <v>16.53263558057751</v>
+        <v>16.98119620515833</v>
       </c>
       <c r="F199">
-        <v>16.45260749206151</v>
+        <v>16.62784441109556</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>16.38650163786453</v>
+        <v>17.1255883600049</v>
       </c>
       <c r="C200">
-        <v>16.45416314584563</v>
+        <v>16.48573863795806</v>
       </c>
       <c r="D200">
-        <v>16.56437111107029</v>
+        <v>16.42754799599183</v>
       </c>
       <c r="E200">
-        <v>16.42706989290774</v>
+        <v>16.88998129999833</v>
       </c>
       <c r="F200">
-        <v>16.35596012947069</v>
+        <v>16.51798183775978</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>16.2747486820471</v>
+        <v>17.0344233242348</v>
       </c>
       <c r="C201">
-        <v>16.34343023900204</v>
+        <v>16.37759214174391</v>
       </c>
       <c r="D201">
-        <v>16.45805919504592</v>
+        <v>16.32319202046467</v>
       </c>
       <c r="E201">
-        <v>16.32163293047457</v>
+        <v>16.79876733074857</v>
       </c>
       <c r="F201">
-        <v>16.25952115683806</v>
+        <v>16.40810536201279</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>16.16305762923187</v>
+        <v>16.94332445048989</v>
       </c>
       <c r="C202">
-        <v>16.23272407992715</v>
+        <v>16.2694875558064</v>
       </c>
       <c r="D202">
-        <v>16.35175191219102</v>
+        <v>16.21899275447756</v>
       </c>
       <c r="E202">
-        <v>16.21632678207536</v>
+        <v>16.70755429777717</v>
       </c>
       <c r="F202">
-        <v>16.16329113593291</v>
+        <v>16.29821670326012</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>16.05143063757942</v>
+        <v>16.8522922235571</v>
       </c>
       <c r="C203">
-        <v>16.12204639721698</v>
+        <v>16.16142664123797</v>
       </c>
       <c r="D203">
-        <v>16.24545057197755</v>
+        <v>16.11495178129119</v>
       </c>
       <c r="E203">
-        <v>16.11115350615732</v>
+        <v>16.61634220145621</v>
       </c>
       <c r="F203">
-        <v>16.0672706344561</v>
+        <v>16.18831755631264</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>15.93986980712041</v>
+        <v>16.76132712604429</v>
       </c>
       <c r="C204">
-        <v>16.01139887942902</v>
+        <v>16.05341111566377</v>
       </c>
       <c r="D204">
-        <v>16.13915646428583</v>
+        <v>16.01107065656787</v>
       </c>
       <c r="E204">
-        <v>16.0061151319578</v>
+        <v>16.52513104216134</v>
       </c>
       <c r="F204">
-        <v>15.97146022608891</v>
+        <v>16.07840958846685</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>15.82837718116017</v>
+        <v>16.67042963839267</v>
       </c>
       <c r="C205">
-        <v>15.90078317594921</v>
+        <v>15.94544266650008</v>
       </c>
       <c r="D205">
-        <v>16.03287085981719</v>
+        <v>15.9073509196464</v>
       </c>
       <c r="E205">
-        <v>15.9012136606083</v>
+        <v>16.43392082027226</v>
       </c>
       <c r="F205">
-        <v>15.87586049054164</v>
+        <v>15.96849444060925</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>15.71695474767282</v>
+        <v>16.57960023842114</v>
       </c>
       <c r="C206">
-        <v>15.79020089784241</v>
+        <v>15.83752294429424</v>
       </c>
       <c r="D206">
-        <v>15.92659501049939</v>
+        <v>15.80379409332735</v>
       </c>
       <c r="E206">
-        <v>15.79645106624159</v>
+        <v>16.342711536175</v>
       </c>
       <c r="F206">
-        <v>15.78047201360232</v>
+        <v>15.8585737257603</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>15.60560444068416</v>
+        <v>16.48883940276356</v>
       </c>
       <c r="C207">
-        <v>15.67965361868664</v>
+        <v>15.72965356373924</v>
       </c>
       <c r="D207">
-        <v>15.82033014988493</v>
+        <v>15.70040168168551</v>
       </c>
       <c r="E207">
-        <v>15.69182929707606</v>
+        <v>16.25150319025833</v>
       </c>
       <c r="F207">
-        <v>15.68529538718538</v>
+        <v>15.7486490341048</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>15.49432814164317</v>
+        <v>16.39814760652365</v>
       </c>
       <c r="C208">
-        <v>15.56914287539058</v>
+        <v>15.62183610532395</v>
       </c>
       <c r="D208">
-        <v>15.71407749354268</v>
+        <v>15.59717516386427</v>
       </c>
       <c r="E208">
-        <v>15.58735027649452</v>
+        <v>16.16029578291536</v>
       </c>
       <c r="F208">
-        <v>15.59033120938022</v>
+        <v>15.63872192997683</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>15.38312768078154</v>
+        <v>16.30752532330748</v>
       </c>
       <c r="C209">
-        <v>15.45867016899522</v>
+        <v>15.51407211620058</v>
       </c>
       <c r="D209">
-        <v>15.60783823944283</v>
+        <v>15.49411601323936</v>
       </c>
       <c r="E209">
-        <v>15.48301590409149</v>
+        <v>16.06908931454439</v>
       </c>
       <c r="F209">
-        <v>15.49558008449994</v>
+        <v>15.52879395308345</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>15.27200483846082</v>
+        <v>16.21697302492632</v>
       </c>
       <c r="C210">
-        <v>15.34823696545981</v>
+        <v>15.40636309992083</v>
       </c>
       <c r="D210">
-        <v>15.50161356833551</v>
+        <v>15.39122568607757</v>
       </c>
       <c r="E210">
-        <v>15.37882805671965</v>
+        <v>15.97788378554859</v>
       </c>
       <c r="F210">
-        <v>15.40104262312963</v>
+        <v>15.41886661672669</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>15.16096134650703</v>
+        <v>16.12649118248939</v>
       </c>
       <c r="C211">
-        <v>15.23784469643142</v>
+        <v>15.29871053834409</v>
       </c>
       <c r="D211">
-        <v>15.39540464412319</v>
+        <v>15.28850562360736</v>
       </c>
       <c r="E211">
-        <v>15.27478858951752</v>
+        <v>15.88667919633851</v>
       </c>
       <c r="F211">
-        <v>15.30671944217525</v>
+        <v>15.30894141299817</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>15.04999888953231</v>
+        <v>16.03608026620027</v>
       </c>
       <c r="C212">
-        <v>15.12749475999953</v>
+        <v>15.19111588288099</v>
       </c>
       <c r="D212">
-        <v>15.28921261422727</v>
+        <v>15.18595725050696</v>
       </c>
       <c r="E212">
-        <v>15.1708993369298</v>
+        <v>15.79547554732832</v>
       </c>
       <c r="F212">
-        <v>15.21261116491151</v>
+        <v>15.19901980970159</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>14.9391191062434</v>
+        <v>15.94574074540703</v>
       </c>
       <c r="C213">
-        <v>15.01718852143761</v>
+        <v>15.08358055210115</v>
       </c>
       <c r="D213">
-        <v>15.1830386099487</v>
+        <v>15.08358198665897</v>
       </c>
       <c r="E213">
-        <v>15.06716211370179</v>
+        <v>15.70427283893731</v>
       </c>
       <c r="F213">
-        <v>15.11871842103091</v>
+        <v>15.08910325166556</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>14.82832359073676</v>
+        <v>15.8554730883958</v>
       </c>
       <c r="C214">
-        <v>14.90692731392741</v>
+        <v>14.97610593496028</v>
       </c>
       <c r="D214">
-        <v>15.07688374682326</v>
+        <v>14.98138123948232</v>
       </c>
       <c r="E214">
-        <v>14.96357871586854</v>
+        <v>15.61307107159096</v>
       </c>
       <c r="F214">
-        <v>15.02504184669112</v>
+        <v>14.97919315874155</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>14.71761389378014</v>
+        <v>15.76527776327137</v>
       </c>
       <c r="C215">
-        <v>14.79671243927276</v>
+        <v>14.86869339162642</v>
       </c>
       <c r="D215">
-        <v>14.97074912497141</v>
+        <v>14.87935640316092</v>
       </c>
       <c r="E215">
-        <v>14.86015092172977</v>
+        <v>15.52187024572064</v>
       </c>
       <c r="F215">
-        <v>14.93158208456414</v>
+        <v>14.8692909310289</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>14.60699152408043</v>
+        <v>15.67515523783797</v>
       </c>
       <c r="C216">
-        <v>14.68654516858554</v>
+        <v>14.76134424242678</v>
       </c>
       <c r="D216">
-        <v>14.86463582944295</v>
+        <v>14.7775088639114</v>
       </c>
       <c r="E216">
-        <v>14.75688049281563</v>
+        <v>15.4306703617648</v>
       </c>
       <c r="F216">
-        <v>14.83833978388314</v>
+        <v>14.75939794582766</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>14.49645794953783</v>
+        <v>15.58510597965891</v>
       </c>
       <c r="C217">
-        <v>14.57642674296899</v>
+        <v>14.65405978868504</v>
       </c>
       <c r="D217">
-        <v>14.75854493055687</v>
+        <v>14.67584000283887</v>
       </c>
       <c r="E217">
-        <v>14.6537691748327</v>
+        <v>15.3394714201674</v>
       </c>
       <c r="F217">
-        <v>14.74531560049166</v>
+        <v>14.64951555888899</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>14.38601459848603</v>
+        <v>15.49513045593915</v>
       </c>
       <c r="C218">
-        <v>14.46635837418674</v>
+        <v>14.54684130895441</v>
       </c>
       <c r="D218">
-        <v>14.65247748423637</v>
+        <v>14.57435119309667</v>
       </c>
       <c r="E218">
-        <v>14.55081869860001</v>
+        <v>15.2482734213786</v>
       </c>
       <c r="F218">
-        <v>14.65251019688978</v>
+        <v>14.53964510278104</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>14.27566286091864</v>
+        <v>15.40522913421923</v>
       </c>
       <c r="C219">
-        <v>14.35634124531589</v>
+        <v>14.43969005181055</v>
       </c>
       <c r="D219">
-        <v>14.54643453233932</v>
+        <v>14.47304379630193</v>
       </c>
       <c r="E219">
-        <v>14.44803078097591</v>
+        <v>15.15707636585544</v>
       </c>
       <c r="F219">
-        <v>14.55992424228334</v>
+        <v>14.42978789102916</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>14.16540408970164</v>
+        <v>15.31540248232812</v>
       </c>
       <c r="C220">
-        <v>14.24637651138531</v>
+        <v>14.33260724042848</v>
       </c>
       <c r="D220">
-        <v>14.44041710298448</v>
+        <v>14.37191917412899</v>
       </c>
       <c r="E220">
-        <v>14.34540712577362</v>
+        <v>15.06588025406175</v>
       </c>
       <c r="F220">
-        <v>14.46755841262943</v>
+        <v>14.31994521617375</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>14.05523960177204</v>
+        <v>15.22565096845547</v>
       </c>
       <c r="C221">
-        <v>14.13646530000487</v>
+        <v>14.22559407335863</v>
       </c>
       <c r="D221">
-        <v>14.33442621087348</v>
+        <v>14.27097868240291</v>
       </c>
       <c r="E221">
-        <v>14.24294942466376</v>
+        <v>14.97468508646949</v>
       </c>
       <c r="F221">
-        <v>14.3754133906854</v>
+        <v>14.21011835043983</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>13.94517067932272</v>
+        <v>15.13597506114481</v>
       </c>
       <c r="C222">
-        <v>14.02660871197241</v>
+        <v>14.11865171524459</v>
       </c>
       <c r="D222">
-        <v>14.22846285760891</v>
+        <v>14.17022367234176</v>
       </c>
       <c r="E222">
-        <v>14.14065935806224</v>
+        <v>14.88349086355706</v>
       </c>
       <c r="F222">
-        <v>14.28348986605373</v>
+        <v>14.10030854452918</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>13.83519857097359</v>
+        <v>15.04637522977614</v>
       </c>
       <c r="C223">
-        <v>13.91680782187541</v>
+        <v>14.01178131195344</v>
       </c>
       <c r="D223">
-        <v>14.12252803200865</v>
+        <v>14.06965548884867</v>
       </c>
       <c r="E223">
-        <v>14.03853859601389</v>
+        <v>14.79229758580995</v>
       </c>
       <c r="F223">
-        <v>14.19178853523054</v>
+        <v>13.99051703082113</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>13.72532449292917</v>
+        <v>14.9568519445978</v>
       </c>
       <c r="C224">
-        <v>13.80706367867804</v>
+        <v>13.90498399347378</v>
       </c>
       <c r="D224">
-        <v>14.0166227104166</v>
+        <v>13.96927547874328</v>
       </c>
       <c r="E224">
-        <v>13.93658879906301</v>
+        <v>14.70110525372157</v>
       </c>
       <c r="F224">
-        <v>14.10031010165006</v>
+        <v>13.88074502236002</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>13.61554963012275</v>
+        <v>14.86740567682264</v>
       </c>
       <c r="C225">
-        <v>13.69737730629529</v>
+        <v>13.7982608630706</v>
       </c>
       <c r="D225">
-        <v>13.9107478570102</v>
+        <v>13.86908498588657</v>
       </c>
       <c r="E225">
-        <v>13.83481161911756</v>
+        <v>14.60991386779308</v>
       </c>
       <c r="F225">
-        <v>14.00905527573219</v>
+        <v>13.77099371304446</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>13.5058751373473</v>
+        <v>14.77803689873301</v>
       </c>
       <c r="C226">
-        <v>13.58774970415483</v>
+        <v>13.6916130025404</v>
       </c>
       <c r="D226">
-        <v>13.80490442410463</v>
+        <v>13.76908535149543</v>
       </c>
       <c r="E226">
-        <v>13.73320870029427</v>
+        <v>14.51872342853587</v>
       </c>
       <c r="F226">
-        <v>13.9180247749268</v>
+        <v>13.66126427677881</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>13.39630214037339</v>
+        <v>14.68874608395284</v>
       </c>
       <c r="C227">
-        <v>13.47818184774855</v>
+        <v>13.58504147293819</v>
       </c>
       <c r="D227">
-        <v>13.69909335245419</v>
+        <v>13.66927791599453</v>
       </c>
       <c r="E227">
-        <v>13.63178167976416</v>
+        <v>14.42753393646814</v>
       </c>
       <c r="F227">
-        <v>13.82721932375983</v>
+        <v>13.55155786987711</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>13.28683173705428</v>
+        <v>14.59953370755552</v>
       </c>
       <c r="C228">
-        <v>13.3686746891673</v>
+        <v>13.47854730735962</v>
       </c>
       <c r="D228">
-        <v>13.59331557155087</v>
+        <v>13.56966402239598</v>
       </c>
       <c r="E228">
-        <v>13.53053218858447</v>
+        <v>14.33634539211599</v>
       </c>
       <c r="F228">
-        <v>13.73663965387781</v>
+        <v>13.44187563081754</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>13.17746499841851</v>
+        <v>14.51040024619198</v>
       </c>
       <c r="C229">
-        <v>13.25922915762868</v>
+        <v>13.37213152037079</v>
       </c>
       <c r="D229">
-        <v>13.48757199992047</v>
+        <v>13.47024501403085</v>
       </c>
       <c r="E229">
-        <v>13.42946185252805</v>
+        <v>14.2451577960148</v>
       </c>
       <c r="F229">
-        <v>13.64628650409181</v>
+        <v>13.33221868004041</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>13.06820296975029</v>
+        <v>14.42134617829161</v>
       </c>
       <c r="C230">
-        <v>13.14984615999196</v>
+        <v>13.26579511652538</v>
       </c>
       <c r="D230">
-        <v>13.38186354541625</v>
+        <v>13.37102223319522</v>
       </c>
       <c r="E230">
-        <v>13.3285722928931</v>
+        <v>14.15397114870892</v>
       </c>
       <c r="F230">
-        <v>13.55616062042269</v>
+        <v>13.22258811940159</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.95904667165788</v>
+        <v>14.33237198415436</v>
       </c>
       <c r="C231">
-        <v>13.04052658126133</v>
+        <v>13.15953907701279</v>
       </c>
       <c r="D231">
-        <v>13.27619110551062</v>
+        <v>13.27199702671051</v>
       </c>
       <c r="E231">
-        <v>13.22786512731507</v>
+        <v>14.06278545075526</v>
       </c>
       <c r="F231">
-        <v>13.46626275614208</v>
+        <v>13.1129850339027</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.84999710113057</v>
+        <v>14.24347814612102</v>
       </c>
       <c r="C232">
-        <v>12.93127128507942</v>
+        <v>13.05336436524734</v>
       </c>
       <c r="D232">
-        <v>13.17055556758482</v>
+        <v>13.17317074435108</v>
       </c>
       <c r="E232">
-        <v>13.12734197056701</v>
+        <v>13.97160070271817</v>
       </c>
       <c r="F232">
-        <v>13.37659367181904</v>
+        <v>13.00341049207256</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.74105523258437</v>
+        <v>14.15466514873546</v>
       </c>
       <c r="C233">
-        <v>12.82208111420912</v>
+        <v>12.94727192754983</v>
       </c>
       <c r="D233">
-        <v>13.06495780921696</v>
+        <v>13.07454473900301</v>
       </c>
       <c r="E233">
-        <v>13.02700443535707</v>
+        <v>13.88041690517068</v>
       </c>
       <c r="F233">
-        <v>13.28715413535691</v>
+        <v>12.89386554545069</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>12.63222201889698</v>
+        <v>14.06593347903132</v>
       </c>
       <c r="C234">
-        <v>12.71295689100336</v>
+        <v>12.84126269011144</v>
       </c>
       <c r="D234">
-        <v>12.95939869846858</v>
+        <v>12.97612036538919</v>
       </c>
       <c r="E234">
-        <v>12.92685413311131</v>
+        <v>13.78923405869685</v>
       </c>
       <c r="F234">
-        <v>13.1979449220422</v>
+        <v>12.78435122829448</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>12.52349839243244</v>
+        <v>13.97728362646958</v>
       </c>
       <c r="C235">
-        <v>12.60389941786699</v>
+        <v>12.73533756060929</v>
       </c>
       <c r="D235">
-        <v>12.85387909417003</v>
+        <v>12.87789898577237</v>
       </c>
       <c r="E235">
-        <v>12.82689267475633</v>
+        <v>13.69805216389107</v>
       </c>
       <c r="F235">
-        <v>13.10896681457716</v>
+        <v>12.6748685587416</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>12.41488526605594</v>
+        <v>13.88871608316003</v>
       </c>
       <c r="C236">
-        <v>12.49490947770758</v>
+        <v>12.62949743738755</v>
       </c>
       <c r="D236">
-        <v>12.74839984620471</v>
+        <v>12.77988196690549</v>
       </c>
       <c r="E236">
-        <v>12.72712167149399</v>
+        <v>13.60687122136231</v>
       </c>
       <c r="F236">
-        <v>13.02022060312929</v>
+        <v>12.56541853969571</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12.30638353413918</v>
+        <v>13.8002313440598</v>
       </c>
       <c r="C237">
-        <v>12.38598783437564</v>
+        <v>12.5237432007328</v>
       </c>
       <c r="D237">
-        <v>12.64296179579238</v>
+        <v>12.6820706807439</v>
       </c>
       <c r="E237">
-        <v>12.62754273557285</v>
+        <v>13.5156912317282</v>
       </c>
       <c r="F237">
-        <v>12.93170708536142</v>
+        <v>12.4560021580641</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>12.19799407355702</v>
+        <v>13.71182990734831</v>
       </c>
       <c r="C238">
-        <v>12.27713523309724</v>
+        <v>12.41807571628593</v>
       </c>
       <c r="D238">
-        <v>12.53756577577295</v>
+        <v>12.58446650497514</v>
       </c>
       <c r="E238">
-        <v>12.52815748104953</v>
+        <v>13.42451219561624</v>
       </c>
       <c r="F238">
-        <v>12.84342706648046</v>
+        <v>12.3466203846755</v>
       </c>
     </row>
   </sheetData>

--- a/sriramModel-nelson-atypical-patientID_1-sims-acth-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-atypical-patientID_1-sims-acth-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.54994483592559</v>
+        <v>33.56483301382023</v>
       </c>
       <c r="C2">
-        <v>33.54661223542136</v>
+        <v>33.62279884075662</v>
       </c>
       <c r="D2">
-        <v>33.53182184011818</v>
+        <v>33.60998880221693</v>
       </c>
       <c r="E2">
-        <v>33.63920788659291</v>
+        <v>33.6560521541651</v>
       </c>
       <c r="F2">
-        <v>33.51994542428231</v>
+        <v>33.76247535535228</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33.50209612129115</v>
+        <v>33.53525129331744</v>
       </c>
       <c r="C3">
-        <v>33.49372620354935</v>
+        <v>33.65362373208803</v>
       </c>
       <c r="D3">
-        <v>33.46505770765377</v>
+        <v>33.61682928249029</v>
       </c>
       <c r="E3">
-        <v>33.69971264642489</v>
+        <v>33.70362542276158</v>
       </c>
       <c r="F3">
-        <v>33.44360060254727</v>
+        <v>33.90723002447153</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33.45622026423285</v>
+        <v>33.51068915862685</v>
       </c>
       <c r="C4">
-        <v>33.44129579192833</v>
+        <v>33.68867625797277</v>
       </c>
       <c r="D4">
-        <v>33.39964733790845</v>
+        <v>33.62013408626599</v>
       </c>
       <c r="E4">
-        <v>33.77757291725415</v>
+        <v>33.74225934699203</v>
       </c>
       <c r="F4">
-        <v>33.37065730383159</v>
+        <v>34.01773486676547</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>33.4120827762787</v>
+        <v>33.49053172894189</v>
       </c>
       <c r="C5">
-        <v>33.38927509383355</v>
+        <v>33.72457958536214</v>
       </c>
       <c r="D5">
-        <v>33.33552842929373</v>
+        <v>33.61959718645809</v>
       </c>
       <c r="E5">
-        <v>33.86512528454506</v>
+        <v>33.77184506828953</v>
       </c>
       <c r="F5">
-        <v>33.30082609883901</v>
+        <v>34.08643004107715</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>33.36945002691703</v>
+        <v>33.4741180267616</v>
       </c>
       <c r="C6">
-        <v>33.33762000520423</v>
+        <v>33.75845925457259</v>
       </c>
       <c r="D6">
-        <v>33.27264011483074</v>
+        <v>33.61499292221554</v>
       </c>
       <c r="E6">
-        <v>33.95046345411547</v>
+        <v>33.79253087054901</v>
       </c>
       <c r="F6">
-        <v>33.23383506154399</v>
+        <v>34.1148752748929</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>33.32809110865877</v>
+        <v>33.46074664958311</v>
       </c>
       <c r="C7">
-        <v>33.28628761356681</v>
+        <v>33.78798740203683</v>
       </c>
       <c r="D7">
-        <v>33.21092251132412</v>
+        <v>33.60617317120969</v>
       </c>
       <c r="E7">
-        <v>34.01974046410948</v>
+        <v>33.80464362754883</v>
       </c>
       <c r="F7">
-        <v>33.16942848490579</v>
+        <v>34.10990509392678</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.28777947064155</v>
+        <v>33.44968431760424</v>
       </c>
       <c r="C8">
-        <v>33.23523607598027</v>
+        <v>33.81138782987451</v>
       </c>
       <c r="D8">
-        <v>33.15031651798314</v>
+        <v>33.59306147376348</v>
       </c>
       <c r="E8">
-        <v>34.06216850610202</v>
+        <v>33.80862016033337</v>
       </c>
       <c r="F8">
-        <v>33.10736604868944</v>
+        <v>34.07960817618746</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.24829419785353</v>
+        <v>33.44017751721908</v>
       </c>
       <c r="C9">
-        <v>33.18442473635491</v>
+        <v>33.82740794199559</v>
       </c>
       <c r="D9">
-        <v>33.09076384585784</v>
+        <v>33.57564505417005</v>
       </c>
       <c r="E9">
-        <v>34.07389605592102</v>
+        <v>33.80496061840564</v>
       </c>
       <c r="F9">
-        <v>33.0474221373139</v>
+        <v>34.03108615030538</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.20942094874358</v>
+        <v>33.43146643955293</v>
       </c>
       <c r="C10">
-        <v>33.13381406996562</v>
+        <v>33.83526483501405</v>
       </c>
       <c r="D10">
-        <v>33.03220695439716</v>
+        <v>33.55396570833362</v>
       </c>
       <c r="E10">
-        <v>34.05754112795575</v>
+        <v>33.79419221712944</v>
       </c>
       <c r="F10">
-        <v>32.98938514040996</v>
+        <v>33.96978555987172</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.17095259566058</v>
+        <v>33.42280084594448</v>
       </c>
       <c r="C11">
-        <v>33.08336568525544</v>
+        <v>33.83457573641107</v>
       </c>
       <c r="D11">
-        <v>32.97458907078091</v>
+        <v>33.52811020254574</v>
       </c>
       <c r="E11">
-        <v>34.01889636322403</v>
+        <v>33.77684231701039</v>
       </c>
       <c r="F11">
-        <v>32.9330566050746</v>
+        <v>33.89961060506131</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.13268958323235</v>
+        <v>33.41345700876615</v>
       </c>
       <c r="C12">
-        <v>33.0330422781822</v>
+        <v>33.8252809181911</v>
       </c>
       <c r="D12">
-        <v>32.91785417296904</v>
+        <v>33.49820088193786</v>
       </c>
       <c r="E12">
-        <v>33.96400520959594</v>
+        <v>33.7534250947766</v>
       </c>
       <c r="F12">
-        <v>32.87825048287233</v>
+        <v>33.82327137592854</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.09444007897768</v>
+        <v>33.40275361403913</v>
       </c>
       <c r="C13">
-        <v>32.98280760839419</v>
+        <v>33.80756892387074</v>
       </c>
       <c r="D13">
-        <v>32.86194699443823</v>
+        <v>33.46438690423777</v>
       </c>
       <c r="E13">
-        <v>33.89780661028327</v>
+        <v>33.72443044889321</v>
       </c>
       <c r="F13">
-        <v>32.82479247110804</v>
+        <v>33.74262502737969</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.05602003767475</v>
+        <v>33.39006691674105</v>
       </c>
       <c r="C14">
-        <v>32.93262651441291</v>
+        <v>33.78180730769339</v>
       </c>
       <c r="D14">
-        <v>32.80681302928494</v>
+        <v>33.42683634626943</v>
       </c>
       <c r="E14">
-        <v>33.82390118305776</v>
+        <v>33.69031667138222</v>
       </c>
       <c r="F14">
-        <v>32.77251939389527</v>
+        <v>33.65894217804974</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.01725331855396</v>
+        <v>33.37484348836044</v>
       </c>
       <c r="C15">
-        <v>32.88246487506169</v>
+        <v>33.74848330170139</v>
       </c>
       <c r="D15">
-        <v>32.75239852680545</v>
+        <v>33.3857298789351</v>
       </c>
       <c r="E15">
-        <v>33.74477210588334</v>
+        <v>33.65150891238667</v>
       </c>
       <c r="F15">
-        <v>32.7212785978107</v>
+        <v>33.57309624033905</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.97797203424046</v>
+        <v>33.35660966263201</v>
       </c>
       <c r="C16">
-        <v>32.83228960737271</v>
+        <v>33.70815482638592</v>
       </c>
       <c r="D16">
-        <v>32.6986504999346</v>
+        <v>33.34125479056542</v>
       </c>
       <c r="E16">
-        <v>33.66209088963971</v>
+        <v>33.60839986809621</v>
       </c>
       <c r="F16">
-        <v>32.67092726196194</v>
+        <v>33.4856925734464</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.9380172327736</v>
+        <v>33.33497748349851</v>
       </c>
       <c r="C17">
-        <v>32.78206865594421</v>
+        <v>33.66141268760045</v>
       </c>
       <c r="D17">
-        <v>32.64551672810293</v>
+        <v>33.29360029099985</v>
       </c>
       <c r="E17">
-        <v>33.57697390126053</v>
+        <v>33.56134892354203</v>
       </c>
       <c r="F17">
-        <v>32.62133174443818</v>
+        <v>33.39715501394689</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.89723997885776</v>
+        <v>33.3096468253565</v>
       </c>
       <c r="C18">
-        <v>32.73177098706744</v>
+        <v>33.60885198460812</v>
       </c>
       <c r="D18">
-        <v>32.59294575779061</v>
+        <v>33.24295425521848</v>
       </c>
       <c r="E18">
-        <v>33.49016807743268</v>
+        <v>33.51068380513496</v>
       </c>
       <c r="F18">
-        <v>32.57236813422428</v>
+        <v>33.30778353619305</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.8555027861029</v>
+        <v>33.28040395577402</v>
       </c>
       <c r="C19">
-        <v>32.68136655807214</v>
+        <v>33.55105219782379</v>
       </c>
       <c r="D19">
-        <v>32.54088690695416</v>
+        <v>33.18950063123296</v>
       </c>
       <c r="E19">
-        <v>33.40217665267926</v>
+        <v>33.45670318468349</v>
       </c>
       <c r="F19">
-        <v>32.52392031291495</v>
+        <v>33.21779304157119</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.81268128885255</v>
+        <v>33.24711699170506</v>
       </c>
       <c r="C20">
-        <v>32.63082628260062</v>
+        <v>33.48856364120154</v>
       </c>
       <c r="D20">
-        <v>32.48929026642637</v>
+        <v>33.13341732479365</v>
       </c>
       <c r="E20">
-        <v>33.31334204516173</v>
+        <v>33.39967862125086</v>
       </c>
       <c r="F20">
-        <v>32.47588009219678</v>
+        <v>33.12733910471269</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.76866568822718</v>
+        <v>33.20972887457827</v>
       </c>
       <c r="C21">
-        <v>32.58012209759218</v>
+        <v>33.42189942256092</v>
       </c>
       <c r="D21">
-        <v>32.43810670774403</v>
+        <v>33.07487475346729</v>
       </c>
       <c r="E21">
-        <v>33.22389989694319</v>
+        <v>33.33985672760839</v>
       </c>
       <c r="F21">
-        <v>32.42814647347876</v>
+        <v>33.03653555530583</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.7233621425631</v>
+        <v>33.16824856971152</v>
       </c>
       <c r="C22">
-        <v>32.5292268845961</v>
+        <v>33.351531127457</v>
       </c>
       <c r="D22">
-        <v>32.38728788031326</v>
+        <v>33.0140349473996</v>
       </c>
       <c r="E22">
-        <v>33.1340143460192</v>
+        <v>33.27746144722919</v>
       </c>
       <c r="F22">
-        <v>32.38062539060913</v>
+        <v>32.94546666602939</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.67669345196845</v>
+        <v>33.12274144234505</v>
       </c>
       <c r="C23">
-        <v>32.47811439682641</v>
+        <v>33.27788746165351</v>
       </c>
       <c r="D23">
-        <v>32.3367862330302</v>
+        <v>32.95105114235486</v>
       </c>
       <c r="E23">
-        <v>33.04380110603773</v>
+        <v>33.21269615309766</v>
       </c>
       <c r="F23">
-        <v>32.3332295727034</v>
+        <v>32.85419541618475</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.62859907221823</v>
+        <v>33.07331914643848</v>
       </c>
       <c r="C24">
-        <v>32.42675949283044</v>
+        <v>33.20135476712331</v>
       </c>
       <c r="D24">
-        <v>32.28655499966209</v>
+        <v>32.8860676075311</v>
       </c>
       <c r="E24">
-        <v>32.95334282671058</v>
+        <v>33.14574564041069</v>
       </c>
       <c r="F24">
-        <v>32.28587798211276</v>
+        <v>32.76276935166335</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.57903459988056</v>
+        <v>33.02012962470859</v>
       </c>
       <c r="C25">
-        <v>32.37513785811633</v>
+        <v>33.1222788644958</v>
       </c>
       <c r="D25">
-        <v>32.23654822891345</v>
+        <v>32.81921975261853</v>
       </c>
       <c r="E25">
-        <v>32.8626992637334</v>
+        <v>33.07677794555246</v>
       </c>
       <c r="F25">
-        <v>32.23849549575509</v>
+        <v>32.67122467868806</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>32.5279706987193</v>
+        <v>32.96334791413728</v>
       </c>
       <c r="C26">
-        <v>32.32322604812555</v>
+        <v>33.04096765102285</v>
       </c>
       <c r="D26">
-        <v>32.18672077069306</v>
+        <v>32.75063414746683</v>
       </c>
       <c r="E26">
-        <v>32.77191402520668</v>
+        <v>33.00594599120247</v>
       </c>
       <c r="F26">
-        <v>32.19101244566401</v>
+        <v>32.57958927285764</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>32.47539168409919</v>
+        <v>32.90316792878799</v>
       </c>
       <c r="C27">
-        <v>32.2710015472395</v>
+        <v>32.95769411967562</v>
       </c>
       <c r="D27">
-        <v>32.13702830120985</v>
+        <v>32.68042880017408</v>
       </c>
       <c r="E27">
-        <v>32.68101937411009</v>
+        <v>32.93338907334361</v>
       </c>
       <c r="F27">
-        <v>32.14336430736604</v>
+        <v>32.48788476184574</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>32.42129390455734</v>
+        <v>32.83979524977222</v>
       </c>
       <c r="C28">
-        <v>32.21844267175565</v>
+        <v>32.87269953608746</v>
       </c>
       <c r="D28">
-        <v>32.08742731694703</v>
+        <v>32.60871355276888</v>
       </c>
       <c r="E28">
-        <v>32.59003942186797</v>
+        <v>32.85923420518802</v>
       </c>
       <c r="F28">
-        <v>32.09549161180801</v>
+        <v>32.39612803504564</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>32.36568407094142</v>
+        <v>32.77344104325321</v>
       </c>
       <c r="C29">
-        <v>32.16552861517043</v>
+        <v>32.78619660115601</v>
       </c>
       <c r="D29">
-        <v>32.03787514897562</v>
+        <v>32.53559051942305</v>
       </c>
       <c r="E29">
-        <v>32.49899235840661</v>
+        <v>32.78359734896983</v>
       </c>
       <c r="F29">
-        <v>32.0473390841691</v>
+        <v>32.3043323769632</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>32.30857768738989</v>
+        <v>32.70431708927666</v>
       </c>
       <c r="C30">
-        <v>32.11223943349087</v>
+        <v>32.69837248688736</v>
       </c>
       <c r="D30">
-        <v>31.98832996816588</v>
+        <v>32.46115453769418</v>
       </c>
       <c r="E30">
-        <v>32.40789204835798</v>
+        <v>32.70658451295261</v>
       </c>
       <c r="F30">
-        <v>31.99885581963503</v>
+        <v>32.21250834677355</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>32.24999751663501</v>
+        <v>32.63263188887535</v>
       </c>
       <c r="C31">
-        <v>32.05855601218217</v>
+        <v>32.60939168588403</v>
       </c>
       <c r="D31">
-        <v>31.93875079790866</v>
+        <v>32.38549361674625</v>
       </c>
       <c r="E31">
-        <v>32.31674919003891</v>
+        <v>32.62829273372914</v>
       </c>
       <c r="F31">
-        <v>31.94999507694263</v>
+        <v>32.12066439496891</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>32.18997211647814</v>
+        <v>32.55858770033603</v>
       </c>
       <c r="C32">
-        <v>32.00446008763038</v>
+        <v>32.51939862536602</v>
       </c>
       <c r="D32">
-        <v>31.88909751646187</v>
+        <v>32.30868937997163</v>
       </c>
       <c r="E32">
-        <v>32.22557209683315</v>
+        <v>32.54881095160646</v>
       </c>
       <c r="F32">
-        <v>31.90071382475357</v>
+        <v>32.02880731571979</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>32.12853471508412</v>
+        <v>32.48237837535237</v>
       </c>
       <c r="C33">
-        <v>31.94993419757713</v>
+        <v>32.42852005085521</v>
       </c>
       <c r="D33">
-        <v>31.83933088035599</v>
+        <v>32.23081750126756</v>
       </c>
       <c r="E33">
-        <v>32.13436726341538</v>
+        <v>32.46822079269627</v>
       </c>
       <c r="F33">
-        <v>31.85097275039275</v>
+        <v>31.93694260423691</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>32.06572210023551</v>
+        <v>32.40418787458408</v>
       </c>
       <c r="C34">
-        <v>31.89496168008007</v>
+        <v>32.3368671581235</v>
       </c>
       <c r="D34">
-        <v>31.78941251138408</v>
+        <v>32.15194813775648</v>
       </c>
       <c r="E34">
-        <v>32.04313980237933</v>
+        <v>32.38659726937851</v>
       </c>
       <c r="F34">
-        <v>31.8007358350326</v>
+        <v>31.8450747443611</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>32.00157373905977</v>
+        <v>32.32418933681591</v>
       </c>
       <c r="C35">
-        <v>31.83952666143442</v>
+        <v>32.24453750528922</v>
       </c>
       <c r="D35">
-        <v>31.73930491509077</v>
+        <v>32.07214633953721</v>
       </c>
       <c r="E35">
-        <v>31.95189379165085</v>
+        <v>32.30400941006041</v>
       </c>
       <c r="F35">
-        <v>31.74997028871024</v>
+        <v>31.75320744630206</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>31.93613097368027</v>
+        <v>32.2425446254413</v>
       </c>
       <c r="C36">
-        <v>31.78361402718892</v>
+        <v>32.15161669821777</v>
       </c>
       <c r="D36">
-        <v>31.68897151233033</v>
+        <v>31.99147243192623</v>
       </c>
       <c r="E36">
-        <v>31.86063250260016</v>
+        <v>32.22052082101685</v>
       </c>
       <c r="F36">
-        <v>31.69864617632595</v>
+        <v>31.66134377573306</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>31.86943638987844</v>
+        <v>32.15940420014918</v>
       </c>
       <c r="C37">
-        <v>31.72720942374332</v>
+        <v>32.05817988562819</v>
       </c>
       <c r="D37">
-        <v>31.63837661347804</v>
+        <v>31.90998237358648</v>
       </c>
       <c r="E37">
-        <v>31.76935857220735</v>
+        <v>32.13619019142669</v>
       </c>
       <c r="F37">
-        <v>31.646736319437</v>
+        <v>31.56948627141125</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>31.80153325938246</v>
+        <v>32.07490725535128</v>
       </c>
       <c r="C38">
-        <v>31.6702992338027</v>
+        <v>31.96429305817136</v>
       </c>
       <c r="D38">
-        <v>31.58748543402642</v>
+        <v>31.82772809163699</v>
       </c>
       <c r="E38">
-        <v>31.67807413744178</v>
+        <v>32.05107174478041</v>
       </c>
       <c r="F38">
-        <v>31.59421613082461</v>
+        <v>31.47763704920849</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>31.73246510070492</v>
+        <v>31.98918205270969</v>
       </c>
       <c r="C39">
-        <v>31.6128705692914</v>
+        <v>31.87001421657515</v>
       </c>
       <c r="D39">
-        <v>31.53626412780991</v>
+        <v>31.74475779388485</v>
       </c>
       <c r="E39">
-        <v>31.58678094454009</v>
+        <v>31.9652156372762</v>
       </c>
       <c r="F39">
-        <v>31.54106339076314</v>
+        <v>31.38579788505782</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>31.66227529968816</v>
+        <v>31.90234638995449</v>
       </c>
       <c r="C40">
-        <v>31.5549112592253</v>
+        <v>31.77539438936352</v>
       </c>
       <c r="D40">
-        <v>31.48467979329605</v>
+        <v>31.66111626025733</v>
       </c>
       <c r="E40">
-        <v>31.49548042882042</v>
+        <v>31.87866832413104</v>
       </c>
       <c r="F40">
-        <v>31.48725820992841</v>
+        <v>31.29397028302085</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>31.59100682228927</v>
+        <v>31.8145081842722</v>
       </c>
       <c r="C41">
-        <v>31.49640983159444</v>
+        <v>31.68047849428737</v>
       </c>
       <c r="D41">
-        <v>31.4327004449639</v>
+        <v>31.57684511139045</v>
       </c>
       <c r="E41">
-        <v>31.4041737867841</v>
+        <v>31.79147288615799</v>
       </c>
       <c r="F41">
-        <v>31.43278280352338</v>
+        <v>31.20215553181574</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>31.51870199568825</v>
+        <v>31.72576602299111</v>
       </c>
       <c r="C42">
-        <v>31.43735550560092</v>
+        <v>31.58530609147653</v>
       </c>
       <c r="D42">
-        <v>31.38029505887811</v>
+        <v>31.4919830540223</v>
       </c>
       <c r="E42">
-        <v>31.31286201994848</v>
+        <v>31.70366932339307</v>
       </c>
       <c r="F42">
-        <v>31.37762140181522</v>
+        <v>31.11035473646353</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>31.44540229816315</v>
+        <v>31.63620982099345</v>
       </c>
       <c r="C43">
-        <v>31.37773817238553</v>
+        <v>31.48991205893183</v>
       </c>
       <c r="D43">
-        <v>31.32743358592422</v>
+        <v>31.40656610889306</v>
       </c>
       <c r="E43">
-        <v>31.22154595335698</v>
+        <v>31.61529481947265</v>
       </c>
       <c r="F43">
-        <v>31.32176010363398</v>
+        <v>31.01856884763396</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>31.37114819703527</v>
+        <v>31.54592148042831</v>
       </c>
       <c r="C44">
-        <v>31.31754838303328</v>
+        <v>31.39432718681467</v>
       </c>
       <c r="D44">
-        <v>31.27408693253041</v>
+        <v>31.32062782008336</v>
       </c>
       <c r="E44">
-        <v>31.13022627898171</v>
+        <v>31.52638397999999</v>
       </c>
       <c r="F44">
-        <v>31.26518673619118</v>
+        <v>30.92679868830792</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>31.29597905512152</v>
+        <v>31.45497542591161</v>
       </c>
       <c r="C45">
-        <v>31.25677733135207</v>
+        <v>31.29857868729553</v>
       </c>
       <c r="D45">
-        <v>31.22022699050675</v>
+        <v>31.23419944754457</v>
       </c>
       <c r="E45">
-        <v>31.03890357900657</v>
+        <v>31.43696904709131</v>
       </c>
       <c r="F45">
-        <v>31.2078907676447</v>
+        <v>30.83504497352827</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>31.21993306331981</v>
+        <v>31.36343938219971</v>
       </c>
       <c r="C46">
-        <v>31.1954168416681</v>
+        <v>31.20269063254091</v>
       </c>
       <c r="D46">
-        <v>31.16582662999786</v>
+        <v>31.14731014389015</v>
       </c>
       <c r="E46">
-        <v>30.94757834773056</v>
+        <v>31.34708009702235</v>
       </c>
       <c r="F46">
-        <v>31.14986315472313</v>
+        <v>30.74330833596455</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>31.14304718866287</v>
+        <v>31.27137481619715</v>
       </c>
       <c r="C47">
-        <v>31.13345936060655</v>
+        <v>31.10668433790478</v>
       </c>
       <c r="D47">
-        <v>31.11085972621091</v>
+        <v>31.05998711653396</v>
       </c>
       <c r="E47">
-        <v>30.85625100841706</v>
+        <v>31.25674521273749</v>
       </c>
       <c r="F47">
-        <v>31.09109629743495</v>
+        <v>30.65158932966488</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>31.06535713945647</v>
+        <v>31.17883757358322</v>
       </c>
       <c r="C48">
-        <v>31.07089793974795</v>
+        <v>31.01057869979864</v>
       </c>
       <c r="D48">
-        <v>31.05530115997088</v>
+        <v>30.97225576500033</v>
       </c>
       <c r="E48">
-        <v>30.76492192319796</v>
+        <v>31.16599063921644</v>
       </c>
       <c r="F48">
-        <v>31.03158388709659</v>
+        <v>30.55988845861078</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>30.98689733559741</v>
+        <v>31.08587829734992</v>
       </c>
       <c r="C49">
-        <v>31.00772619855766</v>
+        <v>30.91439049127065</v>
       </c>
       <c r="D49">
-        <v>30.99912680855009</v>
+        <v>30.88413984824306</v>
       </c>
       <c r="E49">
-        <v>30.67359140280529</v>
+        <v>31.0748409375501</v>
       </c>
       <c r="F49">
-        <v>30.97132087269107</v>
+        <v>30.46820616699767</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>30.9077009250036</v>
+        <v>30.99254291229147</v>
       </c>
       <c r="C50">
-        <v>30.94393835753614</v>
+        <v>30.81813461848232</v>
       </c>
       <c r="D50">
-        <v>30.94231356336999</v>
+        <v>30.79566156468113</v>
       </c>
       <c r="E50">
-        <v>30.58225971491936</v>
+        <v>30.98331910232401</v>
       </c>
       <c r="F50">
-        <v>30.91030333966338</v>
+        <v>30.37654285915594</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>30.82779972266223</v>
+        <v>30.89887310623744</v>
       </c>
       <c r="C51">
-        <v>30.87952919355704</v>
+        <v>30.72182434368706</v>
       </c>
       <c r="D51">
-        <v>30.88483935990973</v>
+        <v>30.70684176728645</v>
       </c>
       <c r="E51">
-        <v>30.49092708928517</v>
+        <v>30.89144674460698</v>
       </c>
       <c r="F51">
-        <v>30.84852844600178</v>
+        <v>30.28489890126443</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>30.74722434892761</v>
+        <v>30.80490667383022</v>
       </c>
       <c r="C52">
-        <v>30.81449402781693</v>
+        <v>30.6254714817012</v>
       </c>
       <c r="D52">
-        <v>30.82668315157389</v>
+        <v>30.61769991189782</v>
       </c>
       <c r="E52">
-        <v>30.39959372542406</v>
+        <v>30.79924412131571</v>
       </c>
       <c r="F52">
-        <v>30.78599435509651</v>
+        <v>30.1932746267676</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>30.66600409188708</v>
+        <v>30.71072425036929</v>
       </c>
       <c r="C53">
-        <v>30.74882869935772</v>
+        <v>30.52908868570468</v>
       </c>
       <c r="D53">
-        <v>30.7678248946735</v>
+        <v>30.5283726039228</v>
       </c>
       <c r="E53">
-        <v>30.30825979723346</v>
+        <v>30.70689168609012</v>
       </c>
       <c r="F53">
-        <v>30.72270013540074</v>
+        <v>30.10167033461683</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>30.58416711747029</v>
+        <v>30.61639068784962</v>
       </c>
       <c r="C54">
-        <v>30.68252959094873</v>
+        <v>30.4326867759546</v>
       </c>
       <c r="D54">
-        <v>30.7082456291602</v>
+        <v>30.43898226572948</v>
       </c>
       <c r="E54">
-        <v>30.21692545711247</v>
+        <v>30.61455344372224</v>
       </c>
       <c r="F54">
-        <v>30.65864573450535</v>
+        <v>30.01008630749751</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>30.5017403613423</v>
+        <v>30.52191777272794</v>
       </c>
       <c r="C55">
-        <v>30.6155935840445</v>
+        <v>30.33627329142003</v>
       </c>
       <c r="D55">
-        <v>30.64792743068207</v>
+        <v>30.34952663686324</v>
       </c>
       <c r="E55">
-        <v>30.12559084010964</v>
+        <v>30.52222456071968</v>
       </c>
       <c r="F55">
-        <v>30.59383187375362</v>
+        <v>29.91852280731261</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>30.41874965610599</v>
+        <v>30.4273174536872</v>
       </c>
       <c r="C56">
-        <v>30.54801804670272</v>
+        <v>30.23985505890635</v>
       </c>
       <c r="D56">
-        <v>30.58685336209125</v>
+        <v>30.26000412634438</v>
       </c>
       <c r="E56">
-        <v>30.03425606370388</v>
+        <v>30.42990094935804</v>
       </c>
       <c r="F56">
-        <v>30.52826003184733</v>
+        <v>29.82698007906076</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>30.33521971486164</v>
+        <v>30.33260166434108</v>
       </c>
       <c r="C57">
-        <v>30.47980082465413</v>
+        <v>30.14343827613223</v>
       </c>
       <c r="D57">
-        <v>30.52500759706507</v>
+        <v>30.17041371958772</v>
       </c>
       <c r="E57">
-        <v>29.94292123338994</v>
+        <v>30.3375792595351</v>
       </c>
       <c r="F57">
-        <v>30.46193235293759</v>
+        <v>29.73545835335575</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>30.25117418800073</v>
+        <v>30.23778213107176</v>
       </c>
       <c r="C58">
-        <v>30.41094023326341</v>
+        <v>30.04702854763378</v>
       </c>
       <c r="D58">
-        <v>30.4623753506783</v>
+        <v>30.08075487288984</v>
       </c>
       <c r="E58">
-        <v>29.85158644008162</v>
+        <v>30.24525674419843</v>
       </c>
       <c r="F58">
-        <v>30.39485162630795</v>
+        <v>29.64395784830932</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>30.16663569757946</v>
+        <v>30.14287028579511</v>
       </c>
       <c r="C59">
-        <v>30.34143503555931</v>
+        <v>29.95063096497181</v>
       </c>
       <c r="D59">
-        <v>30.39894284670653</v>
+        <v>29.99102748074641</v>
       </c>
       <c r="E59">
-        <v>29.76025176562933</v>
+        <v>30.15293115546818</v>
       </c>
       <c r="F59">
-        <v>30.32702121738819</v>
+        <v>29.55247877137611</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>30.08162587206835</v>
+        <v>30.04787719551222</v>
       </c>
       <c r="C60">
-        <v>30.27128443937121</v>
+        <v>29.8542501561985</v>
       </c>
       <c r="D60">
-        <v>30.33469736748529</v>
+        <v>29.90123180029963</v>
       </c>
       <c r="E60">
-        <v>29.6689172812073</v>
+        <v>30.06060072363383</v>
       </c>
       <c r="F60">
-        <v>30.25844503125082</v>
+        <v>29.46102132078889</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>29.99616539695807</v>
+        <v>29.95281349830782</v>
       </c>
       <c r="C61">
-        <v>30.20048806904583</v>
+        <v>29.75789032166827</v>
       </c>
       <c r="D61">
-        <v>30.26962728228541</v>
+        <v>29.81136838944596</v>
       </c>
       <c r="E61">
-        <v>29.57758305071426</v>
+        <v>29.96826415509956</v>
       </c>
       <c r="F61">
-        <v>30.18912747430157</v>
+        <v>29.36958568682803</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>29.91027404506591</v>
+        <v>29.8576893573791</v>
       </c>
       <c r="C62">
-        <v>30.12904595970453</v>
+        <v>29.66155527606905</v>
       </c>
       <c r="D62">
-        <v>30.20372197556912</v>
+        <v>29.72143806315069</v>
       </c>
       <c r="E62">
-        <v>29.4862491310956</v>
+        <v>29.87592046485623</v>
       </c>
       <c r="F62">
-        <v>30.11907339734191</v>
+        <v>29.27817205295185</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>29.82397072772135</v>
+        <v>29.76251444993527</v>
       </c>
       <c r="C63">
-        <v>30.05695854607215</v>
+        <v>29.56524849739882</v>
       </c>
       <c r="D63">
-        <v>30.1369718209718</v>
+        <v>29.6314418613166</v>
       </c>
       <c r="E63">
-        <v>29.39491557150884</v>
+        <v>29.78356897818976</v>
       </c>
       <c r="F63">
-        <v>30.04828808251606</v>
+        <v>29.1867805967533</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>29.73727352278208</v>
+        <v>29.66729796428378</v>
       </c>
       <c r="C64">
-        <v>29.98422666310128</v>
+        <v>29.46897315772352</v>
       </c>
       <c r="D64">
-        <v>30.06936831788261</v>
+        <v>29.54138101522562</v>
       </c>
       <c r="E64">
-        <v>29.30358241782095</v>
+        <v>29.69120930121102</v>
       </c>
       <c r="F64">
-        <v>29.97677718532983</v>
+        <v>29.09541149080983</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>29.650199720286</v>
+        <v>29.57204859564839</v>
       </c>
       <c r="C65">
-        <v>29.91085149728897</v>
+        <v>29.37273214811479</v>
       </c>
       <c r="D65">
-        <v>30.00090397954986</v>
+        <v>29.45125691197325</v>
       </c>
       <c r="E65">
-        <v>29.21224971382586</v>
+        <v>29.5988412908463</v>
       </c>
       <c r="F65">
-        <v>29.90454673377554</v>
+        <v>29.0040649033825</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>29.56276584645552</v>
+        <v>29.47677455172688</v>
       </c>
       <c r="C66">
-        <v>29.83683459970753</v>
+        <v>29.27652810549962</v>
       </c>
       <c r="D66">
-        <v>29.93157223245402</v>
+        <v>29.36107106704513</v>
       </c>
       <c r="E66">
-        <v>29.12091749383418</v>
+        <v>29.50646502218497</v>
       </c>
       <c r="F66">
-        <v>29.8316030345457</v>
+        <v>28.91274099901536</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>29.47498771086628</v>
+        <v>29.38148356621894</v>
       </c>
       <c r="C67">
-        <v>29.76217787611051</v>
+        <v>29.18036344073839</v>
       </c>
       <c r="D67">
-        <v>29.86136764954756</v>
+        <v>29.2708251027066</v>
       </c>
       <c r="E67">
-        <v>29.02958578854139</v>
+        <v>29.41408075859802</v>
       </c>
       <c r="F67">
-        <v>29.7579527206255</v>
+        <v>28.8214399390508</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>29.38688042721865</v>
+        <v>29.28618291012265</v>
       </c>
       <c r="C68">
-        <v>29.68688357201195</v>
+        <v>29.08424036184106</v>
       </c>
       <c r="D68">
-        <v>29.79028578710895</v>
+        <v>29.18052072907888</v>
       </c>
       <c r="E68">
-        <v>28.9382546355385</v>
+        <v>29.32168892653269</v>
       </c>
       <c r="F68">
-        <v>29.6836026862537</v>
+        <v>28.73016188220916</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>29.29845845513275</v>
+        <v>29.19087941583044</v>
       </c>
       <c r="C69">
-        <v>29.61095423933459</v>
+        <v>28.98816089275919</v>
       </c>
       <c r="D69">
-        <v>29.71832311622271</v>
+        <v>29.09015972347087</v>
       </c>
       <c r="E69">
-        <v>28.84692406433</v>
+        <v>29.22929009441415</v>
       </c>
       <c r="F69">
-        <v>29.60855998679654</v>
+        <v>28.63890698488401</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>29.20973562558101</v>
+        <v>29.09557949526769</v>
       </c>
       <c r="C70">
-        <v>29.53439274386044</v>
+        <v>28.89212689202444</v>
       </c>
       <c r="D70">
-        <v>29.64547713764286</v>
+        <v>28.99974392406859</v>
       </c>
       <c r="E70">
-        <v>28.75559408959329</v>
+        <v>29.13688495437166</v>
       </c>
       <c r="F70">
-        <v>29.53283202344116</v>
+        <v>28.54767540175017</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>29.12072517201194</v>
+        <v>29.00028915989505</v>
       </c>
       <c r="C71">
-        <v>29.45720226578217</v>
+        <v>28.79614006941764</v>
       </c>
       <c r="D71">
-        <v>29.57174636703443</v>
+        <v>28.90927520646151</v>
       </c>
       <c r="E71">
-        <v>28.66426474358993</v>
+        <v>29.04447430568044</v>
       </c>
       <c r="F71">
-        <v>29.45642627603943</v>
+        <v>28.45646728583514</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>29.0314397618738</v>
+        <v>28.90501404195234</v>
       </c>
       <c r="C72">
-        <v>29.37938625896637</v>
+        <v>28.70020199670151</v>
       </c>
       <c r="D72">
-        <v>29.49713022318423</v>
+        <v>28.81875548455889</v>
       </c>
       <c r="E72">
-        <v>28.57293605170494</v>
+        <v>28.95205904047225</v>
       </c>
       <c r="F72">
-        <v>29.37935039941476</v>
+        <v>28.36528278889728</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>28.94189151636694</v>
+        <v>28.80975941497536</v>
       </c>
       <c r="C73">
-        <v>29.30094844733674</v>
+        <v>28.60431412363297</v>
       </c>
       <c r="D73">
-        <v>29.42162901207529</v>
+        <v>28.72818668794229</v>
       </c>
       <c r="E73">
-        <v>28.48160802232796</v>
+        <v>28.85964012624683</v>
       </c>
       <c r="F73">
-        <v>29.30161230339515</v>
+        <v>28.2741220617575</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>28.85209204605473</v>
+        <v>28.71453021418741</v>
       </c>
       <c r="C74">
-        <v>29.22189281985026</v>
+        <v>28.50847778939106</v>
       </c>
       <c r="D74">
-        <v>29.34524407673664</v>
+        <v>28.63757075645313</v>
       </c>
       <c r="E74">
-        <v>28.3902806789023</v>
+        <v>28.76721860483201</v>
       </c>
       <c r="F74">
-        <v>29.22321991714908</v>
+        <v>28.18298525430235</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>28.76205246464026</v>
+        <v>28.61933105688195</v>
       </c>
       <c r="C75">
-        <v>29.1422236437617</v>
+        <v>28.41269423401048</v>
       </c>
       <c r="D75">
-        <v>29.26797763307188</v>
+        <v>28.54690963353441</v>
       </c>
       <c r="E75">
-        <v>28.29895403867275</v>
+        <v>28.67479556591061</v>
       </c>
       <c r="F75">
-        <v>29.14418133324224</v>
+        <v>28.09187251586454</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>28.67178342145451</v>
+        <v>28.52416626227386</v>
       </c>
       <c r="C76">
-        <v>29.06194539349588</v>
+        <v>28.31696460746266</v>
       </c>
       <c r="D76">
-        <v>29.18983265451172</v>
+        <v>28.45620525954583</v>
       </c>
       <c r="E76">
-        <v>28.20762811373044</v>
+        <v>28.58237216494365</v>
       </c>
       <c r="F76">
-        <v>29.06450477161927</v>
+        <v>28.00078399528009</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>28.58129511760414</v>
+        <v>28.42903987039637</v>
       </c>
       <c r="C77">
-        <v>28.98106278100762</v>
+        <v>28.22128997805408</v>
       </c>
       <c r="D77">
-        <v>29.1108131382892</v>
+        <v>28.36545957035297</v>
       </c>
       <c r="E77">
-        <v>28.11630291712124</v>
+        <v>28.48994958142513</v>
       </c>
       <c r="F77">
-        <v>28.9841984865568</v>
+        <v>27.90971984141685</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>28.49059732929028</v>
+        <v>28.33395565979755</v>
       </c>
       <c r="C78">
-        <v>28.89958074505786</v>
+        <v>28.12567134019329</v>
       </c>
       <c r="D78">
-        <v>29.03092389420419</v>
+        <v>28.27467448853855</v>
       </c>
       <c r="E78">
-        <v>28.02497846112199</v>
+        <v>28.39752903631875</v>
       </c>
       <c r="F78">
-        <v>28.90327084283106</v>
+        <v>27.81868020258673</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>28.39969943037305</v>
+        <v>28.23891716454108</v>
       </c>
       <c r="C79">
-        <v>28.81750444767331</v>
+        <v>28.03010962162124</v>
       </c>
       <c r="D79">
-        <v>28.95017043815044</v>
+        <v>28.18385192343194</v>
       </c>
       <c r="E79">
-        <v>27.93365475666535</v>
+        <v>28.30511176760883</v>
       </c>
       <c r="F79">
-        <v>28.82173024850903</v>
+        <v>27.72766522746588</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>28.30861040581631</v>
+        <v>28.14392769091033</v>
       </c>
       <c r="C80">
-        <v>28.73483921969808</v>
+        <v>27.93460568931415</v>
       </c>
       <c r="D80">
-        <v>28.86855916985935</v>
+        <v>28.0929937643078</v>
       </c>
       <c r="E80">
-        <v>27.84233181394503</v>
+        <v>28.21269903850232</v>
       </c>
       <c r="F80">
-        <v>28.7395851416385</v>
+        <v>27.63667506541513</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>28.21733887758086</v>
+        <v>28.04899033182786</v>
       </c>
       <c r="C81">
-        <v>28.65159058664143</v>
+        <v>27.83916035554351</v>
       </c>
       <c r="D81">
-        <v>28.78609728032308</v>
+        <v>28.00210187971703</v>
       </c>
       <c r="E81">
-        <v>27.75100964222925</v>
+        <v>28.12029212104649</v>
       </c>
       <c r="F81">
-        <v>28.65684403581243</v>
+        <v>27.54570986465434</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>28.12589311411887</v>
+        <v>27.95410798169519</v>
       </c>
       <c r="C82">
-        <v>28.56776427358441</v>
+        <v>27.74377438297433</v>
       </c>
       <c r="D82">
-        <v>28.70279263815996</v>
+        <v>27.91117811439833</v>
       </c>
       <c r="E82">
-        <v>27.65968825026188</v>
+        <v>28.02789230428428</v>
       </c>
       <c r="F82">
-        <v>28.57351542385893</v>
+        <v>27.45476977514321</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>28.03428105333854</v>
+        <v>27.85928334976802</v>
       </c>
       <c r="C83">
-        <v>28.48336616429869</v>
+        <v>27.64844848949896</v>
       </c>
       <c r="D83">
-        <v>28.61865379590889</v>
+        <v>27.82022427944272</v>
       </c>
       <c r="E83">
-        <v>27.56836764598865</v>
+        <v>27.93550088120258</v>
       </c>
       <c r="F83">
-        <v>28.4896078262506</v>
+        <v>27.36385494723874</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>27.94251031401345</v>
+        <v>27.76451897337938</v>
       </c>
       <c r="C84">
-        <v>28.3984022867667</v>
+        <v>27.55318335223517</v>
       </c>
       <c r="D84">
-        <v>28.53369008842978</v>
+        <v>27.72924215634411</v>
       </c>
       <c r="E84">
-        <v>27.47704783757129</v>
+        <v>27.84311915154096</v>
       </c>
       <c r="F84">
-        <v>28.40512979572657</v>
+        <v>27.27296553113002</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>27.85058821176308</v>
+        <v>27.66981722928218</v>
       </c>
       <c r="C85">
-        <v>28.3128788211066</v>
+        <v>27.45797961134247</v>
       </c>
       <c r="D85">
-        <v>28.4479114670515</v>
+        <v>27.63823350931156</v>
       </c>
       <c r="E85">
-        <v>27.38572883277384</v>
+        <v>27.75074841403108</v>
       </c>
       <c r="F85">
-        <v>28.32008984009347</v>
+        <v>27.18210167736743</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>27.75852177533081</v>
+        <v>27.57517920390515</v>
       </c>
       <c r="C86">
-        <v>28.22680212752836</v>
+        <v>27.3628378745783</v>
       </c>
       <c r="D86">
-        <v>28.36132841035303</v>
+        <v>27.54716408947181</v>
       </c>
       <c r="E86">
-        <v>27.2944106344559</v>
+        <v>27.65833231244775</v>
       </c>
       <c r="F86">
-        <v>28.23449648342473</v>
+        <v>27.09126353755318</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>27.66631775536232</v>
+        <v>27.48060602571058</v>
       </c>
       <c r="C87">
-        <v>28.14017865106911</v>
+        <v>27.2677587089806</v>
       </c>
       <c r="D87">
-        <v>28.27395211880904</v>
+        <v>27.45600158291158</v>
       </c>
       <c r="E87">
-        <v>27.20309325069473</v>
+        <v>27.56581727421717</v>
       </c>
       <c r="F87">
-        <v>28.14835823418137</v>
+        <v>27.00045126402737</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>27.57398264289059</v>
+        <v>27.38609995461891</v>
       </c>
       <c r="C88">
-        <v>28.05301497044473</v>
+        <v>27.17274264290759</v>
       </c>
       <c r="D88">
-        <v>28.18579432732882</v>
+        <v>27.36475053399365</v>
       </c>
       <c r="E88">
-        <v>27.11177668803415</v>
+        <v>27.47320856173587</v>
       </c>
       <c r="F88">
-        <v>28.06168355394615</v>
+        <v>26.90966500997973</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>27.48152267577293</v>
+        <v>27.29166308792482</v>
       </c>
       <c r="C89">
-        <v>27.96531778380692</v>
+        <v>27.07779019561368</v>
       </c>
       <c r="D89">
-        <v>28.09686720447619</v>
+        <v>27.27341543360805</v>
       </c>
       <c r="E89">
-        <v>27.02046095334166</v>
+        <v>27.38051144638116</v>
       </c>
       <c r="F89">
-        <v>27.97448090453081</v>
+        <v>26.81890492941305</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>27.3889438547185</v>
+        <v>27.19729743676199</v>
       </c>
       <c r="C90">
-        <v>27.87709391991357</v>
+        <v>26.98290184962903</v>
       </c>
       <c r="D90">
-        <v>28.00718350576052</v>
+        <v>27.18200052013374</v>
       </c>
       <c r="E90">
-        <v>26.9291460537384</v>
+        <v>27.28773094549034</v>
       </c>
       <c r="F90">
-        <v>27.8867586895077</v>
+        <v>26.72817117713016</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>27.29625195137944</v>
+        <v>27.10300489486257</v>
       </c>
       <c r="C91">
-        <v>27.78835026628726</v>
+        <v>26.8880781102568</v>
       </c>
       <c r="D91">
-        <v>27.91675644173242</v>
+        <v>27.09050988584807</v>
       </c>
       <c r="E91">
-        <v>26.83783198360176</v>
+        <v>27.19487187663596</v>
       </c>
       <c r="F91">
-        <v>27.79852527298228</v>
+        <v>26.6374639088015</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>27.20345251926852</v>
+        <v>27.0087871513616</v>
       </c>
       <c r="C92">
-        <v>27.69909380958322</v>
+        <v>26.79331945369874</v>
       </c>
       <c r="D92">
-        <v>27.82559961205987</v>
+        <v>26.99894745822018</v>
       </c>
       <c r="E92">
-        <v>26.74651875382497</v>
+        <v>27.10193887691585</v>
       </c>
       <c r="F92">
-        <v>27.70978898994165</v>
+        <v>26.54678328106776</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>27.11055090536627</v>
+        <v>26.91464578291505</v>
       </c>
       <c r="C93">
-        <v>27.60933163709552</v>
+        <v>26.698626331962</v>
       </c>
       <c r="D93">
-        <v>27.73372700906456</v>
+        <v>26.90731698236089</v>
       </c>
       <c r="E93">
-        <v>26.65520636980067</v>
+        <v>27.00893639611682</v>
       </c>
       <c r="F93">
-        <v>27.62055810369306</v>
+        <v>26.45612945178166</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>27.01755225601939</v>
+        <v>26.82058228610554</v>
       </c>
       <c r="C94">
-        <v>27.51907091100856</v>
+        <v>26.60399917186271</v>
       </c>
       <c r="D94">
-        <v>27.64115302516413</v>
+        <v>26.81562205357205</v>
       </c>
       <c r="E94">
-        <v>26.56389483732548</v>
+        <v>26.9158687102466</v>
       </c>
       <c r="F94">
-        <v>27.53084083220909</v>
+        <v>26.36550257982512</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>26.92446152993092</v>
+        <v>26.72659806590305</v>
       </c>
       <c r="C95">
-        <v>27.42831883753057</v>
+        <v>26.50943839628273</v>
       </c>
       <c r="D95">
-        <v>27.5478923597485</v>
+        <v>26.72386613143969</v>
       </c>
       <c r="E95">
-        <v>26.47258416256925</v>
+        <v>26.82273995153073</v>
       </c>
       <c r="F95">
-        <v>27.44064534110733</v>
+        <v>26.27490282514947</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>26.8312835026628</v>
+        <v>26.63269444094924</v>
       </c>
       <c r="C96">
-        <v>27.33708268845547</v>
+        <v>26.41494440241055</v>
       </c>
       <c r="D96">
-        <v>27.45395997984052</v>
+        <v>26.63205252496012</v>
       </c>
       <c r="E96">
-        <v>26.38127433757228</v>
+        <v>26.72955406388557</v>
       </c>
       <c r="F96">
-        <v>27.3499797186552</v>
+        <v>26.18433034882555</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>26.73802277622144</v>
+        <v>26.53887264357306</v>
       </c>
       <c r="C97">
-        <v>27.24536982528918</v>
+        <v>26.32051759862438</v>
       </c>
       <c r="D97">
-        <v>27.35937114672875</v>
+        <v>26.54018443278546</v>
       </c>
       <c r="E97">
-        <v>26.28996537257447</v>
+        <v>26.6363148994962</v>
       </c>
       <c r="F97">
-        <v>27.25885200327825</v>
+        <v>26.09378531315192</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>26.64468378672217</v>
+        <v>26.44513382893582</v>
       </c>
       <c r="C98">
-        <v>27.15318762106631</v>
+        <v>26.22615836108105</v>
       </c>
       <c r="D98">
-        <v>27.26414133710741</v>
+        <v>26.44826491476136</v>
       </c>
       <c r="E98">
-        <v>26.19865727138628</v>
+        <v>26.54302610913907</v>
       </c>
       <c r="F98">
-        <v>27.16727015894816</v>
+        <v>26.00326788149336</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>26.55127081732658</v>
+        <v>26.35147908272604</v>
       </c>
       <c r="C99">
-        <v>27.06054349080372</v>
+        <v>26.13186706754396</v>
       </c>
       <c r="D99">
-        <v>27.16828621956585</v>
+        <v>26.35629693036739</v>
       </c>
       <c r="E99">
-        <v>26.10735003790767</v>
+        <v>26.44969127906793</v>
       </c>
       <c r="F99">
-        <v>27.07524207359</v>
+        <v>25.91277821844895</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>26.45778798600973</v>
+        <v>26.25790942457278</v>
       </c>
       <c r="C100">
-        <v>26.96744488859256</v>
+        <v>26.03764408600417</v>
       </c>
       <c r="D100">
-        <v>27.07182162351663</v>
+        <v>26.26428332456954</v>
       </c>
       <c r="E100">
-        <v>26.01604367615741</v>
+        <v>26.35631381572617</v>
       </c>
       <c r="F100">
-        <v>26.98277557859389</v>
+        <v>25.82231649005843</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>26.36423928308588</v>
+        <v>26.16442581611725</v>
       </c>
       <c r="C101">
-        <v>26.87389932944169</v>
+        <v>25.9434897686222</v>
       </c>
       <c r="D101">
-        <v>26.97476351350366</v>
+        <v>26.17222683713817</v>
       </c>
       <c r="E101">
-        <v>25.92473818265423</v>
+        <v>26.26289705412173</v>
       </c>
       <c r="F101">
-        <v>26.8898784151022</v>
+        <v>25.73188286325815</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>26.27062855493158</v>
+        <v>26.07102916518661</v>
       </c>
       <c r="C102">
-        <v>26.77991430652401</v>
+        <v>25.84940447369527</v>
       </c>
       <c r="D102">
-        <v>26.8771279592044</v>
+        <v>26.08013011596027</v>
       </c>
       <c r="E102">
-        <v>25.83343356317732</v>
+        <v>26.16944418037312</v>
       </c>
       <c r="F102">
-        <v>26.79655825281607</v>
+        <v>25.64147750679092</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>26.17695950367504</v>
+        <v>25.97772032146035</v>
       </c>
       <c r="C103">
-        <v>26.685497340917</v>
+        <v>25.75538854317543</v>
       </c>
       <c r="D103">
-        <v>26.77893109069203</v>
+        <v>25.98799570016697</v>
       </c>
       <c r="E103">
-        <v>25.74212982000635</v>
+        <v>26.07595829886466</v>
       </c>
       <c r="F103">
-        <v>26.70282269031047</v>
+        <v>25.55110059033279</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>26.08323572457792</v>
+        <v>25.88450009221692</v>
       </c>
       <c r="C104">
-        <v>26.59065597860711</v>
+        <v>25.66144231726218</v>
       </c>
       <c r="D104">
-        <v>26.68018910232075</v>
+        <v>25.89582605483221</v>
       </c>
       <c r="E104">
-        <v>25.65082695527397</v>
+        <v>25.98244238812081</v>
       </c>
       <c r="F104">
-        <v>26.60867923603185</v>
+        <v>25.46075228505979</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>25.98946067476973</v>
+        <v>25.79136923962209</v>
       </c>
       <c r="C105">
-        <v>26.49539778159608</v>
+        <v>25.56756613386377</v>
       </c>
       <c r="D105">
-        <v>26.58091818418451</v>
+        <v>25.8036235376889</v>
       </c>
       <c r="E105">
-        <v>25.55952497097688</v>
+        <v>25.88889934370735</v>
       </c>
       <c r="F105">
-        <v>26.51413532438574</v>
+        <v>25.37043276373463</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>25.89563769927403</v>
+        <v>25.69832848643605</v>
       </c>
       <c r="C106">
-        <v>26.39973028394327</v>
+        <v>25.47376032077602</v>
       </c>
       <c r="D106">
-        <v>26.48113452933671</v>
+        <v>25.71139044403245</v>
       </c>
       <c r="E106">
-        <v>25.46822386848247</v>
+        <v>25.79533195031622</v>
       </c>
       <c r="F106">
-        <v>26.41919830796589</v>
+        <v>25.28014220017043</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>25.80177003764697</v>
+        <v>25.60537851703738</v>
       </c>
       <c r="C107">
-        <v>26.30366102311934</v>
+        <v>25.38002520867483</v>
       </c>
       <c r="D107">
-        <v>26.38085429367458</v>
+        <v>25.61912897270301</v>
       </c>
       <c r="E107">
-        <v>25.37692364962856</v>
+        <v>25.70174291415741</v>
       </c>
       <c r="F107">
-        <v>26.32387545084041</v>
+        <v>25.18988077061473</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>25.70786080914081</v>
+        <v>25.51251997901486</v>
       </c>
       <c r="C108">
-        <v>26.20719755608048</v>
+        <v>25.28636112081619</v>
       </c>
       <c r="D108">
-        <v>26.28009356313377</v>
+        <v>25.52684127956974</v>
       </c>
       <c r="E108">
-        <v>25.28562431590849</v>
+        <v>25.60813485125415</v>
       </c>
       <c r="F108">
-        <v>26.22817394218885</v>
+        <v>25.0996486516572</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>25.61391304185003</v>
+        <v>25.41975348673712</v>
       </c>
       <c r="C109">
-        <v>26.11034740651604</v>
+        <v>25.19276837772322</v>
       </c>
       <c r="D109">
-        <v>26.17886836371954</v>
+        <v>25.43452941088402</v>
       </c>
       <c r="E109">
-        <v>25.19432586868888</v>
+        <v>25.51451031028522</v>
       </c>
       <c r="F109">
-        <v>26.13210087986488</v>
+        <v>25.00944602150865</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>25.51992966094723</v>
+        <v>25.32707962303585</v>
       </c>
       <c r="C110">
-        <v>26.01311807360601</v>
+        <v>25.09924730063123</v>
       </c>
       <c r="D110">
-        <v>26.07719458840378</v>
+        <v>25.34219533347727</v>
       </c>
       <c r="E110">
-        <v>25.10302830922022</v>
+        <v>25.42087172194364</v>
       </c>
       <c r="F110">
-        <v>26.03566327768058</v>
+        <v>24.91927305971786</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>25.42591349435912</v>
+        <v>25.23449894259398</v>
       </c>
       <c r="C111">
-        <v>25.91551703907727</v>
+        <v>25.00579820482082</v>
       </c>
       <c r="D111">
-        <v>25.97508803056806</v>
+        <v>25.24984102109582</v>
       </c>
       <c r="E111">
-        <v>25.01173163973719</v>
+        <v>25.32722142578484</v>
       </c>
       <c r="F111">
-        <v>25.93886806999506</v>
+        <v>24.8291299493884</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>25.33186728587386</v>
+        <v>25.14201197230831</v>
       </c>
       <c r="C112">
-        <v>25.8175517941853</v>
+        <v>24.91242140689887</v>
       </c>
       <c r="D112">
-        <v>25.87256432641974</v>
+        <v>25.1574683236093</v>
       </c>
       <c r="E112">
-        <v>24.92043586112988</v>
+        <v>25.23356181451948</v>
       </c>
       <c r="F112">
-        <v>25.84172209860566</v>
+        <v>24.73901687433427</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>25.23779368603393</v>
+        <v>25.04961921449375</v>
       </c>
       <c r="C113">
-        <v>25.71922975834017</v>
+        <v>24.81911722071879</v>
       </c>
       <c r="D113">
-        <v>25.76963894572635</v>
+        <v>25.06507900081252</v>
       </c>
       <c r="E113">
-        <v>24.82914097469772</v>
+        <v>25.13989506046137</v>
       </c>
       <c r="F113">
-        <v>25.74423212286274</v>
+        <v>24.64893401799606</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>25.14369526612904</v>
+        <v>24.95732114799398</v>
       </c>
       <c r="C114">
-        <v>25.62055832923037</v>
+        <v>24.72588595834956</v>
       </c>
       <c r="D114">
-        <v>25.66632720299976</v>
+        <v>24.97267478837704</v>
       </c>
       <c r="E114">
-        <v>24.73784698174326</v>
+        <v>25.04622328303939</v>
       </c>
       <c r="F114">
-        <v>25.64640481824021</v>
+        <v>24.55888156594737</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>25.04957451889187</v>
+        <v>24.86511822952695</v>
       </c>
       <c r="C115">
-        <v>25.52154487658726</v>
+        <v>24.63272793297247</v>
       </c>
       <c r="D115">
-        <v>25.56264418559858</v>
+        <v>24.88025743802744</v>
       </c>
       <c r="E115">
-        <v>24.6465538835729</v>
+        <v>24.95254856817883</v>
       </c>
       <c r="F115">
-        <v>25.5482467698908</v>
+        <v>24.46885970493815</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>24.95543385328963</v>
+        <v>24.77301089507816</v>
       </c>
       <c r="C116">
-        <v>25.42219674689164</v>
+        <v>24.53964345532189</v>
       </c>
       <c r="D116">
-        <v>25.45860481014265</v>
+        <v>24.78782853080758</v>
       </c>
       <c r="E116">
-        <v>24.5552616809575</v>
+        <v>24.85887303069158</v>
       </c>
       <c r="F116">
-        <v>25.44976448148751</v>
+        <v>24.37886862398991</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>24.86127561268804</v>
+        <v>24.68099956079632</v>
       </c>
       <c r="C117">
-        <v>25.32252121388714</v>
+        <v>24.4466328363852</v>
       </c>
       <c r="D117">
-        <v>25.35422374416303</v>
+        <v>24.69538962949682</v>
       </c>
       <c r="E117">
-        <v>24.46397037532205</v>
+        <v>24.76519857006583</v>
       </c>
       <c r="F117">
-        <v>25.35096436926028</v>
+        <v>24.2889085176414</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>24.76710206549168</v>
+        <v>24.589084624645</v>
       </c>
       <c r="C118">
-        <v>25.22252551356234</v>
+        <v>24.35369638714067</v>
       </c>
       <c r="D118">
-        <v>25.24951543217551</v>
+        <v>24.60294231222478</v>
       </c>
       <c r="E118">
-        <v>24.37267996789661</v>
+        <v>24.67152707233608</v>
       </c>
       <c r="F118">
-        <v>25.25185276270961</v>
+        <v>24.1989795764625</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>24.67291541023765</v>
+        <v>24.49726646705901</v>
       </c>
       <c r="C119">
-        <v>25.12221685278003</v>
+        <v>24.26083441912633</v>
       </c>
       <c r="D119">
-        <v>25.14449409068006</v>
+        <v>24.5104880562874</v>
       </c>
       <c r="E119">
-        <v>24.28139045992406</v>
+        <v>24.57786042951065</v>
       </c>
       <c r="F119">
-        <v>25.15243591018329</v>
+        <v>24.10908199484021</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>24.57871778511052</v>
+        <v>24.40554545226861</v>
       </c>
       <c r="C120">
-        <v>25.02160237973775</v>
+        <v>24.16804724326317</v>
       </c>
       <c r="D120">
-        <v>25.03917365670737</v>
+        <v>24.41802830842934</v>
       </c>
       <c r="E120">
-        <v>24.19010185268274</v>
+        <v>24.48420045121363</v>
       </c>
       <c r="F120">
-        <v>25.0527199713467</v>
+        <v>24.01921596919896</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>24.48451125935817</v>
+        <v>24.31392192929154</v>
       </c>
       <c r="C121">
-        <v>24.92068917627372</v>
+        <v>24.07533517094127</v>
       </c>
       <c r="D121">
-        <v>24.93356784534252</v>
+        <v>24.32556447416582</v>
       </c>
       <c r="E121">
-        <v>24.09881414610049</v>
+        <v>24.39054887940653</v>
       </c>
       <c r="F121">
-        <v>24.95271102277751</v>
+        <v>23.92938169850365</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>24.3902978459179</v>
+        <v>24.22239623264531</v>
       </c>
       <c r="C122">
-        <v>24.81948427146945</v>
+        <v>23.98269851514048</v>
       </c>
       <c r="D122">
-        <v>24.82769007146458</v>
+        <v>24.2330979162682</v>
       </c>
       <c r="E122">
-        <v>24.00752734170567</v>
+        <v>24.29690742308402</v>
       </c>
       <c r="F122">
-        <v>24.85241505891058</v>
+        <v>23.83957938272956</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>24.29607949914567</v>
+        <v>24.13096868345809</v>
       </c>
       <c r="C123">
-        <v>24.71799466783133</v>
+        <v>23.89013758791601</v>
       </c>
       <c r="D123">
-        <v>24.72155349622</v>
+        <v>24.14062997335665</v>
       </c>
       <c r="E123">
-        <v>23.91624144051642</v>
+        <v>24.20327773201673</v>
       </c>
       <c r="F123">
-        <v>24.75183798794384</v>
+        <v>23.74980922422077</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>24.20185811421328</v>
+        <v>24.03963958997191</v>
       </c>
       <c r="C124">
-        <v>24.61622727170645</v>
+        <v>23.79765270224294</v>
       </c>
       <c r="D124">
-        <v>24.61517100844693</v>
+        <v>24.04816194683496</v>
       </c>
       <c r="E124">
-        <v>23.82495644349617</v>
+        <v>24.10966143304894</v>
       </c>
       <c r="F124">
-        <v>24.65098563704881</v>
+        <v>23.66007142683671</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>24.10763553671327</v>
+        <v>23.94840924839809</v>
       </c>
       <c r="C125">
-        <v>24.51418893597122</v>
+        <v>23.70524417482221</v>
       </c>
       <c r="D125">
-        <v>24.50855519809555</v>
+        <v>23.95569506364431</v>
       </c>
       <c r="E125">
-        <v>23.73367235159717</v>
+        <v>24.01606010856371</v>
       </c>
       <c r="F125">
-        <v>24.54986375106196</v>
+        <v>23.57036619549892</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>24.01341355789315</v>
+        <v>23.85727794373405</v>
       </c>
       <c r="C126">
-        <v>24.41188645338331</v>
+        <v>23.61291231781459</v>
       </c>
       <c r="D126">
-        <v>24.40171840112614</v>
+        <v>23.86323055928331</v>
       </c>
       <c r="E126">
-        <v>23.64238916511265</v>
+        <v>23.92247528076035</v>
       </c>
       <c r="F126">
-        <v>24.44847799164484</v>
+        <v>23.48069373858525</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>23.91919391905426</v>
+        <v>23.76624595026341</v>
       </c>
       <c r="C127">
-        <v>24.30932656895611</v>
+        <v>23.52065745158308</v>
       </c>
       <c r="D127">
-        <v>24.2946726396626</v>
+        <v>23.77076962382671</v>
       </c>
       <c r="E127">
-        <v>23.55110688503785</v>
+        <v>23.82890842241572</v>
       </c>
       <c r="F127">
-        <v>24.34683394170583</v>
+        <v>23.39105426590268</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>23.82497831615726</v>
+        <v>23.67531353238631</v>
       </c>
       <c r="C128">
-        <v>24.20651593292548</v>
+        <v>23.42847989198129</v>
       </c>
       <c r="D128">
-        <v>24.18742966951163</v>
+        <v>23.6783134080985</v>
       </c>
       <c r="E128">
-        <v>23.45982551211136</v>
+        <v>23.73536099774348</v>
       </c>
       <c r="F128">
-        <v>24.24493710195721</v>
+        <v>23.30144798889038</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>23.73076839463352</v>
+        <v>23.58448094519302</v>
       </c>
       <c r="C129">
-        <v>24.10346113368056</v>
+        <v>23.33637995738204</v>
       </c>
       <c r="D129">
-        <v>24.08000095538759</v>
+        <v>23.58586303006514</v>
       </c>
       <c r="E129">
-        <v>23.36854504700476</v>
+        <v>23.64183442258803</v>
       </c>
       <c r="F129">
-        <v>24.14279289372337</v>
+        <v>23.21187512053513</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>23.63656575946364</v>
+        <v>23.49374843503787</v>
       </c>
       <c r="C130">
-        <v>24.00016870084418</v>
+        <v>23.24435797272354</v>
       </c>
       <c r="D130">
-        <v>23.97239766795143</v>
+        <v>23.49341958560468</v>
       </c>
       <c r="E130">
-        <v>23.27726549034633</v>
+        <v>23.54833005666638</v>
       </c>
       <c r="F130">
-        <v>24.04040666066977</v>
+        <v>23.12233587653703</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>23.54237197161591</v>
+        <v>23.40311624022983</v>
       </c>
       <c r="C131">
-        <v>23.89664509317047</v>
+        <v>23.15241425462868</v>
       </c>
       <c r="D131">
-        <v>23.86463071134008</v>
+        <v>23.4009841387179</v>
       </c>
       <c r="E131">
-        <v>23.18598684293124</v>
+        <v>23.45484924186854</v>
       </c>
       <c r="F131">
-        <v>23.93778366672406</v>
+        <v>23.03283047424824</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>23.44818854879724</v>
+        <v>23.31258459144296</v>
       </c>
       <c r="C132">
-        <v>23.79289668209305</v>
+        <v>23.06054913362483</v>
       </c>
       <c r="D132">
-        <v>23.75671068492041</v>
+        <v>23.30855772906852</v>
       </c>
       <c r="E132">
-        <v>23.09470910528601</v>
+        <v>23.36139328183985</v>
       </c>
       <c r="F132">
-        <v>23.83492909962963</v>
+        <v>22.94335913323457</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>23.3540169720526</v>
+        <v>23.22215371235051</v>
       </c>
       <c r="C133">
-        <v>23.68892976892809</v>
+        <v>22.96876293143774</v>
       </c>
       <c r="D133">
-        <v>23.64864792550697</v>
+        <v>23.21614136720437</v>
       </c>
       <c r="E133">
-        <v>23.00343227797037</v>
+        <v>23.26796344702222</v>
       </c>
       <c r="F133">
-        <v>23.73184807097029</v>
+        <v>22.85392207524097</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>23.25985868191918</v>
+        <v>23.1318238201082</v>
       </c>
       <c r="C134">
-        <v>23.58475060018746</v>
+        <v>22.87705597515585</v>
       </c>
       <c r="D134">
-        <v>23.54045248072382</v>
+        <v>23.12373604018318</v>
       </c>
       <c r="E134">
-        <v>22.91215636152341</v>
+        <v>23.17456097908669</v>
       </c>
       <c r="F134">
-        <v>23.62854561467259</v>
+        <v>22.76451952367981</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>23.16571508247172</v>
+        <v>23.04159512580134</v>
       </c>
       <c r="C135">
-        <v>23.48036532769171</v>
+        <v>22.7854285991948</v>
       </c>
       <c r="D135">
-        <v>23.43213412332647</v>
+        <v>23.03134271172591</v>
       </c>
       <c r="E135">
-        <v>22.82088135645482</v>
+        <v>23.08118708570326</v>
       </c>
       <c r="F135">
-        <v>23.52502668956943</v>
+        <v>22.67515170419319</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>23.07158754350166</v>
+        <v>22.95146783499716</v>
       </c>
       <c r="C136">
-        <v>23.37578002754872</v>
+        <v>22.69388112755347</v>
       </c>
       <c r="D136">
-        <v>23.32370236358178</v>
+        <v>22.9389623236227</v>
       </c>
       <c r="E136">
-        <v>22.72960726352362</v>
+        <v>22.98784294717766</v>
       </c>
       <c r="F136">
-        <v>23.42129618208281</v>
+        <v>22.58581884492991</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>22.97747739793851</v>
+        <v>22.8614421481202</v>
       </c>
       <c r="C137">
-        <v>23.27100070134359</v>
+        <v>22.60241390291961</v>
       </c>
       <c r="D137">
-        <v>23.21516643021767</v>
+        <v>22.84659579705662</v>
       </c>
       <c r="E137">
-        <v>22.63833408317027</v>
+        <v>22.89452971678914</v>
       </c>
       <c r="F137">
-        <v>23.31735890690702</v>
+        <v>22.49652117633712</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>22.88338594815561</v>
+        <v>22.77151826089986</v>
       </c>
       <c r="C138">
-        <v>23.16603328951966</v>
+        <v>22.51102725441523</v>
       </c>
       <c r="D138">
-        <v>23.10653530357213</v>
+        <v>22.75424402956655</v>
       </c>
       <c r="E138">
-        <v>22.54706181590434</v>
+        <v>22.80124852180777</v>
       </c>
       <c r="F138">
-        <v>23.2132196011128</v>
+        <v>22.40725893061846</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>22.78931446372573</v>
+        <v>22.68169636482454</v>
       </c>
       <c r="C139">
-        <v>23.06088363213494</v>
+        <v>22.41972152030434</v>
       </c>
       <c r="D139">
-        <v>22.99781769265865</v>
+        <v>22.66190788518739</v>
       </c>
       <c r="E139">
-        <v>22.45579046224412</v>
+        <v>22.70800046485829</v>
       </c>
       <c r="F139">
-        <v>23.10888293119436</v>
+        <v>22.31803234244501</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>22.69526418248797</v>
+        <v>22.59197664743346</v>
       </c>
       <c r="C140">
-        <v>22.95555749629271</v>
+        <v>22.32849704555041</v>
       </c>
       <c r="D140">
-        <v>22.88902205745978</v>
+        <v>22.56958823104832</v>
       </c>
       <c r="E140">
-        <v>22.36452002270402</v>
+        <v>22.6147866233379</v>
       </c>
       <c r="F140">
-        <v>23.00435349486744</v>
+        <v>22.2288416488602</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>22.60123631451072</v>
+        <v>22.50235929277575</v>
       </c>
       <c r="C141">
-        <v>22.85006057608606</v>
+        <v>22.23735416366334</v>
       </c>
       <c r="D141">
-        <v>22.78015661157422</v>
+        <v>22.47728591097387</v>
       </c>
       <c r="E141">
-        <v>22.27325049772583</v>
+        <v>22.52160802560646</v>
       </c>
       <c r="F141">
-        <v>22.8996358237911</v>
+        <v>22.13968708924445</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>22.50723203953619</v>
+        <v>22.41284448170001</v>
       </c>
       <c r="C142">
-        <v>22.74439849101523</v>
+        <v>22.14629323117152</v>
       </c>
       <c r="D142">
-        <v>22.67122931815051</v>
+        <v>22.385001754121</v>
       </c>
       <c r="E142">
-        <v>22.18198188782538</v>
+        <v>22.42846571197295</v>
       </c>
       <c r="F142">
-        <v>22.79473437283915</v>
+        <v>22.0505689052859</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>22.41325251048372</v>
+        <v>22.32343239217905</v>
       </c>
       <c r="C143">
-        <v>22.6385767677485</v>
+        <v>22.05531458577369</v>
       </c>
       <c r="D143">
-        <v>22.56224790970856</v>
+        <v>22.2927365764241</v>
       </c>
       <c r="E143">
-        <v>22.09071419349911</v>
+        <v>22.33536069198025</v>
       </c>
       <c r="F143">
-        <v>22.68965353115466</v>
+        <v>21.96148734110944</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>22.3192988541665</v>
+        <v>22.23412319968373</v>
       </c>
       <c r="C144">
-        <v>22.53260085666286</v>
+        <v>21.96441857533318</v>
       </c>
       <c r="D144">
-        <v>22.45321987894681</v>
+        <v>22.20049112322734</v>
       </c>
       <c r="E144">
-        <v>21.99944741523975</v>
+        <v>22.24229395716062</v>
       </c>
       <c r="F144">
-        <v>22.5843976215604</v>
+        <v>21.87244264294327</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>22.22537217002564</v>
+        <v>22.144917077389</v>
       </c>
       <c r="C145">
-        <v>22.42647613969072</v>
+        <v>21.87360555495343</v>
       </c>
       <c r="D145">
-        <v>22.34415249470778</v>
+        <v>22.10826617583442</v>
       </c>
       <c r="E145">
-        <v>21.9081815535429</v>
+        <v>22.1492664826239</v>
       </c>
       <c r="F145">
-        <v>22.47897090391422</v>
+        <v>21.78343505961926</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>22.13147353446631</v>
+        <v>22.05581419651546</v>
       </c>
       <c r="C146">
-        <v>22.3202079108517</v>
+        <v>21.78287588057035</v>
       </c>
       <c r="D146">
-        <v>22.23505280417194</v>
+        <v>22.01606250875297</v>
       </c>
       <c r="E146">
-        <v>21.81691660868698</v>
+        <v>22.0562792278226</v>
       </c>
       <c r="F146">
-        <v>22.3733775671637</v>
+        <v>21.69446484265038</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>22.03760399914968</v>
+        <v>21.96681472657024</v>
       </c>
       <c r="C147">
-        <v>22.21380138123406</v>
+        <v>21.69222990830346</v>
       </c>
       <c r="D147">
-        <v>22.12592763638396</v>
+        <v>21.92388087359751</v>
       </c>
       <c r="E147">
-        <v>21.72565258118056</v>
+        <v>21.96333301176858</v>
       </c>
       <c r="F147">
-        <v>22.2676217375365</v>
+        <v>21.6055322459684</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>21.94376459215287</v>
+        <v>21.87791883556471</v>
       </c>
       <c r="C148">
-        <v>22.10726168383846</v>
+        <v>21.60166799907935</v>
       </c>
       <c r="D148">
-        <v>22.01678361306763</v>
+        <v>21.83172201196795</v>
       </c>
       <c r="E148">
-        <v>21.63438947147521</v>
+        <v>21.87042880701048</v>
       </c>
       <c r="F148">
-        <v>22.16170747762606</v>
+        <v>21.51663752607055</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>21.84995632042397</v>
+        <v>21.78912669030552</v>
       </c>
       <c r="C149">
-        <v>22.00059388516952</v>
+        <v>21.51119051774776</v>
       </c>
       <c r="D149">
-        <v>21.90762714887133</v>
+        <v>21.73958663210766</v>
       </c>
       <c r="E149">
-        <v>21.54312728000109</v>
+        <v>21.77756750925357</v>
       </c>
       <c r="F149">
-        <v>22.05563878790445</v>
+        <v>21.42778094205513</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>21.75618016690345</v>
+        <v>21.70043845654779</v>
       </c>
       <c r="C150">
-        <v>21.8938029564185</v>
+        <v>21.42079782853801</v>
       </c>
       <c r="D150">
-        <v>21.79846446114764</v>
+        <v>21.64747537986593</v>
       </c>
       <c r="E150">
-        <v>21.4518660071837</v>
+        <v>21.6847500012713</v>
       </c>
       <c r="F150">
-        <v>21.94941960585573</v>
+        <v>21.33896275556684</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>21.66243709577435</v>
+        <v>21.61185429916649</v>
       </c>
       <c r="C151">
-        <v>21.78689379382955</v>
+        <v>21.33049029518119</v>
       </c>
       <c r="D151">
-        <v>21.68930157393062</v>
+        <v>21.55538898827448</v>
       </c>
       <c r="E151">
-        <v>21.36060565334697</v>
+        <v>21.59197715428364</v>
       </c>
       <c r="F151">
-        <v>21.84305380823497</v>
+        <v>21.25018322998658</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>21.56872805167761</v>
+        <v>21.52337438249757</v>
       </c>
       <c r="C152">
-        <v>21.67987121749348</v>
+        <v>21.24026829589252</v>
       </c>
       <c r="D152">
-        <v>21.58014432370925</v>
+        <v>21.46332814037389</v>
       </c>
       <c r="E152">
-        <v>21.26934621890752</v>
+        <v>21.49924982933548</v>
       </c>
       <c r="F152">
-        <v>21.73654521143628</v>
+        <v>21.1614426327752</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>21.47505396058713</v>
+        <v>21.43499887044608</v>
       </c>
       <c r="C153">
-        <v>21.57273997459595</v>
+        <v>21.15013219765486</v>
       </c>
       <c r="D153">
-        <v>21.47099836549339</v>
+        <v>21.37129350986953</v>
       </c>
       <c r="E153">
-        <v>21.17808770425284</v>
+        <v>21.40656877425322</v>
       </c>
       <c r="F153">
-        <v>21.62989757127162</v>
+        <v>21.0727412335623</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>21.38141572297159</v>
+        <v>21.34672792640603</v>
       </c>
       <c r="C154">
-        <v>21.46550472403828</v>
+        <v>21.0600823754891</v>
       </c>
       <c r="D154">
-        <v>21.36186917844947</v>
+        <v>21.2792857619594</v>
       </c>
       <c r="E154">
-        <v>21.08683010975314</v>
+        <v>21.31393482948905</v>
       </c>
       <c r="F154">
-        <v>21.52311458642003</v>
+        <v>20.98407930472466</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>21.28781422848367</v>
+        <v>21.25856171410918</v>
       </c>
       <c r="C155">
-        <v>21.35817004976298</v>
+        <v>20.97011921359723</v>
       </c>
       <c r="D155">
-        <v>21.25276207034432</v>
+        <v>21.18730549772377</v>
       </c>
       <c r="E155">
-        <v>20.99557343576942</v>
+        <v>21.22134879463388</v>
       </c>
       <c r="F155">
-        <v>21.41619989733128</v>
+        <v>20.89545712142051</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>21.19425034939242</v>
+        <v>21.17050039689399</v>
       </c>
       <c r="C156">
-        <v>21.25074046425274</v>
+        <v>20.88024309034024</v>
       </c>
       <c r="D156">
-        <v>21.14368218473629</v>
+        <v>21.09535336237612</v>
       </c>
       <c r="E156">
-        <v>20.90431768269238</v>
+        <v>21.12881144767379</v>
       </c>
       <c r="F156">
-        <v>21.30915708750859</v>
+        <v>20.80687496162368</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>21.10072494168268</v>
+        <v>21.08254413843208</v>
       </c>
       <c r="C157">
-        <v>21.14322040114756</v>
+        <v>20.79045439183608</v>
       </c>
       <c r="D157">
-        <v>21.03463450502129</v>
+        <v>21.00342999008872</v>
       </c>
       <c r="E157">
-        <v>20.81306285086621</v>
+        <v>21.03632355046829</v>
       </c>
       <c r="F157">
-        <v>21.20198968279805</v>
+        <v>20.71833310602887</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>21.00723883480175</v>
+        <v>20.9946931029349</v>
       </c>
       <c r="C158">
-        <v>21.03561421397906</v>
+        <v>20.70075350794982</v>
       </c>
       <c r="D158">
-        <v>20.92562385936189</v>
+        <v>20.91153599718226</v>
       </c>
       <c r="E158">
-        <v>20.72180894063567</v>
+        <v>20.9438858489321</v>
       </c>
       <c r="F158">
-        <v>21.09470115558263</v>
+        <v>20.62983183824428</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>20.91379285291379</v>
+        <v>20.90694745447053</v>
       </c>
       <c r="C159">
-        <v>20.92792618176149</v>
+        <v>20.61114082953848</v>
       </c>
       <c r="D159">
-        <v>20.81665492812434</v>
+        <v>20.81967199166283</v>
       </c>
       <c r="E159">
-        <v>20.63055595234299</v>
+        <v>20.85149907723947</v>
       </c>
       <c r="F159">
-        <v>20.98729492316456</v>
+        <v>20.54137144492518</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>20.82038780447662</v>
+        <v>20.81930735818753</v>
       </c>
       <c r="C160">
-        <v>20.82016051704009</v>
+        <v>20.52161675181018</v>
       </c>
       <c r="D160">
-        <v>20.70773224483946</v>
+        <v>20.72783856666645</v>
       </c>
       <c r="E160">
-        <v>20.53930388632468</v>
+        <v>20.75916395430641</v>
       </c>
       <c r="F160">
-        <v>20.8797743492302</v>
+        <v>20.45295221559387</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>20.72702448320079</v>
+        <v>20.73177297962913</v>
       </c>
       <c r="C161">
-        <v>20.71232134844902</v>
+        <v>20.43218167294052</v>
       </c>
       <c r="D161">
-        <v>20.59886020610316</v>
+        <v>20.6360362962641</v>
       </c>
       <c r="E161">
-        <v>20.44805274295474</v>
+        <v>20.66688118522254</v>
       </c>
       <c r="F161">
-        <v>20.77214274340315</v>
+        <v>20.36457444275104</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>20.63370365976334</v>
+        <v>20.64434448501146</v>
       </c>
       <c r="C162">
-        <v>20.60441273324435</v>
+        <v>20.34283599428679</v>
       </c>
       <c r="D162">
-        <v>20.49004307251152</v>
+        <v>20.54426576993858</v>
       </c>
       <c r="E162">
-        <v>20.35680252256169</v>
+        <v>20.57465149174822</v>
       </c>
       <c r="F162">
-        <v>20.66440336463084</v>
+        <v>20.27623842190947</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>20.54042609973302</v>
+        <v>20.55702204160761</v>
       </c>
       <c r="C163">
-        <v>20.49643865664489</v>
+        <v>20.25358012069821</v>
       </c>
       <c r="D163">
-        <v>20.38128497443511</v>
+        <v>20.45252756005856</v>
       </c>
       <c r="E163">
-        <v>20.26555322547867</v>
+        <v>20.48247555466427</v>
       </c>
       <c r="F163">
-        <v>20.55655942019277</v>
+        <v>20.18794445162773</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>20.44719255486976</v>
+        <v>20.4698058174027</v>
       </c>
       <c r="C164">
-        <v>20.38840303602824</v>
+        <v>20.1644144598817</v>
       </c>
       <c r="D164">
-        <v>20.27258991866179</v>
+        <v>20.36082223199342</v>
       </c>
       <c r="E164">
-        <v>20.17430485204194</v>
+        <v>20.39035405096796</v>
       </c>
       <c r="F164">
-        <v>20.44861406697351</v>
+        <v>20.09969283479767</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>20.35400376375361</v>
+        <v>20.38269598159978</v>
       </c>
       <c r="C165">
-        <v>20.28030971058692</v>
+        <v>20.07533942282374</v>
       </c>
       <c r="D165">
-        <v>20.16396178825846</v>
+        <v>20.26915034454986</v>
       </c>
       <c r="E165">
-        <v>20.08305740258713</v>
+        <v>20.29828764998087</v>
       </c>
       <c r="F165">
-        <v>20.34057041046426</v>
+        <v>20.01148387573217</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>20.26086044759327</v>
+        <v>20.29569270445855</v>
       </c>
       <c r="C166">
-        <v>20.17216245048547</v>
+        <v>19.98635542369057</v>
       </c>
       <c r="D166">
-        <v>20.05540435292046</v>
+        <v>20.17751244364444</v>
       </c>
       <c r="E166">
-        <v>19.99181087743398</v>
+        <v>20.20627701265632</v>
       </c>
       <c r="F166">
-        <v>20.23243150894481</v>
+        <v>19.92331788256351</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>20.16776332045229</v>
+        <v>20.20879615735704</v>
       </c>
       <c r="C167">
-        <v>20.06396495826357</v>
+        <v>19.89746287982818</v>
       </c>
       <c r="D167">
-        <v>19.94692126566353</v>
+        <v>20.08590907615524</v>
       </c>
       <c r="E167">
-        <v>19.90056527691731</v>
+        <v>20.11432279228575</v>
       </c>
       <c r="F167">
-        <v>20.12420037222467</v>
+        <v>19.8351951666527</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>20.07471308463412</v>
+        <v>20.12200651310405</v>
       </c>
       <c r="C168">
-        <v>19.95572086745515</v>
+        <v>19.80866221176231</v>
       </c>
       <c r="D168">
-        <v>19.83851607334029</v>
+        <v>19.99434078242829</v>
       </c>
       <c r="E168">
-        <v>19.80932060137001</v>
+        <v>20.02242563313775</v>
       </c>
       <c r="F168">
-        <v>20.0158799627017</v>
+        <v>19.74711604261602</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>19.98171043111501</v>
+        <v>20.0353239456855</v>
       </c>
       <c r="C169">
-        <v>19.84743374004191</v>
+        <v>19.71995384939959</v>
       </c>
       <c r="D169">
-        <v>19.73019222228455</v>
+        <v>19.90280809675606</v>
       </c>
       <c r="E169">
-        <v>19.71807685112364</v>
+        <v>19.93058617299311</v>
       </c>
       <c r="F169">
-        <v>19.90747319387875</v>
+        <v>19.65908082836119</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>19.88875603731099</v>
+        <v>19.94874863059208</v>
       </c>
       <c r="C170">
-        <v>19.73910707123898</v>
+        <v>19.63133821975764</v>
       </c>
       <c r="D170">
-        <v>19.62195305985053</v>
+        <v>19.8113115486044</v>
       </c>
       <c r="E170">
-        <v>19.62683402651074</v>
+        <v>19.83880504319813</v>
       </c>
       <c r="F170">
-        <v>19.79898293515283</v>
+        <v>19.5710898459344</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>19.79585057308552</v>
+        <v>19.86228074481378</v>
       </c>
       <c r="C171">
-        <v>19.63074429307902</v>
+        <v>19.54281575252947</v>
       </c>
       <c r="D171">
-        <v>19.51380181753965</v>
+        <v>19.71985165891344</v>
       </c>
       <c r="E171">
-        <v>19.53559212782726</v>
+        <v>19.74708284641263</v>
       </c>
       <c r="F171">
-        <v>19.69041201068679</v>
+        <v>19.4831434210966</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>19.70299469833247</v>
+        <v>19.7759204667371</v>
       </c>
       <c r="C172">
-        <v>19.52234876827342</v>
+        <v>19.45438688220495</v>
       </c>
       <c r="D172">
-        <v>19.40574165936306</v>
+        <v>19.62842893958272</v>
       </c>
       <c r="E172">
-        <v>19.44435115540497</v>
+        <v>19.65542020093611</v>
       </c>
       <c r="F172">
-        <v>19.58176319993436</v>
+        <v>19.39524188146376</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>19.61018906333487</v>
+        <v>19.68966797649439</v>
       </c>
       <c r="C173">
-        <v>19.41392379455162</v>
+        <v>19.36605204654444</v>
       </c>
       <c r="D173">
-        <v>19.29777565602415</v>
+        <v>19.53704390941661</v>
       </c>
       <c r="E173">
-        <v>19.3531111095718</v>
+        <v>19.56381771378717</v>
       </c>
       <c r="F173">
-        <v>19.47303923632201</v>
+        <v>19.30738555892728</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>19.517434306392</v>
+        <v>19.6035234557827</v>
       </c>
       <c r="C174">
-        <v>19.3054726058617</v>
+        <v>19.27781168657879</v>
       </c>
       <c r="D174">
-        <v>19.1899067869847</v>
+        <v>19.44569707860286</v>
       </c>
       <c r="E174">
-        <v>19.26187199065086</v>
+        <v>19.47227598421688</v>
       </c>
       <c r="F174">
-        <v>19.36424281149998</v>
+        <v>19.21957478892028</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>19.42473105955471</v>
+        <v>19.51748708800482</v>
       </c>
       <c r="C175">
-        <v>19.19699837535766</v>
+        <v>19.18966625330668</v>
       </c>
       <c r="D175">
-        <v>19.08213793244891</v>
+        <v>19.35438895380981</v>
       </c>
       <c r="E175">
-        <v>19.17063379896529</v>
+        <v>19.38079559949659</v>
       </c>
       <c r="F175">
-        <v>19.25537657513213</v>
+        <v>19.13180991045826</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>19.33207994633231</v>
+        <v>19.43155905837758</v>
       </c>
       <c r="C176">
-        <v>19.08850421035596</v>
+        <v>19.10161620427747</v>
       </c>
       <c r="D176">
-        <v>18.97447192391136</v>
+        <v>19.26312003853715</v>
       </c>
       <c r="E176">
-        <v>19.07939653482294</v>
+        <v>19.28937713397247</v>
       </c>
       <c r="F176">
-        <v>19.14644313470515</v>
+        <v>19.04409126617977</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>19.23948158195578</v>
+        <v>19.34573955384812</v>
       </c>
       <c r="C177">
-        <v>18.97999315750641</v>
+        <v>19.01366198545083</v>
       </c>
       <c r="D177">
-        <v>18.86691150971855</v>
+        <v>19.17189081718287</v>
       </c>
       <c r="E177">
-        <v>18.98816019854566</v>
+        <v>19.19802116938677</v>
       </c>
       <c r="F177">
-        <v>19.03744505472083</v>
+        <v>18.95641920439345</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>19.14693657057803</v>
+        <v>19.26002876329916</v>
       </c>
       <c r="C178">
-        <v>18.87146820348567</v>
+        <v>18.92580405356211</v>
       </c>
       <c r="D178">
-        <v>18.75945934890185</v>
+        <v>19.08070178888047</v>
       </c>
       <c r="E178">
-        <v>18.89692479045393</v>
+        <v>19.10672827561905</v>
       </c>
       <c r="F178">
-        <v>18.92838485987373</v>
+        <v>18.86879407477328</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>19.05444551156937</v>
+        <v>19.17442687749335</v>
       </c>
       <c r="C179">
-        <v>18.7629322757904</v>
+        <v>18.83804286884669</v>
       </c>
       <c r="D179">
-        <v>18.65211803456463</v>
+        <v>18.98955344607025</v>
       </c>
       <c r="E179">
-        <v>18.80569031086583</v>
+        <v>19.01549901655407</v>
       </c>
       <c r="F179">
-        <v>18.81926503591126</v>
+        <v>18.78121623130716</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>18.96200899692366</v>
+        <v>19.08893408913019</v>
       </c>
       <c r="C180">
-        <v>18.65438824142653</v>
+        <v>18.75037889503998</v>
       </c>
       <c r="D180">
-        <v>18.5448901066972</v>
+        <v>18.89844627706405</v>
       </c>
       <c r="E180">
-        <v>18.71445676009924</v>
+        <v>18.92433394963885</v>
       </c>
       <c r="F180">
-        <v>18.71008802886299</v>
+        <v>18.69368603205287</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>18.86962761139298</v>
+        <v>19.00355059296393</v>
       </c>
       <c r="C181">
-        <v>18.54583890987698</v>
+        <v>18.66281260051459</v>
       </c>
       <c r="D181">
-        <v>18.43777803667513</v>
+        <v>18.80738076773837</v>
       </c>
       <c r="E181">
-        <v>18.62322413847845</v>
+        <v>18.83323362744899</v>
       </c>
       <c r="F181">
-        <v>18.60085624466224</v>
+        <v>18.60620383897078</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>18.77730193018266</v>
+        <v>18.91827658573463</v>
       </c>
       <c r="C182">
-        <v>18.43728703453364</v>
+        <v>18.57534447802633</v>
       </c>
       <c r="D182">
-        <v>18.33078421288109</v>
+        <v>18.71635739716931</v>
       </c>
       <c r="E182">
-        <v>18.5319924463223</v>
+        <v>18.74219859711578</v>
       </c>
       <c r="F182">
-        <v>18.49157205135463</v>
+        <v>18.51877001796923</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>18.68503252432801</v>
+        <v>18.83311226631987</v>
       </c>
       <c r="C183">
-        <v>18.32873531194355</v>
+        <v>18.48797499202955</v>
       </c>
       <c r="D183">
-        <v>18.22391098706074</v>
+        <v>18.62537663854671</v>
       </c>
       <c r="E183">
-        <v>18.4407616839504</v>
+        <v>18.65122940065438</v>
       </c>
       <c r="F183">
-        <v>18.38223778086222</v>
+        <v>18.43138493956101</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>18.5928199585411</v>
+        <v>18.74805783572403</v>
       </c>
       <c r="C184">
-        <v>18.22018638312542</v>
+        <v>18.40070462336934</v>
       </c>
       <c r="D184">
-        <v>18.11716064982269</v>
+        <v>18.53443897327112</v>
       </c>
       <c r="E184">
-        <v>18.34953185168414</v>
+        <v>18.56032657748262</v>
       </c>
       <c r="F184">
-        <v>18.27285572774626</v>
+        <v>18.34404897926326</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>18.50066479127862</v>
+        <v>18.66311349709492</v>
       </c>
       <c r="C185">
-        <v>18.11164283494533</v>
+        <v>18.31353385667151</v>
       </c>
       <c r="D185">
-        <v>18.01053543520119</v>
+        <v>18.44354487615893</v>
       </c>
       <c r="E185">
-        <v>18.25830294984585</v>
+        <v>18.46949066449654</v>
       </c>
       <c r="F185">
-        <v>18.16342814912162</v>
+        <v>18.25676251455498</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>18.40856757326605</v>
+        <v>18.57827945583929</v>
       </c>
       <c r="C186">
-        <v>18.0031072021399</v>
+        <v>18.22646318034252</v>
       </c>
       <c r="D186">
-        <v>17.90403751420383</v>
+        <v>18.35269482025168</v>
       </c>
       <c r="E186">
-        <v>18.16707497876542</v>
+        <v>18.37872218912141</v>
       </c>
       <c r="F186">
-        <v>18.05395726607147</v>
+        <v>18.169525928068</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>18.31652885128237</v>
+        <v>18.49355591959249</v>
       </c>
       <c r="C187">
-        <v>17.89458196512614</v>
+        <v>18.13949308656953</v>
       </c>
       <c r="D187">
-        <v>17.79766902418246</v>
+        <v>18.26188927703888</v>
       </c>
       <c r="E187">
-        <v>18.07584793876877</v>
+        <v>18.28802167702935</v>
       </c>
       <c r="F187">
-        <v>17.9444452662502</v>
+        <v>18.0823396066823</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>18.22454916676868</v>
+        <v>18.40894309829488</v>
       </c>
       <c r="C188">
-        <v>17.78606955316779</v>
+        <v>18.0526240868296</v>
       </c>
       <c r="D188">
-        <v>17.69143205096525</v>
+        <v>18.17112871105331</v>
       </c>
       <c r="E188">
-        <v>17.98462183018371</v>
+        <v>18.19738965014433</v>
       </c>
       <c r="F188">
-        <v>17.83489430215218</v>
+        <v>17.99520394157625</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>18.13262905589911</v>
+        <v>18.32444120423433</v>
       </c>
       <c r="C189">
-        <v>17.67757234467714</v>
+        <v>17.9658566821962</v>
       </c>
       <c r="D189">
-        <v>17.5853286287431</v>
+        <v>18.0804135920453</v>
       </c>
       <c r="E189">
-        <v>17.8933966533412</v>
+        <v>18.10682662687165</v>
       </c>
       <c r="F189">
-        <v>17.72530649130449</v>
+        <v>17.90811932827677</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>18.04076904854938</v>
+        <v>18.24005045205385</v>
       </c>
       <c r="C190">
-        <v>17.56909266809437</v>
+        <v>17.87919137456895</v>
       </c>
       <c r="D190">
-        <v>17.47936074670241</v>
+        <v>17.98974438682382</v>
       </c>
       <c r="E190">
-        <v>17.80217240857457</v>
+        <v>18.0163331223275</v>
       </c>
       <c r="F190">
-        <v>17.61568391694185</v>
+        <v>17.82108616862451</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>17.94896967109555</v>
+        <v>18.15577105883294</v>
       </c>
       <c r="C191">
-        <v>17.46063280277255</v>
+        <v>17.79262867451326</v>
       </c>
       <c r="D191">
-        <v>17.37353036238873</v>
+        <v>17.89912156091676</v>
       </c>
       <c r="E191">
-        <v>17.71094909621668</v>
+        <v>17.92590964932029</v>
       </c>
       <c r="F191">
-        <v>17.50602863141689</v>
+        <v>17.73410486713386</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>17.85723144548313</v>
+        <v>18.07160324409479</v>
       </c>
       <c r="C192">
-        <v>17.35219498306904</v>
+        <v>17.70616909665262</v>
       </c>
       <c r="D192">
-        <v>17.26783939154114</v>
+        <v>17.80854557907946</v>
       </c>
       <c r="E192">
-        <v>17.61972671660554</v>
+        <v>17.83555671781968</v>
       </c>
       <c r="F192">
-        <v>17.3963426539766</v>
+        <v>17.64717583273284</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>17.76555488930157</v>
+        <v>17.98754722985228</v>
       </c>
       <c r="C193">
-        <v>17.2437813918463</v>
+        <v>17.61981315966867</v>
       </c>
       <c r="D193">
-        <v>17.16228969921378</v>
+        <v>17.71801690436708</v>
       </c>
       <c r="E193">
-        <v>17.52850527008202</v>
+        <v>17.74527483418971</v>
       </c>
       <c r="F193">
-        <v>17.28662797125418</v>
+        <v>17.56029947942631</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>17.67394051482085</v>
+        <v>17.90360324065951</v>
       </c>
       <c r="C194">
-        <v>17.13539416719208</v>
+        <v>17.53356139339009</v>
       </c>
       <c r="D194">
-        <v>17.05688312583794</v>
+        <v>17.62753599882592</v>
       </c>
       <c r="E194">
-        <v>17.4372847569894</v>
+        <v>17.65506450301845</v>
       </c>
       <c r="F194">
-        <v>17.17688653725553</v>
+        <v>17.47347622590439</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>17.58238883150645</v>
+        <v>17.81977150362415</v>
       </c>
       <c r="C195">
-        <v>17.02703540173164</v>
+        <v>17.44741433732043</v>
       </c>
       <c r="D195">
-        <v>16.95162147829105</v>
+        <v>17.53710332628704</v>
       </c>
       <c r="E195">
-        <v>17.34606517767408</v>
+        <v>17.56492622679663</v>
       </c>
       <c r="F195">
-        <v>17.06712027742221</v>
+        <v>17.38670649559811</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>17.49090034521443</v>
+        <v>17.73605224847217</v>
       </c>
       <c r="C196">
-        <v>16.91870714351278</v>
+        <v>17.36137251619884</v>
       </c>
       <c r="D196">
-        <v>16.84650652898033</v>
+        <v>17.44671934950177</v>
       </c>
       <c r="E196">
-        <v>17.25484653247985</v>
+        <v>17.47486050614927</v>
       </c>
       <c r="F196">
-        <v>16.95733108604225</v>
+        <v>17.29999071724382</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>17.39947555823658</v>
+        <v>17.65244570756925</v>
       </c>
       <c r="C197">
-        <v>16.81041139689071</v>
+        <v>17.27543646799464</v>
       </c>
       <c r="D197">
-        <v>16.74154000694449</v>
+        <v>17.35638453128342</v>
       </c>
       <c r="E197">
-        <v>17.16362882175851</v>
+        <v>17.38486784006723</v>
       </c>
       <c r="F197">
-        <v>16.84752082700784</v>
+        <v>17.21332932648702</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>17.3081149683978</v>
+        <v>17.56895211595846</v>
       </c>
       <c r="C198">
-        <v>16.70215012423589</v>
+        <v>17.18960673500345</v>
       </c>
       <c r="D198">
-        <v>16.63672362728284</v>
+        <v>17.26609933469422</v>
       </c>
       <c r="E198">
-        <v>17.07241204586544</v>
+        <v>17.29494871943666</v>
       </c>
       <c r="F198">
-        <v>16.73769133322099</v>
+        <v>17.12672276040253</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>17.21681907138132</v>
+        <v>17.48557171140781</v>
       </c>
       <c r="C199">
-        <v>16.59392524501173</v>
+        <v>17.1038838638473</v>
       </c>
       <c r="D199">
-        <v>16.5320590727576</v>
+        <v>17.17586421953583</v>
       </c>
       <c r="E199">
-        <v>16.98119620515833</v>
+        <v>17.20510363718794</v>
       </c>
       <c r="F199">
-        <v>16.62784441109556</v>
+        <v>17.04017146257818</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>17.1255883600049</v>
+        <v>17.40230473443848</v>
       </c>
       <c r="C200">
-        <v>16.48573863795806</v>
+        <v>17.01826840571637</v>
       </c>
       <c r="D200">
-        <v>16.42754799599183</v>
+        <v>17.08567965061574</v>
       </c>
       <c r="E200">
-        <v>16.88998129999833</v>
+        <v>17.11533309008826</v>
       </c>
       <c r="F200">
-        <v>16.51798183775978</v>
+        <v>16.95367588171904</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>17.0344233242348</v>
+        <v>17.31915142836728</v>
       </c>
       <c r="C201">
-        <v>16.37759214174391</v>
+        <v>16.93276092855468</v>
       </c>
       <c r="D201">
-        <v>16.32319202046467</v>
+        <v>16.99554609191034</v>
       </c>
       <c r="E201">
-        <v>16.79876733074857</v>
+        <v>17.02563757051808</v>
       </c>
       <c r="F201">
-        <v>16.40810536201279</v>
+        <v>16.86723647170952</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>16.94332445048989</v>
+        <v>17.23611203934374</v>
       </c>
       <c r="C202">
-        <v>16.2694875558064</v>
+        <v>16.8473619898311</v>
       </c>
       <c r="D202">
-        <v>16.21899275447756</v>
+        <v>16.9054640081038</v>
       </c>
       <c r="E202">
-        <v>16.70755429777717</v>
+        <v>16.93601757004289</v>
       </c>
       <c r="F202">
-        <v>16.29821670326012</v>
+        <v>16.7808536916753</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>16.8522922235571</v>
+        <v>17.15318681638845</v>
       </c>
       <c r="C203">
-        <v>16.16142664123797</v>
+        <v>16.76207215721356</v>
       </c>
       <c r="D203">
-        <v>16.11495178129119</v>
+        <v>16.81543386485445</v>
       </c>
       <c r="E203">
-        <v>16.61634220145621</v>
+        <v>16.84647357962469</v>
       </c>
       <c r="F203">
-        <v>16.18831755631264</v>
+        <v>16.69452800820192</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>16.76132712604429</v>
+        <v>17.07037601142928</v>
       </c>
       <c r="C204">
-        <v>16.05341111566377</v>
+        <v>16.67689200318847</v>
       </c>
       <c r="D204">
-        <v>16.01107065656787</v>
+        <v>16.72545612727531</v>
       </c>
       <c r="E204">
-        <v>16.52513104216134</v>
+        <v>16.75700608983349</v>
       </c>
       <c r="F204">
-        <v>16.07840958846685</v>
+        <v>16.60825989193906</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>16.67042963839267</v>
+        <v>16.98767987934307</v>
       </c>
       <c r="C205">
-        <v>15.94544266650008</v>
+        <v>16.59182210850035</v>
       </c>
       <c r="D205">
-        <v>15.9073509196464</v>
+        <v>16.63553126127403</v>
       </c>
       <c r="E205">
-        <v>16.43392082027226</v>
+        <v>16.66761557918899</v>
       </c>
       <c r="F205">
-        <v>15.96849444060925</v>
+        <v>16.52204981791082</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>16.57960023842114</v>
+        <v>16.90509867799199</v>
       </c>
       <c r="C206">
-        <v>15.83752294429424</v>
+        <v>16.50686305547633</v>
       </c>
       <c r="D206">
-        <v>15.80379409332735</v>
+        <v>16.54565973665914</v>
       </c>
       <c r="E206">
-        <v>16.342711536175</v>
+        <v>16.57830253573534</v>
       </c>
       <c r="F206">
-        <v>15.8585737257603</v>
+        <v>16.43589826761517</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>16.48883940276356</v>
+        <v>16.8226326682604</v>
       </c>
       <c r="C207">
-        <v>15.72965356373924</v>
+        <v>16.42201543189815</v>
       </c>
       <c r="D207">
-        <v>15.70040168168551</v>
+        <v>16.45584202346577</v>
       </c>
       <c r="E207">
-        <v>16.25150319025833</v>
+        <v>16.48906745092992</v>
       </c>
       <c r="F207">
-        <v>15.7486490341048</v>
+        <v>16.34980572821864</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>16.39814760652365</v>
+        <v>16.74028211410178</v>
       </c>
       <c r="C208">
-        <v>15.62183610532395</v>
+        <v>16.33727983084687</v>
       </c>
       <c r="D208">
-        <v>15.59717516386427</v>
+        <v>16.36607859334456</v>
       </c>
       <c r="E208">
-        <v>16.16029578291536</v>
+        <v>16.39991081231446</v>
       </c>
       <c r="F208">
-        <v>15.63872192997683</v>
+        <v>16.26377269262579</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>16.30752532330748</v>
+        <v>16.65804728256603</v>
       </c>
       <c r="C209">
-        <v>15.51407211620058</v>
+        <v>16.25265685225001</v>
       </c>
       <c r="D209">
-        <v>15.49411601323936</v>
+        <v>16.27636991971264</v>
       </c>
       <c r="E209">
-        <v>16.06908931454439</v>
+        <v>16.31083310758849</v>
       </c>
       <c r="F209">
-        <v>15.52879395308345</v>
+        <v>16.17779965981975</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>16.21697302492632</v>
+        <v>16.57592844385254</v>
       </c>
       <c r="C210">
-        <v>15.40636309992083</v>
+        <v>16.16814709994848</v>
       </c>
       <c r="D210">
-        <v>15.39122568607757</v>
+        <v>16.18671647528089</v>
       </c>
       <c r="E210">
-        <v>15.97788378554859</v>
+        <v>16.22183482479004</v>
       </c>
       <c r="F210">
-        <v>15.41886661672669</v>
+        <v>16.09188713822579</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>16.12649118248939</v>
+        <v>16.49392587134658</v>
       </c>
       <c r="C211">
-        <v>15.29871053834409</v>
+        <v>16.08375118227639</v>
       </c>
       <c r="D211">
-        <v>15.28850562360736</v>
+        <v>16.09711873811165</v>
       </c>
       <c r="E211">
-        <v>15.88667919633851</v>
+        <v>16.13291645247639</v>
       </c>
       <c r="F211">
-        <v>15.30894141299817</v>
+        <v>16.00603563699312</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>16.03608026620027</v>
+        <v>16.41203984164166</v>
       </c>
       <c r="C212">
-        <v>15.19111588288099</v>
+        <v>15.99946971311884</v>
       </c>
       <c r="D212">
-        <v>15.18595725050696</v>
+        <v>16.00757718715503</v>
       </c>
       <c r="E212">
-        <v>15.79547554732832</v>
+        <v>16.04407847019163</v>
       </c>
       <c r="F212">
-        <v>15.19901980970159</v>
+        <v>15.92024567348673</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>15.94574074540703</v>
+        <v>16.33027063459159</v>
       </c>
       <c r="C213">
-        <v>15.08358055210115</v>
+        <v>15.91530331480235</v>
       </c>
       <c r="D213">
-        <v>15.08358198665897</v>
+        <v>15.91809230362225</v>
       </c>
       <c r="E213">
-        <v>15.70427283893731</v>
+        <v>15.95532136845619</v>
       </c>
       <c r="F213">
-        <v>15.08910325166556</v>
+        <v>15.83451777128385</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>15.8554730883958</v>
+        <v>16.24861853337863</v>
       </c>
       <c r="C214">
-        <v>14.97610593496028</v>
+        <v>15.83125261452772</v>
       </c>
       <c r="D214">
-        <v>14.98138123948232</v>
+        <v>15.82866457113114</v>
       </c>
       <c r="E214">
-        <v>15.61307107159096</v>
+        <v>15.86664563818272</v>
       </c>
       <c r="F214">
-        <v>14.97919315874155</v>
+        <v>15.74885246025177</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>15.76527776327137</v>
+        <v>16.16708382453395</v>
       </c>
       <c r="C215">
-        <v>14.86869339162642</v>
+        <v>15.74731824137284</v>
       </c>
       <c r="D215">
-        <v>14.87935640316092</v>
+        <v>15.73929447554689</v>
       </c>
       <c r="E215">
-        <v>15.52187024572064</v>
+        <v>15.7780517692837</v>
       </c>
       <c r="F215">
-        <v>14.8692909310289</v>
+        <v>15.66325027662565</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>15.67515523783797</v>
+        <v>16.08566679792955</v>
       </c>
       <c r="C216">
-        <v>14.76134424242678</v>
+        <v>15.66350083129171</v>
       </c>
       <c r="D216">
-        <v>14.7775088639114</v>
+        <v>15.6499825054039</v>
       </c>
       <c r="E216">
-        <v>15.4306703617648</v>
+        <v>15.689540252738</v>
       </c>
       <c r="F216">
-        <v>14.75939794582766</v>
+        <v>15.57771176524</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>15.58510597965891</v>
+        <v>16.00436774687152</v>
       </c>
       <c r="C217">
-        <v>14.65405978868504</v>
+        <v>15.57980102543563</v>
       </c>
       <c r="D217">
-        <v>14.67584000283887</v>
+        <v>15.56072915243136</v>
       </c>
       <c r="E217">
-        <v>15.3394714201674</v>
+        <v>15.60111158075016</v>
       </c>
       <c r="F217">
-        <v>14.64951555888899</v>
+        <v>15.49223747715227</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>15.49513045593915</v>
+        <v>15.92318696818652</v>
       </c>
       <c r="C218">
-        <v>14.54684130895441</v>
+        <v>15.49621947013387</v>
       </c>
       <c r="D218">
-        <v>14.57435119309667</v>
+        <v>15.47153491112221</v>
       </c>
       <c r="E218">
-        <v>15.2482734213786</v>
+        <v>15.51276624690962</v>
       </c>
       <c r="F218">
-        <v>14.53964510278104</v>
+        <v>15.40682796760197</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>15.40522913421923</v>
+        <v>15.84212476221794</v>
       </c>
       <c r="C219">
-        <v>14.43969005181055</v>
+        <v>15.41275681687443</v>
       </c>
       <c r="D219">
-        <v>14.47304379630193</v>
+        <v>15.38240027906702</v>
       </c>
       <c r="E219">
-        <v>15.15707636585544</v>
+        <v>15.42450474216938</v>
       </c>
       <c r="F219">
-        <v>14.42978789102916</v>
+        <v>15.32148380004881</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>15.31540248232812</v>
+        <v>15.76118143279229</v>
       </c>
       <c r="C220">
-        <v>14.33260724042848</v>
+        <v>15.32941373124818</v>
       </c>
       <c r="D220">
-        <v>14.37191917412899</v>
+        <v>15.29332575710738</v>
       </c>
       <c r="E220">
-        <v>15.06588025406175</v>
+        <v>15.33632756431488</v>
       </c>
       <c r="F220">
-        <v>14.31994521617375</v>
+        <v>15.23620554485602</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>15.22565096845547</v>
+        <v>15.68035728735475</v>
       </c>
       <c r="C221">
-        <v>14.22559407335863</v>
+        <v>15.24619087600906</v>
       </c>
       <c r="D221">
-        <v>14.27097868240291</v>
+        <v>15.20431184981459</v>
       </c>
       <c r="E221">
-        <v>14.97468508646949</v>
+        <v>15.24823521160559</v>
       </c>
       <c r="F221">
-        <v>14.21011835043983</v>
+        <v>15.1509937793775</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>15.13597506114481</v>
+        <v>15.59965263705715</v>
       </c>
       <c r="C222">
-        <v>14.11865171524459</v>
+        <v>15.16308892097908</v>
       </c>
       <c r="D222">
-        <v>14.17022367234176</v>
+        <v>15.11535906484505</v>
       </c>
       <c r="E222">
-        <v>14.88349086355706</v>
+        <v>15.16022818380744</v>
       </c>
       <c r="F222">
-        <v>14.10030854452918</v>
+        <v>15.065849088045</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>15.04637522977614</v>
+        <v>15.51906779673979</v>
       </c>
       <c r="C223">
-        <v>14.01178131195344</v>
+        <v>15.08010854295809</v>
       </c>
       <c r="D223">
-        <v>14.06965548884867</v>
+        <v>15.02646791370849</v>
       </c>
       <c r="E223">
-        <v>14.79229758580995</v>
+        <v>15.07230698273384</v>
       </c>
       <c r="F223">
-        <v>13.99051703082113</v>
+        <v>14.98077206758166</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>14.9568519445978</v>
+        <v>15.4386030848991</v>
       </c>
       <c r="C224">
-        <v>13.90498399347378</v>
+        <v>14.99725042505747</v>
       </c>
       <c r="D224">
-        <v>13.96927547874328</v>
+        <v>14.93763891174462</v>
       </c>
       <c r="E224">
-        <v>14.70110525372157</v>
+        <v>14.98447211239687</v>
       </c>
       <c r="F224">
-        <v>13.88074502236002</v>
+        <v>14.89576331518829</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>14.86740567682264</v>
+        <v>15.35825882383441</v>
       </c>
       <c r="C225">
-        <v>13.7982608630706</v>
+        <v>14.91451525753196</v>
       </c>
       <c r="D225">
-        <v>13.86908498588657</v>
+        <v>14.84887257826726</v>
       </c>
       <c r="E225">
-        <v>14.60991386779308</v>
+        <v>14.89672407915856</v>
       </c>
       <c r="F225">
-        <v>13.77099371304446</v>
+        <v>14.81082343795584</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>14.77803689873301</v>
+        <v>15.27803533973393</v>
       </c>
       <c r="C226">
-        <v>13.6916130025404</v>
+        <v>14.83190373554742</v>
       </c>
       <c r="D226">
-        <v>13.76908535149543</v>
+        <v>14.76016943708856</v>
       </c>
       <c r="E226">
-        <v>14.51872342853587</v>
+        <v>14.80906339094066</v>
       </c>
       <c r="F226">
-        <v>13.66126427677881</v>
+        <v>14.72595305067982</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>14.68874608395284</v>
+        <v>15.19793296265235</v>
       </c>
       <c r="C227">
-        <v>13.58504147293819</v>
+        <v>14.74941656118524</v>
       </c>
       <c r="D227">
-        <v>13.66927791599453</v>
+        <v>14.67153001624709</v>
       </c>
       <c r="E227">
-        <v>14.42753393646814</v>
+        <v>14.72149055961432</v>
       </c>
       <c r="F227">
-        <v>13.55155786987711</v>
+        <v>14.64115277584084</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>14.59953370755552</v>
+        <v>15.11795202649386</v>
       </c>
       <c r="C228">
-        <v>13.47854730735962</v>
+        <v>14.66705444300246</v>
       </c>
       <c r="D228">
-        <v>13.56966402239598</v>
+        <v>14.58295484783784</v>
       </c>
       <c r="E228">
-        <v>14.33634539211599</v>
+        <v>14.634006099342</v>
       </c>
       <c r="F228">
-        <v>13.44187563081754</v>
+        <v>14.55642324370242</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>14.51040024619198</v>
+        <v>15.03809286915078</v>
       </c>
       <c r="C229">
-        <v>13.37213152037079</v>
+        <v>14.58481809421406</v>
       </c>
       <c r="D229">
-        <v>13.47024501403085</v>
+        <v>14.49444446875011</v>
       </c>
       <c r="E229">
-        <v>14.2451577960148</v>
+        <v>14.54661052720653</v>
       </c>
       <c r="F229">
-        <v>13.33221868004041</v>
+        <v>14.47176509451863</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>14.42134617829161</v>
+        <v>14.95835583259578</v>
       </c>
       <c r="C230">
-        <v>13.26579511652538</v>
+        <v>14.50270823473053</v>
       </c>
       <c r="D230">
-        <v>13.37102223319522</v>
+        <v>14.40599942060964</v>
       </c>
       <c r="E230">
-        <v>14.15397114870892</v>
+        <v>14.45930436337033</v>
       </c>
       <c r="F230">
-        <v>13.22258811940159</v>
+        <v>14.38717897775071</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>14.33237198415436</v>
+        <v>14.87874126285344</v>
       </c>
       <c r="C231">
-        <v>13.15953907701279</v>
+        <v>14.42072559256393</v>
       </c>
       <c r="D231">
-        <v>13.27199702671051</v>
+        <v>14.3176202500021</v>
       </c>
       <c r="E231">
-        <v>14.06278545075526</v>
+        <v>14.37208813122501</v>
       </c>
       <c r="F231">
-        <v>13.1129850339027</v>
+        <v>14.30266554648373</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>14.24347814612102</v>
+        <v>14.79924950999629</v>
       </c>
       <c r="C232">
-        <v>13.05336436524734</v>
+        <v>14.33887090139398</v>
       </c>
       <c r="D232">
-        <v>13.17317074435108</v>
+        <v>14.22930750973555</v>
       </c>
       <c r="E232">
-        <v>13.97160070271817</v>
+        <v>14.28496235753486</v>
       </c>
       <c r="F232">
-        <v>13.00341049207256</v>
+        <v>14.2182254643363</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>14.15466514873546</v>
+        <v>14.71988092827845</v>
       </c>
       <c r="C233">
-        <v>12.94727192754983</v>
+        <v>14.25714490146445</v>
       </c>
       <c r="D233">
-        <v>13.07454473900301</v>
+        <v>14.14106175623868</v>
       </c>
       <c r="E233">
-        <v>13.88041690517068</v>
+        <v>14.19792757251165</v>
       </c>
       <c r="F233">
-        <v>12.89386554545069</v>
+        <v>14.13385940338814</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>14.06593347903132</v>
+        <v>14.64063587624466</v>
       </c>
       <c r="C234">
-        <v>12.84126269011144</v>
+        <v>14.17554833793513</v>
       </c>
       <c r="D234">
-        <v>12.97612036538919</v>
+        <v>14.05288355192818</v>
       </c>
       <c r="E234">
-        <v>13.78923405869685</v>
+        <v>14.11098431016709</v>
       </c>
       <c r="F234">
-        <v>12.78435122829448</v>
+        <v>14.04956804429</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>13.97728362646958</v>
+        <v>14.56151471668413</v>
       </c>
       <c r="C235">
-        <v>12.73533756060929</v>
+        <v>14.09408196439473</v>
       </c>
       <c r="D235">
-        <v>12.87789898577237</v>
+        <v>13.96477346476156</v>
       </c>
       <c r="E235">
-        <v>13.69805216389107</v>
+        <v>14.02413310828939</v>
       </c>
       <c r="F235">
-        <v>12.6748685587416</v>
+        <v>13.96535207637373</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>13.88871608316003</v>
+        <v>14.48251781663404</v>
       </c>
       <c r="C236">
-        <v>12.62949743738755</v>
+        <v>14.01274654048278</v>
       </c>
       <c r="D236">
-        <v>12.77988196690549</v>
+        <v>13.87673206838971</v>
       </c>
       <c r="E236">
-        <v>13.60687122136231</v>
+        <v>13.93737450864175</v>
       </c>
       <c r="F236">
-        <v>12.56541853969571</v>
+        <v>13.8812122034662</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>13.8002313440598</v>
+        <v>14.40364554752025</v>
       </c>
       <c r="C237">
-        <v>12.5237432007328</v>
+        <v>13.93154283242681</v>
       </c>
       <c r="D237">
-        <v>12.6820706807439</v>
+        <v>13.78875994350109</v>
       </c>
       <c r="E237">
-        <v>13.5156912317282</v>
+        <v>13.85070905711186</v>
       </c>
       <c r="F237">
-        <v>12.4560021580641</v>
+        <v>13.79714913185105</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>13.71182990734831</v>
+        <v>14.32489828528128</v>
       </c>
       <c r="C238">
-        <v>12.41807571628593</v>
+        <v>13.85047161347588</v>
       </c>
       <c r="D238">
-        <v>12.58446650497514</v>
+        <v>13.70085767647401</v>
       </c>
       <c r="E238">
-        <v>13.42451219561624</v>
+        <v>13.76413730386138</v>
       </c>
       <c r="F238">
-        <v>12.3466203846755</v>
+        <v>13.71316357815733</v>
       </c>
     </row>
   </sheetData>
